--- a/storage/app/public/files/files_out/Centro_de_Costos_122_1.xlsx
+++ b/storage/app/public/files/files_out/Centro_de_Costos_122_1.xlsx
@@ -1860,7 +1860,7 @@
     <t>Autorizacion de viaticos y pasajes</t>
   </si>
   <si>
-    <t>CONCILIACIÓN CENTRO DE COSTOS ##</t>
+    <t>CONCILIACIÓN CENTRO DE COSTOS 122</t>
   </si>
   <si>
     <t>Ingresos</t>
@@ -1905,6 +1905,7 @@
     <numFmt numFmtId="164" formatCode="#,##"/>
     <numFmt numFmtId="165" formatCode="#,##0"/>
     <numFmt numFmtId="165" formatCode="#,##0"/>
+    <numFmt numFmtId="164" formatCode="#,##"/>
     <numFmt numFmtId="165" formatCode="#,##0"/>
     <numFmt numFmtId="165" formatCode="#,##0"/>
   </numFmts>
@@ -1933,7 +1934,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1949,6 +1950,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFE699"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1992,7 +1999,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2004,10 +2011,11 @@
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2456,7 +2464,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA84"/>
+  <dimension ref="A1:AA85"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8557,9 +8565,8 @@
       </c>
     </row>
     <row r="84" spans="1:27">
-      <c r="B84" s="2">
-        <f>SUM(B2:B83)</f>
-        <v>0</v>
+      <c r="B84" s="9">
+        <v>-163094715</v>
       </c>
       <c r="Y84" s="2">
         <f>SUM(Y2:Y83)</f>
@@ -8567,6 +8574,12 @@
       </c>
       <c r="Z84" s="2">
         <f>SUM(Z2:Z83)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:27">
+      <c r="B85" s="2">
+        <f>SUM(B2:B83)</f>
         <v>0</v>
       </c>
     </row>
@@ -12379,7 +12392,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB364"/>
+  <dimension ref="A1:AB365"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -18958,243 +18971,243 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:28" s="9" customFormat="1">
-      <c r="A83" s="9">
+    <row r="83" spans="1:28" s="10" customFormat="1">
+      <c r="A83" s="10">
         <v>2000464068</v>
       </c>
-      <c r="B83" s="10">
+      <c r="B83" s="11">
         <v>551938</v>
       </c>
-      <c r="C83" s="9">
+      <c r="C83" s="10">
         <v>3400096166</v>
       </c>
-      <c r="D83" s="9">
+      <c r="D83" s="10">
         <v>6</v>
       </c>
-      <c r="E83" s="9" t="s">
+      <c r="E83" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="F83" s="9" t="s">
+      <c r="F83" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="G83" s="9">
-        <v>10</v>
-      </c>
-      <c r="H83" s="9">
+      <c r="G83" s="10">
+        <v>10</v>
+      </c>
+      <c r="H83" s="10">
         <v>3400096166</v>
       </c>
-      <c r="I83" s="9">
+      <c r="I83" s="10">
         <v>121</v>
       </c>
-      <c r="J83" s="9">
+      <c r="J83" s="10">
         <v>21940005</v>
       </c>
-      <c r="K83" s="9">
+      <c r="K83" s="10">
         <v>57</v>
       </c>
-      <c r="L83" s="9" t="s">
+      <c r="L83" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="M83" s="9">
+      <c r="M83" s="10">
         <v>250</v>
       </c>
-      <c r="N83" s="9">
+      <c r="N83" s="10">
         <v>21150304</v>
       </c>
-      <c r="O83" s="9">
-        <v>10</v>
-      </c>
-      <c r="P83" s="9">
+      <c r="O83" s="10">
+        <v>10</v>
+      </c>
+      <c r="P83" s="10">
         <v>9999</v>
       </c>
-      <c r="Q83" s="9">
+      <c r="Q83" s="10">
         <v>9999999999</v>
       </c>
-      <c r="R83" s="9" t="s">
+      <c r="R83" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="T83" s="9">
+      <c r="T83" s="10">
         <v>7208050307</v>
       </c>
-      <c r="U83" s="9" t="s">
+      <c r="U83" s="10" t="s">
         <v>384</v>
       </c>
-      <c r="V83" s="9">
+      <c r="V83" s="10">
         <v>2018</v>
       </c>
-      <c r="Y83" s="10">
+      <c r="Y83" s="11">
         <f>SUMAR.SI.CONJUNTO(Egresos_SIGEP!B:B,Egresos_SIGEP!A:A,Pagos_SAP!A83,Egresos_SIGEP!G:G,Pagos_SAP!G:G)</f>
         <v>0</v>
       </c>
-      <c r="Z83" s="10">
+      <c r="Z83" s="11">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Pagos_SAP!A83,Pagos_SAP!G:G,Pagos_SAP!G:G)-Y83</f>
         <v>0</v>
       </c>
-      <c r="AA83" s="10">
+      <c r="AA83" s="11">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Pagos_SAP!A83,Pagos_SAP!G:G,Pagos_SAP!G:G)*24.023%</f>
         <v>0</v>
       </c>
-      <c r="AB83" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:28" s="9" customFormat="1">
-      <c r="A84" s="9">
+      <c r="AB83" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:28" s="10" customFormat="1">
+      <c r="A84" s="10">
         <v>2000464065</v>
       </c>
-      <c r="B84" s="10">
+      <c r="B84" s="11">
         <v>84266</v>
       </c>
-      <c r="C84" s="9">
+      <c r="C84" s="10">
         <v>3400096163</v>
       </c>
-      <c r="D84" s="9">
+      <c r="D84" s="10">
         <v>137</v>
       </c>
-      <c r="E84" s="9" t="s">
+      <c r="E84" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="F84" s="9" t="s">
+      <c r="F84" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="G84" s="9">
-        <v>10</v>
-      </c>
-      <c r="H84" s="9">
+      <c r="G84" s="10">
+        <v>10</v>
+      </c>
+      <c r="H84" s="10">
         <v>3400096163</v>
       </c>
-      <c r="I84" s="9">
+      <c r="I84" s="10">
         <v>85</v>
       </c>
-      <c r="J84" s="9">
+      <c r="J84" s="10">
         <v>21940005</v>
       </c>
-      <c r="K84" s="9">
+      <c r="K84" s="10">
         <v>57</v>
       </c>
-      <c r="L84" s="9" t="s">
+      <c r="L84" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="M84" s="9">
+      <c r="M84" s="10">
         <v>250</v>
       </c>
-      <c r="N84" s="9">
+      <c r="N84" s="10">
         <v>21150305</v>
       </c>
-      <c r="O84" s="9">
-        <v>10</v>
-      </c>
-      <c r="P84" s="9">
+      <c r="O84" s="10">
+        <v>10</v>
+      </c>
+      <c r="P84" s="10">
         <v>9999</v>
       </c>
-      <c r="Q84" s="9">
+      <c r="Q84" s="10">
         <v>9999999999</v>
       </c>
-      <c r="R84" s="9" t="s">
+      <c r="R84" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="T84" s="9">
+      <c r="T84" s="10">
         <v>7208050305</v>
       </c>
-      <c r="U84" s="9" t="s">
+      <c r="U84" s="10" t="s">
         <v>385</v>
       </c>
-      <c r="V84" s="9">
+      <c r="V84" s="10">
         <v>2018</v>
       </c>
-      <c r="Y84" s="10">
+      <c r="Y84" s="11">
         <f>SUMAR.SI.CONJUNTO(Egresos_SIGEP!B:B,Egresos_SIGEP!A:A,Pagos_SAP!A84,Egresos_SIGEP!G:G,Pagos_SAP!G:G)</f>
         <v>0</v>
       </c>
-      <c r="Z84" s="10">
+      <c r="Z84" s="11">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Pagos_SAP!A84,Pagos_SAP!G:G,Pagos_SAP!G:G)-Y84</f>
         <v>0</v>
       </c>
-      <c r="AA84" s="10">
+      <c r="AA84" s="11">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Pagos_SAP!A84,Pagos_SAP!G:G,Pagos_SAP!G:G)*24.023%</f>
         <v>0</v>
       </c>
-      <c r="AB84" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:28" s="9" customFormat="1">
-      <c r="A85" s="9">
+      <c r="AB84" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:28" s="10" customFormat="1">
+      <c r="A85" s="10">
         <v>2000464066</v>
       </c>
-      <c r="B85" s="10">
+      <c r="B85" s="11">
         <v>352939</v>
       </c>
-      <c r="C85" s="9">
+      <c r="C85" s="10">
         <v>3400096164</v>
       </c>
-      <c r="D85" s="9">
+      <c r="D85" s="10">
         <v>24</v>
       </c>
-      <c r="E85" s="9" t="s">
+      <c r="E85" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="F85" s="9" t="s">
+      <c r="F85" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="G85" s="9">
-        <v>10</v>
-      </c>
-      <c r="H85" s="9">
+      <c r="G85" s="10">
+        <v>10</v>
+      </c>
+      <c r="H85" s="10">
         <v>3400096164</v>
       </c>
-      <c r="I85" s="9">
+      <c r="I85" s="10">
         <v>139</v>
       </c>
-      <c r="J85" s="9">
+      <c r="J85" s="10">
         <v>21940005</v>
       </c>
-      <c r="K85" s="9">
+      <c r="K85" s="10">
         <v>57</v>
       </c>
-      <c r="L85" s="9" t="s">
+      <c r="L85" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="M85" s="9">
+      <c r="M85" s="10">
         <v>250</v>
       </c>
-      <c r="N85" s="9">
+      <c r="N85" s="10">
         <v>21150307</v>
       </c>
-      <c r="O85" s="9">
-        <v>10</v>
-      </c>
-      <c r="P85" s="9">
+      <c r="O85" s="10">
+        <v>10</v>
+      </c>
+      <c r="P85" s="10">
         <v>9999</v>
       </c>
-      <c r="Q85" s="9">
+      <c r="Q85" s="10">
         <v>9999999999</v>
       </c>
-      <c r="R85" s="9" t="s">
+      <c r="R85" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="T85" s="9">
+      <c r="T85" s="10">
         <v>7208060102</v>
       </c>
-      <c r="U85" s="9" t="s">
+      <c r="U85" s="10" t="s">
         <v>386</v>
       </c>
-      <c r="V85" s="9">
+      <c r="V85" s="10">
         <v>2018</v>
       </c>
-      <c r="Y85" s="10">
+      <c r="Y85" s="11">
         <f>SUMAR.SI.CONJUNTO(Egresos_SIGEP!B:B,Egresos_SIGEP!A:A,Pagos_SAP!A85,Egresos_SIGEP!G:G,Pagos_SAP!G:G)</f>
         <v>0</v>
       </c>
-      <c r="Z85" s="10">
+      <c r="Z85" s="11">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Pagos_SAP!A85,Pagos_SAP!G:G,Pagos_SAP!G:G)-Y85</f>
         <v>0</v>
       </c>
-      <c r="AA85" s="10">
+      <c r="AA85" s="11">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Pagos_SAP!A85,Pagos_SAP!G:G,Pagos_SAP!G:G)*24.023%</f>
         <v>0</v>
       </c>
-      <c r="AB85" s="9">
+      <c r="AB85" s="10">
         <v>0</v>
       </c>
     </row>
@@ -19758,483 +19771,483 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:28" s="9" customFormat="1">
-      <c r="A93" s="9">
+    <row r="93" spans="1:28" s="10" customFormat="1">
+      <c r="A93" s="10">
         <v>2000464046</v>
       </c>
-      <c r="B93" s="10">
+      <c r="B93" s="11">
         <v>214310</v>
       </c>
-      <c r="C93" s="9">
+      <c r="C93" s="10">
         <v>3400096147</v>
       </c>
-      <c r="D93" s="9">
+      <c r="D93" s="10">
         <v>111</v>
       </c>
-      <c r="E93" s="9" t="s">
+      <c r="E93" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="F93" s="9" t="s">
+      <c r="F93" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="G93" s="9">
-        <v>10</v>
-      </c>
-      <c r="H93" s="9">
+      <c r="G93" s="10">
+        <v>10</v>
+      </c>
+      <c r="H93" s="10">
         <v>3400096147</v>
       </c>
-      <c r="I93" s="9">
+      <c r="I93" s="10">
         <v>111</v>
       </c>
-      <c r="J93" s="9">
+      <c r="J93" s="10">
         <v>21940005</v>
       </c>
-      <c r="K93" s="9">
+      <c r="K93" s="10">
         <v>57</v>
       </c>
-      <c r="L93" s="9" t="s">
+      <c r="L93" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="M93" s="9">
+      <c r="M93" s="10">
         <v>250</v>
       </c>
-      <c r="N93" s="9">
+      <c r="N93" s="10">
         <v>21150310</v>
       </c>
-      <c r="O93" s="9">
-        <v>10</v>
-      </c>
-      <c r="P93" s="9">
+      <c r="O93" s="10">
+        <v>10</v>
+      </c>
+      <c r="P93" s="10">
         <v>9999</v>
       </c>
-      <c r="Q93" s="9">
+      <c r="Q93" s="10">
         <v>9999999999</v>
       </c>
-      <c r="R93" s="9" t="s">
+      <c r="R93" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="T93" s="9">
+      <c r="T93" s="10">
         <v>7208050309</v>
       </c>
-      <c r="U93" s="9" t="s">
+      <c r="U93" s="10" t="s">
         <v>388</v>
       </c>
-      <c r="V93" s="9">
+      <c r="V93" s="10">
         <v>2018</v>
       </c>
-      <c r="Y93" s="10">
+      <c r="Y93" s="11">
         <f>SUMAR.SI.CONJUNTO(Egresos_SIGEP!B:B,Egresos_SIGEP!A:A,Pagos_SAP!A93,Egresos_SIGEP!G:G,Pagos_SAP!G:G)</f>
         <v>0</v>
       </c>
-      <c r="Z93" s="10">
+      <c r="Z93" s="11">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Pagos_SAP!A93,Pagos_SAP!G:G,Pagos_SAP!G:G)-Y93</f>
         <v>0</v>
       </c>
-      <c r="AA93" s="10">
+      <c r="AA93" s="11">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Pagos_SAP!A93,Pagos_SAP!G:G,Pagos_SAP!G:G)*24.023%</f>
         <v>0</v>
       </c>
-      <c r="AB93" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:28" s="9" customFormat="1">
-      <c r="A94" s="9">
+      <c r="AB93" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:28" s="10" customFormat="1">
+      <c r="A94" s="10">
         <v>2000464049</v>
       </c>
-      <c r="B94" s="10">
+      <c r="B94" s="11">
         <v>643552</v>
       </c>
-      <c r="C94" s="9">
+      <c r="C94" s="10">
         <v>3400096149</v>
       </c>
-      <c r="D94" s="9">
+      <c r="D94" s="10">
         <v>7</v>
       </c>
-      <c r="E94" s="9" t="s">
+      <c r="E94" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="F94" s="9" t="s">
+      <c r="F94" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="G94" s="9">
-        <v>10</v>
-      </c>
-      <c r="H94" s="9">
+      <c r="G94" s="10">
+        <v>10</v>
+      </c>
+      <c r="H94" s="10">
         <v>3400096149</v>
       </c>
-      <c r="I94" s="9">
+      <c r="I94" s="10">
         <v>122</v>
       </c>
-      <c r="J94" s="9">
+      <c r="J94" s="10">
         <v>21940005</v>
       </c>
-      <c r="K94" s="9">
+      <c r="K94" s="10">
         <v>57</v>
       </c>
-      <c r="L94" s="9" t="s">
+      <c r="L94" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="M94" s="9">
+      <c r="M94" s="10">
         <v>250</v>
       </c>
-      <c r="N94" s="9">
+      <c r="N94" s="10">
         <v>21150310</v>
       </c>
-      <c r="O94" s="9">
-        <v>10</v>
-      </c>
-      <c r="P94" s="9">
+      <c r="O94" s="10">
+        <v>10</v>
+      </c>
+      <c r="P94" s="10">
         <v>9999</v>
       </c>
-      <c r="Q94" s="9">
+      <c r="Q94" s="10">
         <v>9999999999</v>
       </c>
-      <c r="R94" s="9" t="s">
+      <c r="R94" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="T94" s="9">
+      <c r="T94" s="10">
         <v>7208050309</v>
       </c>
-      <c r="U94" s="9" t="s">
+      <c r="U94" s="10" t="s">
         <v>388</v>
       </c>
-      <c r="V94" s="9">
+      <c r="V94" s="10">
         <v>2018</v>
       </c>
-      <c r="Y94" s="10">
+      <c r="Y94" s="11">
         <f>SUMAR.SI.CONJUNTO(Egresos_SIGEP!B:B,Egresos_SIGEP!A:A,Pagos_SAP!A94,Egresos_SIGEP!G:G,Pagos_SAP!G:G)</f>
         <v>0</v>
       </c>
-      <c r="Z94" s="10">
+      <c r="Z94" s="11">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Pagos_SAP!A94,Pagos_SAP!G:G,Pagos_SAP!G:G)-Y94</f>
         <v>0</v>
       </c>
-      <c r="AA94" s="10">
+      <c r="AA94" s="11">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Pagos_SAP!A94,Pagos_SAP!G:G,Pagos_SAP!G:G)*24.023%</f>
         <v>0</v>
       </c>
-      <c r="AB94" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:28" s="9" customFormat="1">
-      <c r="A95" s="9">
+      <c r="AB94" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:28" s="10" customFormat="1">
+      <c r="A95" s="10">
         <v>2000464043</v>
       </c>
-      <c r="B95" s="10">
+      <c r="B95" s="11">
         <v>465825</v>
       </c>
-      <c r="C95" s="9">
+      <c r="C95" s="10">
         <v>3400096145</v>
       </c>
-      <c r="D95" s="9">
+      <c r="D95" s="10">
         <v>45</v>
       </c>
-      <c r="E95" s="9" t="s">
+      <c r="E95" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="F95" s="9" t="s">
+      <c r="F95" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="G95" s="9">
-        <v>10</v>
-      </c>
-      <c r="H95" s="9">
+      <c r="G95" s="10">
+        <v>10</v>
+      </c>
+      <c r="H95" s="10">
         <v>3400096145</v>
       </c>
-      <c r="I95" s="9">
+      <c r="I95" s="10">
         <v>132</v>
       </c>
-      <c r="J95" s="9">
+      <c r="J95" s="10">
         <v>21940005</v>
       </c>
-      <c r="K95" s="9">
+      <c r="K95" s="10">
         <v>57</v>
       </c>
-      <c r="L95" s="9" t="s">
+      <c r="L95" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="M95" s="9">
+      <c r="M95" s="10">
         <v>250</v>
       </c>
-      <c r="N95" s="9">
+      <c r="N95" s="10">
         <v>21150311</v>
       </c>
-      <c r="O95" s="9">
-        <v>10</v>
-      </c>
-      <c r="P95" s="9">
+      <c r="O95" s="10">
+        <v>10</v>
+      </c>
+      <c r="P95" s="10">
         <v>9999</v>
       </c>
-      <c r="Q95" s="9">
+      <c r="Q95" s="10">
         <v>9999999999</v>
       </c>
-      <c r="R95" s="9" t="s">
+      <c r="R95" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="T95" s="9">
+      <c r="T95" s="10">
         <v>7208050306</v>
       </c>
-      <c r="U95" s="9" t="s">
+      <c r="U95" s="10" t="s">
         <v>389</v>
       </c>
-      <c r="V95" s="9">
+      <c r="V95" s="10">
         <v>2018</v>
       </c>
-      <c r="Y95" s="10">
+      <c r="Y95" s="11">
         <f>SUMAR.SI.CONJUNTO(Egresos_SIGEP!B:B,Egresos_SIGEP!A:A,Pagos_SAP!A95,Egresos_SIGEP!G:G,Pagos_SAP!G:G)</f>
         <v>0</v>
       </c>
-      <c r="Z95" s="10">
+      <c r="Z95" s="11">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Pagos_SAP!A95,Pagos_SAP!G:G,Pagos_SAP!G:G)-Y95</f>
         <v>0</v>
       </c>
-      <c r="AA95" s="10">
+      <c r="AA95" s="11">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Pagos_SAP!A95,Pagos_SAP!G:G,Pagos_SAP!G:G)*24.023%</f>
         <v>0</v>
       </c>
-      <c r="AB95" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:28" s="9" customFormat="1">
-      <c r="A96" s="9">
+      <c r="AB95" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:28" s="10" customFormat="1">
+      <c r="A96" s="10">
         <v>2000464052</v>
       </c>
-      <c r="B96" s="10">
+      <c r="B96" s="11">
         <v>315705</v>
       </c>
-      <c r="C96" s="9">
+      <c r="C96" s="10">
         <v>3400096152</v>
       </c>
-      <c r="D96" s="9">
+      <c r="D96" s="10">
         <v>193</v>
       </c>
-      <c r="E96" s="9" t="s">
+      <c r="E96" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="F96" s="9" t="s">
+      <c r="F96" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="G96" s="9">
-        <v>10</v>
-      </c>
-      <c r="H96" s="9">
+      <c r="G96" s="10">
+        <v>10</v>
+      </c>
+      <c r="H96" s="10">
         <v>3400096152</v>
       </c>
-      <c r="I96" s="9">
+      <c r="I96" s="10">
         <v>104</v>
       </c>
-      <c r="J96" s="9">
+      <c r="J96" s="10">
         <v>21940005</v>
       </c>
-      <c r="K96" s="9">
+      <c r="K96" s="10">
         <v>57</v>
       </c>
-      <c r="L96" s="9" t="s">
+      <c r="L96" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="M96" s="9">
+      <c r="M96" s="10">
         <v>250</v>
       </c>
-      <c r="N96" s="9">
+      <c r="N96" s="10">
         <v>21150311</v>
       </c>
-      <c r="O96" s="9">
-        <v>10</v>
-      </c>
-      <c r="P96" s="9">
+      <c r="O96" s="10">
+        <v>10</v>
+      </c>
+      <c r="P96" s="10">
         <v>9999</v>
       </c>
-      <c r="Q96" s="9">
+      <c r="Q96" s="10">
         <v>9999999999</v>
       </c>
-      <c r="R96" s="9" t="s">
+      <c r="R96" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="T96" s="9">
+      <c r="T96" s="10">
         <v>7208050306</v>
       </c>
-      <c r="U96" s="9" t="s">
+      <c r="U96" s="10" t="s">
         <v>389</v>
       </c>
-      <c r="V96" s="9">
+      <c r="V96" s="10">
         <v>2018</v>
       </c>
-      <c r="Y96" s="10">
+      <c r="Y96" s="11">
         <f>SUMAR.SI.CONJUNTO(Egresos_SIGEP!B:B,Egresos_SIGEP!A:A,Pagos_SAP!A96,Egresos_SIGEP!G:G,Pagos_SAP!G:G)</f>
         <v>0</v>
       </c>
-      <c r="Z96" s="10">
+      <c r="Z96" s="11">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Pagos_SAP!A96,Pagos_SAP!G:G,Pagos_SAP!G:G)-Y96</f>
         <v>0</v>
       </c>
-      <c r="AA96" s="10">
+      <c r="AA96" s="11">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Pagos_SAP!A96,Pagos_SAP!G:G,Pagos_SAP!G:G)*24.023%</f>
         <v>0</v>
       </c>
-      <c r="AB96" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:28" s="9" customFormat="1">
-      <c r="A97" s="9">
+      <c r="AB96" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:28" s="10" customFormat="1">
+      <c r="A97" s="10">
         <v>2000464071</v>
       </c>
-      <c r="B97" s="10">
+      <c r="B97" s="11">
         <v>132812</v>
       </c>
-      <c r="C97" s="9">
+      <c r="C97" s="10">
         <v>3400096168</v>
       </c>
-      <c r="D97" s="9">
+      <c r="D97" s="10">
         <v>134</v>
       </c>
-      <c r="E97" s="9" t="s">
+      <c r="E97" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="F97" s="9" t="s">
+      <c r="F97" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="G97" s="9">
-        <v>10</v>
-      </c>
-      <c r="H97" s="9">
+      <c r="G97" s="10">
+        <v>10</v>
+      </c>
+      <c r="H97" s="10">
         <v>3400096168</v>
       </c>
-      <c r="I97" s="9">
+      <c r="I97" s="10">
         <v>67</v>
       </c>
-      <c r="J97" s="9">
+      <c r="J97" s="10">
         <v>21940005</v>
       </c>
-      <c r="K97" s="9">
+      <c r="K97" s="10">
         <v>57</v>
       </c>
-      <c r="L97" s="9" t="s">
+      <c r="L97" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="M97" s="9">
+      <c r="M97" s="10">
         <v>250</v>
       </c>
-      <c r="N97" s="9">
+      <c r="N97" s="10">
         <v>21150311</v>
       </c>
-      <c r="O97" s="9">
-        <v>10</v>
-      </c>
-      <c r="P97" s="9">
+      <c r="O97" s="10">
+        <v>10</v>
+      </c>
+      <c r="P97" s="10">
         <v>9999</v>
       </c>
-      <c r="Q97" s="9">
+      <c r="Q97" s="10">
         <v>9999999999</v>
       </c>
-      <c r="R97" s="9" t="s">
+      <c r="R97" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="T97" s="9">
+      <c r="T97" s="10">
         <v>7208050306</v>
       </c>
-      <c r="U97" s="9" t="s">
+      <c r="U97" s="10" t="s">
         <v>389</v>
       </c>
-      <c r="V97" s="9">
+      <c r="V97" s="10">
         <v>2018</v>
       </c>
-      <c r="Y97" s="10">
+      <c r="Y97" s="11">
         <f>SUMAR.SI.CONJUNTO(Egresos_SIGEP!B:B,Egresos_SIGEP!A:A,Pagos_SAP!A97,Egresos_SIGEP!G:G,Pagos_SAP!G:G)</f>
         <v>0</v>
       </c>
-      <c r="Z97" s="10">
+      <c r="Z97" s="11">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Pagos_SAP!A97,Pagos_SAP!G:G,Pagos_SAP!G:G)-Y97</f>
         <v>0</v>
       </c>
-      <c r="AA97" s="10">
+      <c r="AA97" s="11">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Pagos_SAP!A97,Pagos_SAP!G:G,Pagos_SAP!G:G)*24.023%</f>
         <v>0</v>
       </c>
-      <c r="AB97" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:28" s="9" customFormat="1">
-      <c r="A98" s="9">
+      <c r="AB97" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:28" s="10" customFormat="1">
+      <c r="A98" s="10">
         <v>2000464062</v>
       </c>
-      <c r="B98" s="10">
+      <c r="B98" s="11">
         <v>61703</v>
       </c>
-      <c r="C98" s="9">
+      <c r="C98" s="10">
         <v>3400096160</v>
       </c>
-      <c r="D98" s="9">
+      <c r="D98" s="10">
         <v>53</v>
       </c>
-      <c r="E98" s="9" t="s">
+      <c r="E98" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="F98" s="9" t="s">
+      <c r="F98" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="G98" s="9">
-        <v>10</v>
-      </c>
-      <c r="H98" s="9">
+      <c r="G98" s="10">
+        <v>10</v>
+      </c>
+      <c r="H98" s="10">
         <v>3400096160</v>
       </c>
-      <c r="I98" s="9">
+      <c r="I98" s="10">
         <v>139</v>
       </c>
-      <c r="J98" s="9">
+      <c r="J98" s="10">
         <v>21940005</v>
       </c>
-      <c r="K98" s="9">
+      <c r="K98" s="10">
         <v>57</v>
       </c>
-      <c r="L98" s="9" t="s">
+      <c r="L98" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="M98" s="9">
+      <c r="M98" s="10">
         <v>250</v>
       </c>
-      <c r="N98" s="9">
+      <c r="N98" s="10">
         <v>21150312</v>
       </c>
-      <c r="O98" s="9">
-        <v>10</v>
-      </c>
-      <c r="P98" s="9">
+      <c r="O98" s="10">
+        <v>10</v>
+      </c>
+      <c r="P98" s="10">
         <v>9999</v>
       </c>
-      <c r="Q98" s="9">
+      <c r="Q98" s="10">
         <v>9999999999</v>
       </c>
-      <c r="R98" s="9" t="s">
+      <c r="R98" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="T98" s="9">
+      <c r="T98" s="10">
         <v>7208050303</v>
       </c>
-      <c r="U98" s="9" t="s">
+      <c r="U98" s="10" t="s">
         <v>390</v>
       </c>
-      <c r="V98" s="9">
+      <c r="V98" s="10">
         <v>2018</v>
       </c>
-      <c r="Y98" s="10">
+      <c r="Y98" s="11">
         <f>SUMAR.SI.CONJUNTO(Egresos_SIGEP!B:B,Egresos_SIGEP!A:A,Pagos_SAP!A98,Egresos_SIGEP!G:G,Pagos_SAP!G:G)</f>
         <v>0</v>
       </c>
-      <c r="Z98" s="10">
+      <c r="Z98" s="11">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Pagos_SAP!A98,Pagos_SAP!G:G,Pagos_SAP!G:G)-Y98</f>
         <v>0</v>
       </c>
-      <c r="AA98" s="10">
+      <c r="AA98" s="11">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Pagos_SAP!A98,Pagos_SAP!G:G,Pagos_SAP!G:G)*24.023%</f>
         <v>0</v>
       </c>
-      <c r="AB98" s="9">
+      <c r="AB98" s="10">
         <v>0</v>
       </c>
     </row>
@@ -20798,4303 +20811,4303 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:28" s="11" customFormat="1">
-      <c r="A106" s="11">
+    <row r="106" spans="1:28" s="12" customFormat="1">
+      <c r="A106" s="12">
         <v>4500063026</v>
       </c>
-      <c r="B106" s="12">
+      <c r="B106" s="13">
         <v>20161</v>
       </c>
-      <c r="C106" s="11">
+      <c r="C106" s="12">
         <v>3900152231</v>
       </c>
-      <c r="D106" s="11">
+      <c r="D106" s="12">
         <v>34</v>
       </c>
-      <c r="E106" s="11" t="s">
+      <c r="E106" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="F106" s="11" t="s">
+      <c r="F106" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="G106" s="11">
-        <v>10</v>
-      </c>
-      <c r="H106" s="11">
+      <c r="G106" s="12">
+        <v>10</v>
+      </c>
+      <c r="H106" s="12">
         <v>7100266739</v>
       </c>
-      <c r="I106" s="11">
+      <c r="I106" s="12">
         <v>330</v>
       </c>
-      <c r="J106" s="11">
+      <c r="J106" s="12">
         <v>21940005</v>
       </c>
-      <c r="K106" s="11">
+      <c r="K106" s="12">
         <v>57</v>
       </c>
-      <c r="L106" s="11" t="s">
+      <c r="L106" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="M106" s="11">
+      <c r="M106" s="12">
         <v>250</v>
       </c>
-      <c r="N106" s="11">
+      <c r="N106" s="12">
         <v>21210101</v>
       </c>
-      <c r="O106" s="11">
-        <v>10</v>
-      </c>
-      <c r="P106" s="11">
+      <c r="O106" s="12">
+        <v>10</v>
+      </c>
+      <c r="P106" s="12">
         <v>9999</v>
       </c>
-      <c r="Q106" s="11">
+      <c r="Q106" s="12">
         <v>9999999999</v>
       </c>
-      <c r="R106" s="11" t="s">
+      <c r="R106" s="12" t="s">
         <v>369</v>
       </c>
-      <c r="S106" s="11">
+      <c r="S106" s="12">
         <v>3002718</v>
       </c>
-      <c r="T106" s="11">
+      <c r="T106" s="12">
         <v>2401010090</v>
       </c>
-      <c r="U106" s="11" t="s">
+      <c r="U106" s="12" t="s">
         <v>392</v>
       </c>
-      <c r="V106" s="11">
+      <c r="V106" s="12">
         <v>2018</v>
       </c>
-      <c r="X106" s="11" t="s">
+      <c r="X106" s="12" t="s">
         <v>406</v>
       </c>
-      <c r="Y106" s="12">
+      <c r="Y106" s="13">
         <f>SUMAR.SI.CONJUNTO(Egresos_SIGEP!B:B,Egresos_SIGEP!A:A,Pagos_SAP!A106,Egresos_SIGEP!G:G,Pagos_SAP!G:G)</f>
         <v>0</v>
       </c>
-      <c r="Z106" s="12">
+      <c r="Z106" s="13">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Pagos_SAP!A106,Pagos_SAP!G:G,Pagos_SAP!G:G)-Y106</f>
         <v>0</v>
       </c>
-      <c r="AA106" s="12">
+      <c r="AA106" s="13">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Pagos_SAP!A106,Pagos_SAP!G:G,Pagos_SAP!G:G)*24.023%</f>
         <v>0</v>
       </c>
-      <c r="AB106" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:28" s="11" customFormat="1">
-      <c r="A107" s="11">
+      <c r="AB106" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:28" s="12" customFormat="1">
+      <c r="A107" s="12">
         <v>4500063026</v>
       </c>
-      <c r="B107" s="12">
+      <c r="B107" s="13">
         <v>420</v>
       </c>
-      <c r="C107" s="11">
+      <c r="C107" s="12">
         <v>3900152231</v>
       </c>
-      <c r="D107" s="11">
+      <c r="D107" s="12">
         <v>35</v>
       </c>
-      <c r="E107" s="11" t="s">
+      <c r="E107" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="F107" s="11" t="s">
+      <c r="F107" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="G107" s="11">
-        <v>10</v>
-      </c>
-      <c r="H107" s="11">
+      <c r="G107" s="12">
+        <v>10</v>
+      </c>
+      <c r="H107" s="12">
         <v>7100266739</v>
       </c>
-      <c r="I107" s="11">
+      <c r="I107" s="12">
         <v>340</v>
       </c>
-      <c r="J107" s="11">
+      <c r="J107" s="12">
         <v>21940005</v>
       </c>
-      <c r="K107" s="11">
+      <c r="K107" s="12">
         <v>57</v>
       </c>
-      <c r="L107" s="11" t="s">
+      <c r="L107" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="M107" s="11">
+      <c r="M107" s="12">
         <v>250</v>
       </c>
-      <c r="N107" s="11">
+      <c r="N107" s="12">
         <v>21210101</v>
       </c>
-      <c r="O107" s="11">
-        <v>10</v>
-      </c>
-      <c r="P107" s="11">
+      <c r="O107" s="12">
+        <v>10</v>
+      </c>
+      <c r="P107" s="12">
         <v>9999</v>
       </c>
-      <c r="Q107" s="11">
+      <c r="Q107" s="12">
         <v>9999999999</v>
       </c>
-      <c r="R107" s="11" t="s">
+      <c r="R107" s="12" t="s">
         <v>369</v>
       </c>
-      <c r="S107" s="11">
+      <c r="S107" s="12">
         <v>3002718</v>
       </c>
-      <c r="T107" s="11">
+      <c r="T107" s="12">
         <v>2401010090</v>
       </c>
-      <c r="U107" s="11" t="s">
+      <c r="U107" s="12" t="s">
         <v>392</v>
       </c>
-      <c r="V107" s="11">
+      <c r="V107" s="12">
         <v>2018</v>
       </c>
-      <c r="X107" s="11" t="s">
+      <c r="X107" s="12" t="s">
         <v>406</v>
       </c>
-      <c r="Y107" s="12">
+      <c r="Y107" s="13">
         <f>SUMAR.SI.CONJUNTO(Egresos_SIGEP!B:B,Egresos_SIGEP!A:A,Pagos_SAP!A107,Egresos_SIGEP!G:G,Pagos_SAP!G:G)</f>
         <v>0</v>
       </c>
-      <c r="Z107" s="12">
+      <c r="Z107" s="13">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Pagos_SAP!A107,Pagos_SAP!G:G,Pagos_SAP!G:G)-Y107</f>
         <v>0</v>
       </c>
-      <c r="AA107" s="12">
+      <c r="AA107" s="13">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Pagos_SAP!A107,Pagos_SAP!G:G,Pagos_SAP!G:G)*24.023%</f>
         <v>0</v>
       </c>
-      <c r="AB107" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:28" s="11" customFormat="1">
-      <c r="A108" s="11">
+      <c r="AB107" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:28" s="12" customFormat="1">
+      <c r="A108" s="12">
         <v>4500063026</v>
       </c>
-      <c r="B108" s="12">
+      <c r="B108" s="13">
         <v>704</v>
       </c>
-      <c r="C108" s="11">
+      <c r="C108" s="12">
         <v>3900152231</v>
       </c>
-      <c r="D108" s="11">
+      <c r="D108" s="12">
         <v>36</v>
       </c>
-      <c r="E108" s="11" t="s">
+      <c r="E108" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="F108" s="11" t="s">
+      <c r="F108" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="G108" s="11">
-        <v>10</v>
-      </c>
-      <c r="H108" s="11">
+      <c r="G108" s="12">
+        <v>10</v>
+      </c>
+      <c r="H108" s="12">
         <v>7100266739</v>
       </c>
-      <c r="I108" s="11">
+      <c r="I108" s="12">
         <v>350</v>
       </c>
-      <c r="J108" s="11">
+      <c r="J108" s="12">
         <v>21940005</v>
       </c>
-      <c r="K108" s="11">
+      <c r="K108" s="12">
         <v>57</v>
       </c>
-      <c r="L108" s="11" t="s">
+      <c r="L108" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="M108" s="11">
+      <c r="M108" s="12">
         <v>250</v>
       </c>
-      <c r="N108" s="11">
+      <c r="N108" s="12">
         <v>21210101</v>
       </c>
-      <c r="O108" s="11">
-        <v>10</v>
-      </c>
-      <c r="P108" s="11">
+      <c r="O108" s="12">
+        <v>10</v>
+      </c>
+      <c r="P108" s="12">
         <v>9999</v>
       </c>
-      <c r="Q108" s="11">
+      <c r="Q108" s="12">
         <v>9999999999</v>
       </c>
-      <c r="R108" s="11" t="s">
+      <c r="R108" s="12" t="s">
         <v>369</v>
       </c>
-      <c r="S108" s="11">
+      <c r="S108" s="12">
         <v>3002718</v>
       </c>
-      <c r="T108" s="11">
+      <c r="T108" s="12">
         <v>2401010090</v>
       </c>
-      <c r="U108" s="11" t="s">
+      <c r="U108" s="12" t="s">
         <v>392</v>
       </c>
-      <c r="V108" s="11">
+      <c r="V108" s="12">
         <v>2018</v>
       </c>
-      <c r="X108" s="11" t="s">
+      <c r="X108" s="12" t="s">
         <v>406</v>
       </c>
-      <c r="Y108" s="12">
+      <c r="Y108" s="13">
         <f>SUMAR.SI.CONJUNTO(Egresos_SIGEP!B:B,Egresos_SIGEP!A:A,Pagos_SAP!A108,Egresos_SIGEP!G:G,Pagos_SAP!G:G)</f>
         <v>0</v>
       </c>
-      <c r="Z108" s="12">
+      <c r="Z108" s="13">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Pagos_SAP!A108,Pagos_SAP!G:G,Pagos_SAP!G:G)-Y108</f>
         <v>0</v>
       </c>
-      <c r="AA108" s="12">
+      <c r="AA108" s="13">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Pagos_SAP!A108,Pagos_SAP!G:G,Pagos_SAP!G:G)*24.023%</f>
         <v>0</v>
       </c>
-      <c r="AB108" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:28" s="11" customFormat="1">
-      <c r="A109" s="11">
+      <c r="AB108" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:28" s="12" customFormat="1">
+      <c r="A109" s="12">
         <v>4500063026</v>
       </c>
-      <c r="B109" s="12">
+      <c r="B109" s="13">
         <v>2132</v>
       </c>
-      <c r="C109" s="11">
+      <c r="C109" s="12">
         <v>3900152231</v>
       </c>
-      <c r="D109" s="11">
+      <c r="D109" s="12">
         <v>37</v>
       </c>
-      <c r="E109" s="11" t="s">
+      <c r="E109" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="F109" s="11" t="s">
+      <c r="F109" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="G109" s="11">
-        <v>10</v>
-      </c>
-      <c r="H109" s="11">
+      <c r="G109" s="12">
+        <v>10</v>
+      </c>
+      <c r="H109" s="12">
         <v>7100266739</v>
       </c>
-      <c r="I109" s="11">
+      <c r="I109" s="12">
         <v>360</v>
       </c>
-      <c r="J109" s="11">
+      <c r="J109" s="12">
         <v>21940005</v>
       </c>
-      <c r="K109" s="11">
+      <c r="K109" s="12">
         <v>57</v>
       </c>
-      <c r="L109" s="11" t="s">
+      <c r="L109" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="M109" s="11">
+      <c r="M109" s="12">
         <v>250</v>
       </c>
-      <c r="N109" s="11">
+      <c r="N109" s="12">
         <v>21210101</v>
       </c>
-      <c r="O109" s="11">
-        <v>10</v>
-      </c>
-      <c r="P109" s="11">
+      <c r="O109" s="12">
+        <v>10</v>
+      </c>
+      <c r="P109" s="12">
         <v>9999</v>
       </c>
-      <c r="Q109" s="11">
+      <c r="Q109" s="12">
         <v>9999999999</v>
       </c>
-      <c r="R109" s="11" t="s">
+      <c r="R109" s="12" t="s">
         <v>369</v>
       </c>
-      <c r="S109" s="11">
+      <c r="S109" s="12">
         <v>3002718</v>
       </c>
-      <c r="T109" s="11">
+      <c r="T109" s="12">
         <v>2401010090</v>
       </c>
-      <c r="U109" s="11" t="s">
+      <c r="U109" s="12" t="s">
         <v>392</v>
       </c>
-      <c r="V109" s="11">
+      <c r="V109" s="12">
         <v>2018</v>
       </c>
-      <c r="X109" s="11" t="s">
+      <c r="X109" s="12" t="s">
         <v>406</v>
       </c>
-      <c r="Y109" s="12">
+      <c r="Y109" s="13">
         <f>SUMAR.SI.CONJUNTO(Egresos_SIGEP!B:B,Egresos_SIGEP!A:A,Pagos_SAP!A109,Egresos_SIGEP!G:G,Pagos_SAP!G:G)</f>
         <v>0</v>
       </c>
-      <c r="Z109" s="12">
+      <c r="Z109" s="13">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Pagos_SAP!A109,Pagos_SAP!G:G,Pagos_SAP!G:G)-Y109</f>
         <v>0</v>
       </c>
-      <c r="AA109" s="12">
+      <c r="AA109" s="13">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Pagos_SAP!A109,Pagos_SAP!G:G,Pagos_SAP!G:G)*24.023%</f>
         <v>0</v>
       </c>
-      <c r="AB109" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:28" s="11" customFormat="1">
-      <c r="A110" s="11">
+      <c r="AB109" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:28" s="12" customFormat="1">
+      <c r="A110" s="12">
         <v>4500063026</v>
       </c>
-      <c r="B110" s="12">
+      <c r="B110" s="13">
         <v>2132</v>
       </c>
-      <c r="C110" s="11">
+      <c r="C110" s="12">
         <v>3900152231</v>
       </c>
-      <c r="D110" s="11">
+      <c r="D110" s="12">
         <v>38</v>
       </c>
-      <c r="E110" s="11" t="s">
+      <c r="E110" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="F110" s="11" t="s">
+      <c r="F110" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="G110" s="11">
-        <v>10</v>
-      </c>
-      <c r="H110" s="11">
+      <c r="G110" s="12">
+        <v>10</v>
+      </c>
+      <c r="H110" s="12">
         <v>7100266739</v>
       </c>
-      <c r="I110" s="11">
+      <c r="I110" s="12">
         <v>370</v>
       </c>
-      <c r="J110" s="11">
+      <c r="J110" s="12">
         <v>21940005</v>
       </c>
-      <c r="K110" s="11">
+      <c r="K110" s="12">
         <v>57</v>
       </c>
-      <c r="L110" s="11" t="s">
+      <c r="L110" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="M110" s="11">
+      <c r="M110" s="12">
         <v>250</v>
       </c>
-      <c r="N110" s="11">
+      <c r="N110" s="12">
         <v>21210101</v>
       </c>
-      <c r="O110" s="11">
-        <v>10</v>
-      </c>
-      <c r="P110" s="11">
+      <c r="O110" s="12">
+        <v>10</v>
+      </c>
+      <c r="P110" s="12">
         <v>9999</v>
       </c>
-      <c r="Q110" s="11">
+      <c r="Q110" s="12">
         <v>9999999999</v>
       </c>
-      <c r="R110" s="11" t="s">
+      <c r="R110" s="12" t="s">
         <v>369</v>
       </c>
-      <c r="S110" s="11">
+      <c r="S110" s="12">
         <v>3002718</v>
       </c>
-      <c r="T110" s="11">
+      <c r="T110" s="12">
         <v>2401010090</v>
       </c>
-      <c r="U110" s="11" t="s">
+      <c r="U110" s="12" t="s">
         <v>392</v>
       </c>
-      <c r="V110" s="11">
+      <c r="V110" s="12">
         <v>2018</v>
       </c>
-      <c r="X110" s="11" t="s">
+      <c r="X110" s="12" t="s">
         <v>406</v>
       </c>
-      <c r="Y110" s="12">
+      <c r="Y110" s="13">
         <f>SUMAR.SI.CONJUNTO(Egresos_SIGEP!B:B,Egresos_SIGEP!A:A,Pagos_SAP!A110,Egresos_SIGEP!G:G,Pagos_SAP!G:G)</f>
         <v>0</v>
       </c>
-      <c r="Z110" s="12">
+      <c r="Z110" s="13">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Pagos_SAP!A110,Pagos_SAP!G:G,Pagos_SAP!G:G)-Y110</f>
         <v>0</v>
       </c>
-      <c r="AA110" s="12">
+      <c r="AA110" s="13">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Pagos_SAP!A110,Pagos_SAP!G:G,Pagos_SAP!G:G)*24.023%</f>
         <v>0</v>
       </c>
-      <c r="AB110" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:28" s="11" customFormat="1">
-      <c r="A111" s="11">
+      <c r="AB110" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:28" s="12" customFormat="1">
+      <c r="A111" s="12">
         <v>4500063026</v>
       </c>
-      <c r="B111" s="12">
+      <c r="B111" s="13">
         <v>2132</v>
       </c>
-      <c r="C111" s="11">
+      <c r="C111" s="12">
         <v>3900152231</v>
       </c>
-      <c r="D111" s="11">
+      <c r="D111" s="12">
         <v>39</v>
       </c>
-      <c r="E111" s="11" t="s">
+      <c r="E111" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="F111" s="11" t="s">
+      <c r="F111" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="G111" s="11">
-        <v>10</v>
-      </c>
-      <c r="H111" s="11">
+      <c r="G111" s="12">
+        <v>10</v>
+      </c>
+      <c r="H111" s="12">
         <v>7100266739</v>
       </c>
-      <c r="I111" s="11">
+      <c r="I111" s="12">
         <v>380</v>
       </c>
-      <c r="J111" s="11">
+      <c r="J111" s="12">
         <v>21940005</v>
       </c>
-      <c r="K111" s="11">
+      <c r="K111" s="12">
         <v>57</v>
       </c>
-      <c r="L111" s="11" t="s">
+      <c r="L111" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="M111" s="11">
+      <c r="M111" s="12">
         <v>250</v>
       </c>
-      <c r="N111" s="11">
+      <c r="N111" s="12">
         <v>21210101</v>
       </c>
-      <c r="O111" s="11">
-        <v>10</v>
-      </c>
-      <c r="P111" s="11">
+      <c r="O111" s="12">
+        <v>10</v>
+      </c>
+      <c r="P111" s="12">
         <v>9999</v>
       </c>
-      <c r="Q111" s="11">
+      <c r="Q111" s="12">
         <v>9999999999</v>
       </c>
-      <c r="R111" s="11" t="s">
+      <c r="R111" s="12" t="s">
         <v>369</v>
       </c>
-      <c r="S111" s="11">
+      <c r="S111" s="12">
         <v>3002718</v>
       </c>
-      <c r="T111" s="11">
+      <c r="T111" s="12">
         <v>2401010090</v>
       </c>
-      <c r="U111" s="11" t="s">
+      <c r="U111" s="12" t="s">
         <v>392</v>
       </c>
-      <c r="V111" s="11">
+      <c r="V111" s="12">
         <v>2018</v>
       </c>
-      <c r="X111" s="11" t="s">
+      <c r="X111" s="12" t="s">
         <v>406</v>
       </c>
-      <c r="Y111" s="12">
+      <c r="Y111" s="13">
         <f>SUMAR.SI.CONJUNTO(Egresos_SIGEP!B:B,Egresos_SIGEP!A:A,Pagos_SAP!A111,Egresos_SIGEP!G:G,Pagos_SAP!G:G)</f>
         <v>0</v>
       </c>
-      <c r="Z111" s="12">
+      <c r="Z111" s="13">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Pagos_SAP!A111,Pagos_SAP!G:G,Pagos_SAP!G:G)-Y111</f>
         <v>0</v>
       </c>
-      <c r="AA111" s="12">
+      <c r="AA111" s="13">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Pagos_SAP!A111,Pagos_SAP!G:G,Pagos_SAP!G:G)*24.023%</f>
         <v>0</v>
       </c>
-      <c r="AB111" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:28" s="11" customFormat="1">
-      <c r="A112" s="11">
+      <c r="AB111" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:28" s="12" customFormat="1">
+      <c r="A112" s="12">
         <v>4500063026</v>
       </c>
-      <c r="B112" s="12">
+      <c r="B112" s="13">
         <v>2132</v>
       </c>
-      <c r="C112" s="11">
+      <c r="C112" s="12">
         <v>3900152231</v>
       </c>
-      <c r="D112" s="11">
+      <c r="D112" s="12">
         <v>40</v>
       </c>
-      <c r="E112" s="11" t="s">
+      <c r="E112" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="F112" s="11" t="s">
+      <c r="F112" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="G112" s="11">
-        <v>10</v>
-      </c>
-      <c r="H112" s="11">
+      <c r="G112" s="12">
+        <v>10</v>
+      </c>
+      <c r="H112" s="12">
         <v>7100266739</v>
       </c>
-      <c r="I112" s="11">
+      <c r="I112" s="12">
         <v>390</v>
       </c>
-      <c r="J112" s="11">
+      <c r="J112" s="12">
         <v>21940005</v>
       </c>
-      <c r="K112" s="11">
+      <c r="K112" s="12">
         <v>57</v>
       </c>
-      <c r="L112" s="11" t="s">
+      <c r="L112" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="M112" s="11">
+      <c r="M112" s="12">
         <v>250</v>
       </c>
-      <c r="N112" s="11">
+      <c r="N112" s="12">
         <v>21210101</v>
       </c>
-      <c r="O112" s="11">
-        <v>10</v>
-      </c>
-      <c r="P112" s="11">
+      <c r="O112" s="12">
+        <v>10</v>
+      </c>
+      <c r="P112" s="12">
         <v>9999</v>
       </c>
-      <c r="Q112" s="11">
+      <c r="Q112" s="12">
         <v>9999999999</v>
       </c>
-      <c r="R112" s="11" t="s">
+      <c r="R112" s="12" t="s">
         <v>369</v>
       </c>
-      <c r="S112" s="11">
+      <c r="S112" s="12">
         <v>3002718</v>
       </c>
-      <c r="T112" s="11">
+      <c r="T112" s="12">
         <v>2401010090</v>
       </c>
-      <c r="U112" s="11" t="s">
+      <c r="U112" s="12" t="s">
         <v>392</v>
       </c>
-      <c r="V112" s="11">
+      <c r="V112" s="12">
         <v>2018</v>
       </c>
-      <c r="X112" s="11" t="s">
+      <c r="X112" s="12" t="s">
         <v>406</v>
       </c>
-      <c r="Y112" s="12">
+      <c r="Y112" s="13">
         <f>SUMAR.SI.CONJUNTO(Egresos_SIGEP!B:B,Egresos_SIGEP!A:A,Pagos_SAP!A112,Egresos_SIGEP!G:G,Pagos_SAP!G:G)</f>
         <v>0</v>
       </c>
-      <c r="Z112" s="12">
+      <c r="Z112" s="13">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Pagos_SAP!A112,Pagos_SAP!G:G,Pagos_SAP!G:G)-Y112</f>
         <v>0</v>
       </c>
-      <c r="AA112" s="12">
+      <c r="AA112" s="13">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Pagos_SAP!A112,Pagos_SAP!G:G,Pagos_SAP!G:G)*24.023%</f>
         <v>0</v>
       </c>
-      <c r="AB112" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:28" s="11" customFormat="1">
-      <c r="A113" s="11">
+      <c r="AB112" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:28" s="12" customFormat="1">
+      <c r="A113" s="12">
         <v>4500063026</v>
       </c>
-      <c r="B113" s="12">
+      <c r="B113" s="13">
         <v>2132</v>
       </c>
-      <c r="C113" s="11">
+      <c r="C113" s="12">
         <v>3900152231</v>
       </c>
-      <c r="D113" s="11">
+      <c r="D113" s="12">
         <v>41</v>
       </c>
-      <c r="E113" s="11" t="s">
+      <c r="E113" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="F113" s="11" t="s">
+      <c r="F113" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="G113" s="11">
-        <v>10</v>
-      </c>
-      <c r="H113" s="11">
+      <c r="G113" s="12">
+        <v>10</v>
+      </c>
+      <c r="H113" s="12">
         <v>7100266739</v>
       </c>
-      <c r="I113" s="11">
+      <c r="I113" s="12">
         <v>400</v>
       </c>
-      <c r="J113" s="11">
+      <c r="J113" s="12">
         <v>21940005</v>
       </c>
-      <c r="K113" s="11">
+      <c r="K113" s="12">
         <v>57</v>
       </c>
-      <c r="L113" s="11" t="s">
+      <c r="L113" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="M113" s="11">
+      <c r="M113" s="12">
         <v>250</v>
       </c>
-      <c r="N113" s="11">
+      <c r="N113" s="12">
         <v>21210101</v>
       </c>
-      <c r="O113" s="11">
-        <v>10</v>
-      </c>
-      <c r="P113" s="11">
+      <c r="O113" s="12">
+        <v>10</v>
+      </c>
+      <c r="P113" s="12">
         <v>9999</v>
       </c>
-      <c r="Q113" s="11">
+      <c r="Q113" s="12">
         <v>9999999999</v>
       </c>
-      <c r="R113" s="11" t="s">
+      <c r="R113" s="12" t="s">
         <v>369</v>
       </c>
-      <c r="S113" s="11">
+      <c r="S113" s="12">
         <v>3002718</v>
       </c>
-      <c r="T113" s="11">
+      <c r="T113" s="12">
         <v>2401010090</v>
       </c>
-      <c r="U113" s="11" t="s">
+      <c r="U113" s="12" t="s">
         <v>392</v>
       </c>
-      <c r="V113" s="11">
+      <c r="V113" s="12">
         <v>2018</v>
       </c>
-      <c r="X113" s="11" t="s">
+      <c r="X113" s="12" t="s">
         <v>406</v>
       </c>
-      <c r="Y113" s="12">
+      <c r="Y113" s="13">
         <f>SUMAR.SI.CONJUNTO(Egresos_SIGEP!B:B,Egresos_SIGEP!A:A,Pagos_SAP!A113,Egresos_SIGEP!G:G,Pagos_SAP!G:G)</f>
         <v>0</v>
       </c>
-      <c r="Z113" s="12">
+      <c r="Z113" s="13">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Pagos_SAP!A113,Pagos_SAP!G:G,Pagos_SAP!G:G)-Y113</f>
         <v>0</v>
       </c>
-      <c r="AA113" s="12">
+      <c r="AA113" s="13">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Pagos_SAP!A113,Pagos_SAP!G:G,Pagos_SAP!G:G)*24.023%</f>
         <v>0</v>
       </c>
-      <c r="AB113" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:28" s="11" customFormat="1">
-      <c r="A114" s="11">
+      <c r="AB113" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:28" s="12" customFormat="1">
+      <c r="A114" s="12">
         <v>4500063026</v>
       </c>
-      <c r="B114" s="12">
+      <c r="B114" s="13">
         <v>3749</v>
       </c>
-      <c r="C114" s="11">
+      <c r="C114" s="12">
         <v>3900152231</v>
       </c>
-      <c r="D114" s="11">
+      <c r="D114" s="12">
         <v>42</v>
       </c>
-      <c r="E114" s="11" t="s">
+      <c r="E114" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="F114" s="11" t="s">
+      <c r="F114" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="G114" s="11">
-        <v>10</v>
-      </c>
-      <c r="H114" s="11">
+      <c r="G114" s="12">
+        <v>10</v>
+      </c>
+      <c r="H114" s="12">
         <v>7100266739</v>
       </c>
-      <c r="I114" s="11">
+      <c r="I114" s="12">
         <v>410</v>
       </c>
-      <c r="J114" s="11">
+      <c r="J114" s="12">
         <v>21940005</v>
       </c>
-      <c r="K114" s="11">
+      <c r="K114" s="12">
         <v>57</v>
       </c>
-      <c r="L114" s="11" t="s">
+      <c r="L114" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="M114" s="11">
+      <c r="M114" s="12">
         <v>250</v>
       </c>
-      <c r="N114" s="11">
+      <c r="N114" s="12">
         <v>21210101</v>
       </c>
-      <c r="O114" s="11">
-        <v>10</v>
-      </c>
-      <c r="P114" s="11">
+      <c r="O114" s="12">
+        <v>10</v>
+      </c>
+      <c r="P114" s="12">
         <v>9999</v>
       </c>
-      <c r="Q114" s="11">
+      <c r="Q114" s="12">
         <v>9999999999</v>
       </c>
-      <c r="R114" s="11" t="s">
+      <c r="R114" s="12" t="s">
         <v>369</v>
       </c>
-      <c r="S114" s="11">
+      <c r="S114" s="12">
         <v>3002718</v>
       </c>
-      <c r="T114" s="11">
+      <c r="T114" s="12">
         <v>2401010090</v>
       </c>
-      <c r="U114" s="11" t="s">
+      <c r="U114" s="12" t="s">
         <v>392</v>
       </c>
-      <c r="V114" s="11">
+      <c r="V114" s="12">
         <v>2018</v>
       </c>
-      <c r="X114" s="11" t="s">
+      <c r="X114" s="12" t="s">
         <v>406</v>
       </c>
-      <c r="Y114" s="12">
+      <c r="Y114" s="13">
         <f>SUMAR.SI.CONJUNTO(Egresos_SIGEP!B:B,Egresos_SIGEP!A:A,Pagos_SAP!A114,Egresos_SIGEP!G:G,Pagos_SAP!G:G)</f>
         <v>0</v>
       </c>
-      <c r="Z114" s="12">
+      <c r="Z114" s="13">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Pagos_SAP!A114,Pagos_SAP!G:G,Pagos_SAP!G:G)-Y114</f>
         <v>0</v>
       </c>
-      <c r="AA114" s="12">
+      <c r="AA114" s="13">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Pagos_SAP!A114,Pagos_SAP!G:G,Pagos_SAP!G:G)*24.023%</f>
         <v>0</v>
       </c>
-      <c r="AB114" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:28" s="11" customFormat="1">
-      <c r="A115" s="11">
+      <c r="AB114" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:28" s="12" customFormat="1">
+      <c r="A115" s="12">
         <v>4500063026</v>
       </c>
-      <c r="B115" s="12">
+      <c r="B115" s="13">
         <v>-1</v>
       </c>
-      <c r="C115" s="11">
+      <c r="C115" s="12">
         <v>3900152231</v>
       </c>
-      <c r="D115" s="11">
+      <c r="D115" s="12">
         <v>43</v>
       </c>
-      <c r="E115" s="11" t="s">
+      <c r="E115" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="F115" s="11" t="s">
+      <c r="F115" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="G115" s="11">
-        <v>10</v>
-      </c>
-      <c r="H115" s="11">
+      <c r="G115" s="12">
+        <v>10</v>
+      </c>
+      <c r="H115" s="12">
         <v>7100266739</v>
       </c>
-      <c r="I115" s="11">
+      <c r="I115" s="12">
         <v>410</v>
       </c>
-      <c r="J115" s="11">
+      <c r="J115" s="12">
         <v>21940005</v>
       </c>
-      <c r="K115" s="11">
+      <c r="K115" s="12">
         <v>57</v>
       </c>
-      <c r="L115" s="11" t="s">
+      <c r="L115" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="M115" s="11">
+      <c r="M115" s="12">
         <v>250</v>
       </c>
-      <c r="N115" s="11">
+      <c r="N115" s="12">
         <v>21210101</v>
       </c>
-      <c r="O115" s="11">
-        <v>10</v>
-      </c>
-      <c r="P115" s="11">
+      <c r="O115" s="12">
+        <v>10</v>
+      </c>
+      <c r="P115" s="12">
         <v>9999</v>
       </c>
-      <c r="Q115" s="11">
+      <c r="Q115" s="12">
         <v>9999999999</v>
       </c>
-      <c r="R115" s="11" t="s">
+      <c r="R115" s="12" t="s">
         <v>369</v>
       </c>
-      <c r="S115" s="11">
+      <c r="S115" s="12">
         <v>3002718</v>
       </c>
-      <c r="T115" s="11">
+      <c r="T115" s="12">
         <v>7221010101</v>
       </c>
-      <c r="U115" s="11" t="s">
+      <c r="U115" s="12" t="s">
         <v>392</v>
       </c>
-      <c r="V115" s="11">
+      <c r="V115" s="12">
         <v>2018</v>
       </c>
-      <c r="X115" s="11" t="s">
+      <c r="X115" s="12" t="s">
         <v>406</v>
       </c>
-      <c r="Y115" s="12">
+      <c r="Y115" s="13">
         <f>SUMAR.SI.CONJUNTO(Egresos_SIGEP!B:B,Egresos_SIGEP!A:A,Pagos_SAP!A115,Egresos_SIGEP!G:G,Pagos_SAP!G:G)</f>
         <v>0</v>
       </c>
-      <c r="Z115" s="12">
+      <c r="Z115" s="13">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Pagos_SAP!A115,Pagos_SAP!G:G,Pagos_SAP!G:G)-Y115</f>
         <v>0</v>
       </c>
-      <c r="AA115" s="12">
+      <c r="AA115" s="13">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Pagos_SAP!A115,Pagos_SAP!G:G,Pagos_SAP!G:G)*24.023%</f>
         <v>0</v>
       </c>
-      <c r="AB115" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:28" s="11" customFormat="1">
-      <c r="A116" s="11">
+      <c r="AB115" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:28" s="12" customFormat="1">
+      <c r="A116" s="12">
         <v>4500063026</v>
       </c>
-      <c r="B116" s="12">
+      <c r="B116" s="13">
         <v>923</v>
       </c>
-      <c r="C116" s="11">
+      <c r="C116" s="12">
         <v>3900152231</v>
       </c>
-      <c r="D116" s="11">
+      <c r="D116" s="12">
         <v>44</v>
       </c>
-      <c r="E116" s="11" t="s">
+      <c r="E116" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="F116" s="11" t="s">
+      <c r="F116" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="G116" s="11">
-        <v>10</v>
-      </c>
-      <c r="H116" s="11">
+      <c r="G116" s="12">
+        <v>10</v>
+      </c>
+      <c r="H116" s="12">
         <v>7100266739</v>
       </c>
-      <c r="I116" s="11">
+      <c r="I116" s="12">
         <v>420</v>
       </c>
-      <c r="J116" s="11">
+      <c r="J116" s="12">
         <v>21940005</v>
       </c>
-      <c r="K116" s="11">
+      <c r="K116" s="12">
         <v>57</v>
       </c>
-      <c r="L116" s="11" t="s">
+      <c r="L116" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="M116" s="11">
+      <c r="M116" s="12">
         <v>250</v>
       </c>
-      <c r="N116" s="11">
+      <c r="N116" s="12">
         <v>21210101</v>
       </c>
-      <c r="O116" s="11">
-        <v>10</v>
-      </c>
-      <c r="P116" s="11">
+      <c r="O116" s="12">
+        <v>10</v>
+      </c>
+      <c r="P116" s="12">
         <v>9999</v>
       </c>
-      <c r="Q116" s="11">
+      <c r="Q116" s="12">
         <v>9999999999</v>
       </c>
-      <c r="R116" s="11" t="s">
+      <c r="R116" s="12" t="s">
         <v>369</v>
       </c>
-      <c r="S116" s="11">
+      <c r="S116" s="12">
         <v>3002718</v>
       </c>
-      <c r="T116" s="11">
+      <c r="T116" s="12">
         <v>2401010090</v>
       </c>
-      <c r="U116" s="11" t="s">
+      <c r="U116" s="12" t="s">
         <v>392</v>
       </c>
-      <c r="V116" s="11">
+      <c r="V116" s="12">
         <v>2018</v>
       </c>
-      <c r="X116" s="11" t="s">
+      <c r="X116" s="12" t="s">
         <v>406</v>
       </c>
-      <c r="Y116" s="12">
+      <c r="Y116" s="13">
         <f>SUMAR.SI.CONJUNTO(Egresos_SIGEP!B:B,Egresos_SIGEP!A:A,Pagos_SAP!A116,Egresos_SIGEP!G:G,Pagos_SAP!G:G)</f>
         <v>0</v>
       </c>
-      <c r="Z116" s="12">
+      <c r="Z116" s="13">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Pagos_SAP!A116,Pagos_SAP!G:G,Pagos_SAP!G:G)-Y116</f>
         <v>0</v>
       </c>
-      <c r="AA116" s="12">
+      <c r="AA116" s="13">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Pagos_SAP!A116,Pagos_SAP!G:G,Pagos_SAP!G:G)*24.023%</f>
         <v>0</v>
       </c>
-      <c r="AB116" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:28" s="11" customFormat="1">
-      <c r="A117" s="11">
+      <c r="AB116" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:28" s="12" customFormat="1">
+      <c r="A117" s="12">
         <v>4500063026</v>
       </c>
-      <c r="B117" s="12">
+      <c r="B117" s="13">
         <v>923</v>
       </c>
-      <c r="C117" s="11">
+      <c r="C117" s="12">
         <v>3900152231</v>
       </c>
-      <c r="D117" s="11">
+      <c r="D117" s="12">
         <v>45</v>
       </c>
-      <c r="E117" s="11" t="s">
+      <c r="E117" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="F117" s="11" t="s">
+      <c r="F117" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="G117" s="11">
-        <v>10</v>
-      </c>
-      <c r="H117" s="11">
+      <c r="G117" s="12">
+        <v>10</v>
+      </c>
+      <c r="H117" s="12">
         <v>7100266739</v>
       </c>
-      <c r="I117" s="11">
+      <c r="I117" s="12">
         <v>430</v>
       </c>
-      <c r="J117" s="11">
+      <c r="J117" s="12">
         <v>21940005</v>
       </c>
-      <c r="K117" s="11">
+      <c r="K117" s="12">
         <v>57</v>
       </c>
-      <c r="L117" s="11" t="s">
+      <c r="L117" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="M117" s="11">
+      <c r="M117" s="12">
         <v>250</v>
       </c>
-      <c r="N117" s="11">
+      <c r="N117" s="12">
         <v>21210101</v>
       </c>
-      <c r="O117" s="11">
-        <v>10</v>
-      </c>
-      <c r="P117" s="11">
+      <c r="O117" s="12">
+        <v>10</v>
+      </c>
+      <c r="P117" s="12">
         <v>9999</v>
       </c>
-      <c r="Q117" s="11">
+      <c r="Q117" s="12">
         <v>9999999999</v>
       </c>
-      <c r="R117" s="11" t="s">
+      <c r="R117" s="12" t="s">
         <v>369</v>
       </c>
-      <c r="S117" s="11">
+      <c r="S117" s="12">
         <v>3002718</v>
       </c>
-      <c r="T117" s="11">
+      <c r="T117" s="12">
         <v>2401010090</v>
       </c>
-      <c r="U117" s="11" t="s">
+      <c r="U117" s="12" t="s">
         <v>392</v>
       </c>
-      <c r="V117" s="11">
+      <c r="V117" s="12">
         <v>2018</v>
       </c>
-      <c r="X117" s="11" t="s">
+      <c r="X117" s="12" t="s">
         <v>406</v>
       </c>
-      <c r="Y117" s="12">
+      <c r="Y117" s="13">
         <f>SUMAR.SI.CONJUNTO(Egresos_SIGEP!B:B,Egresos_SIGEP!A:A,Pagos_SAP!A117,Egresos_SIGEP!G:G,Pagos_SAP!G:G)</f>
         <v>0</v>
       </c>
-      <c r="Z117" s="12">
+      <c r="Z117" s="13">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Pagos_SAP!A117,Pagos_SAP!G:G,Pagos_SAP!G:G)-Y117</f>
         <v>0</v>
       </c>
-      <c r="AA117" s="12">
+      <c r="AA117" s="13">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Pagos_SAP!A117,Pagos_SAP!G:G,Pagos_SAP!G:G)*24.023%</f>
         <v>0</v>
       </c>
-      <c r="AB117" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:28" s="11" customFormat="1">
-      <c r="A118" s="11">
+      <c r="AB117" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:28" s="12" customFormat="1">
+      <c r="A118" s="12">
         <v>4500063026</v>
       </c>
-      <c r="B118" s="12">
+      <c r="B118" s="13">
         <v>923</v>
       </c>
-      <c r="C118" s="11">
+      <c r="C118" s="12">
         <v>3900152231</v>
       </c>
-      <c r="D118" s="11">
+      <c r="D118" s="12">
         <v>46</v>
       </c>
-      <c r="E118" s="11" t="s">
+      <c r="E118" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="F118" s="11" t="s">
+      <c r="F118" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="G118" s="11">
-        <v>10</v>
-      </c>
-      <c r="H118" s="11">
+      <c r="G118" s="12">
+        <v>10</v>
+      </c>
+      <c r="H118" s="12">
         <v>7100266739</v>
       </c>
-      <c r="I118" s="11">
+      <c r="I118" s="12">
         <v>440</v>
       </c>
-      <c r="J118" s="11">
+      <c r="J118" s="12">
         <v>21940005</v>
       </c>
-      <c r="K118" s="11">
+      <c r="K118" s="12">
         <v>57</v>
       </c>
-      <c r="L118" s="11" t="s">
+      <c r="L118" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="M118" s="11">
+      <c r="M118" s="12">
         <v>250</v>
       </c>
-      <c r="N118" s="11">
+      <c r="N118" s="12">
         <v>21210101</v>
       </c>
-      <c r="O118" s="11">
-        <v>10</v>
-      </c>
-      <c r="P118" s="11">
+      <c r="O118" s="12">
+        <v>10</v>
+      </c>
+      <c r="P118" s="12">
         <v>9999</v>
       </c>
-      <c r="Q118" s="11">
+      <c r="Q118" s="12">
         <v>9999999999</v>
       </c>
-      <c r="R118" s="11" t="s">
+      <c r="R118" s="12" t="s">
         <v>369</v>
       </c>
-      <c r="S118" s="11">
+      <c r="S118" s="12">
         <v>3002718</v>
       </c>
-      <c r="T118" s="11">
+      <c r="T118" s="12">
         <v>2401010090</v>
       </c>
-      <c r="U118" s="11" t="s">
+      <c r="U118" s="12" t="s">
         <v>392</v>
       </c>
-      <c r="V118" s="11">
+      <c r="V118" s="12">
         <v>2018</v>
       </c>
-      <c r="X118" s="11" t="s">
+      <c r="X118" s="12" t="s">
         <v>406</v>
       </c>
-      <c r="Y118" s="12">
+      <c r="Y118" s="13">
         <f>SUMAR.SI.CONJUNTO(Egresos_SIGEP!B:B,Egresos_SIGEP!A:A,Pagos_SAP!A118,Egresos_SIGEP!G:G,Pagos_SAP!G:G)</f>
         <v>0</v>
       </c>
-      <c r="Z118" s="12">
+      <c r="Z118" s="13">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Pagos_SAP!A118,Pagos_SAP!G:G,Pagos_SAP!G:G)-Y118</f>
         <v>0</v>
       </c>
-      <c r="AA118" s="12">
+      <c r="AA118" s="13">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Pagos_SAP!A118,Pagos_SAP!G:G,Pagos_SAP!G:G)*24.023%</f>
         <v>0</v>
       </c>
-      <c r="AB118" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:28" s="11" customFormat="1">
-      <c r="A119" s="11">
+      <c r="AB118" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:28" s="12" customFormat="1">
+      <c r="A119" s="12">
         <v>4500063026</v>
       </c>
-      <c r="B119" s="12">
+      <c r="B119" s="13">
         <v>923</v>
       </c>
-      <c r="C119" s="11">
+      <c r="C119" s="12">
         <v>3900152231</v>
       </c>
-      <c r="D119" s="11">
+      <c r="D119" s="12">
         <v>47</v>
       </c>
-      <c r="E119" s="11" t="s">
+      <c r="E119" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="F119" s="11" t="s">
+      <c r="F119" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="G119" s="11">
-        <v>10</v>
-      </c>
-      <c r="H119" s="11">
+      <c r="G119" s="12">
+        <v>10</v>
+      </c>
+      <c r="H119" s="12">
         <v>7100266739</v>
       </c>
-      <c r="I119" s="11">
+      <c r="I119" s="12">
         <v>450</v>
       </c>
-      <c r="J119" s="11">
+      <c r="J119" s="12">
         <v>21940005</v>
       </c>
-      <c r="K119" s="11">
+      <c r="K119" s="12">
         <v>57</v>
       </c>
-      <c r="L119" s="11" t="s">
+      <c r="L119" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="M119" s="11">
+      <c r="M119" s="12">
         <v>250</v>
       </c>
-      <c r="N119" s="11">
+      <c r="N119" s="12">
         <v>21210101</v>
       </c>
-      <c r="O119" s="11">
-        <v>10</v>
-      </c>
-      <c r="P119" s="11">
+      <c r="O119" s="12">
+        <v>10</v>
+      </c>
+      <c r="P119" s="12">
         <v>9999</v>
       </c>
-      <c r="Q119" s="11">
+      <c r="Q119" s="12">
         <v>9999999999</v>
       </c>
-      <c r="R119" s="11" t="s">
+      <c r="R119" s="12" t="s">
         <v>369</v>
       </c>
-      <c r="S119" s="11">
+      <c r="S119" s="12">
         <v>3002718</v>
       </c>
-      <c r="T119" s="11">
+      <c r="T119" s="12">
         <v>2401010090</v>
       </c>
-      <c r="U119" s="11" t="s">
+      <c r="U119" s="12" t="s">
         <v>392</v>
       </c>
-      <c r="V119" s="11">
+      <c r="V119" s="12">
         <v>2018</v>
       </c>
-      <c r="X119" s="11" t="s">
+      <c r="X119" s="12" t="s">
         <v>406</v>
       </c>
-      <c r="Y119" s="12">
+      <c r="Y119" s="13">
         <f>SUMAR.SI.CONJUNTO(Egresos_SIGEP!B:B,Egresos_SIGEP!A:A,Pagos_SAP!A119,Egresos_SIGEP!G:G,Pagos_SAP!G:G)</f>
         <v>0</v>
       </c>
-      <c r="Z119" s="12">
+      <c r="Z119" s="13">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Pagos_SAP!A119,Pagos_SAP!G:G,Pagos_SAP!G:G)-Y119</f>
         <v>0</v>
       </c>
-      <c r="AA119" s="12">
+      <c r="AA119" s="13">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Pagos_SAP!A119,Pagos_SAP!G:G,Pagos_SAP!G:G)*24.023%</f>
         <v>0</v>
       </c>
-      <c r="AB119" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:28" s="11" customFormat="1">
-      <c r="A120" s="11">
+      <c r="AB119" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:28" s="12" customFormat="1">
+      <c r="A120" s="12">
         <v>4500063026</v>
       </c>
-      <c r="B120" s="12">
+      <c r="B120" s="13">
         <v>923</v>
       </c>
-      <c r="C120" s="11">
+      <c r="C120" s="12">
         <v>3900152231</v>
       </c>
-      <c r="D120" s="11">
+      <c r="D120" s="12">
         <v>48</v>
       </c>
-      <c r="E120" s="11" t="s">
+      <c r="E120" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="F120" s="11" t="s">
+      <c r="F120" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="G120" s="11">
-        <v>10</v>
-      </c>
-      <c r="H120" s="11">
+      <c r="G120" s="12">
+        <v>10</v>
+      </c>
+      <c r="H120" s="12">
         <v>7100266739</v>
       </c>
-      <c r="I120" s="11">
+      <c r="I120" s="12">
         <v>460</v>
       </c>
-      <c r="J120" s="11">
+      <c r="J120" s="12">
         <v>21940005</v>
       </c>
-      <c r="K120" s="11">
+      <c r="K120" s="12">
         <v>57</v>
       </c>
-      <c r="L120" s="11" t="s">
+      <c r="L120" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="M120" s="11">
+      <c r="M120" s="12">
         <v>250</v>
       </c>
-      <c r="N120" s="11">
+      <c r="N120" s="12">
         <v>21210101</v>
       </c>
-      <c r="O120" s="11">
-        <v>10</v>
-      </c>
-      <c r="P120" s="11">
+      <c r="O120" s="12">
+        <v>10</v>
+      </c>
+      <c r="P120" s="12">
         <v>9999</v>
       </c>
-      <c r="Q120" s="11">
+      <c r="Q120" s="12">
         <v>9999999999</v>
       </c>
-      <c r="R120" s="11" t="s">
+      <c r="R120" s="12" t="s">
         <v>369</v>
       </c>
-      <c r="S120" s="11">
+      <c r="S120" s="12">
         <v>3002718</v>
       </c>
-      <c r="T120" s="11">
+      <c r="T120" s="12">
         <v>2401010090</v>
       </c>
-      <c r="U120" s="11" t="s">
+      <c r="U120" s="12" t="s">
         <v>392</v>
       </c>
-      <c r="V120" s="11">
+      <c r="V120" s="12">
         <v>2018</v>
       </c>
-      <c r="X120" s="11" t="s">
+      <c r="X120" s="12" t="s">
         <v>406</v>
       </c>
-      <c r="Y120" s="12">
+      <c r="Y120" s="13">
         <f>SUMAR.SI.CONJUNTO(Egresos_SIGEP!B:B,Egresos_SIGEP!A:A,Pagos_SAP!A120,Egresos_SIGEP!G:G,Pagos_SAP!G:G)</f>
         <v>0</v>
       </c>
-      <c r="Z120" s="12">
+      <c r="Z120" s="13">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Pagos_SAP!A120,Pagos_SAP!G:G,Pagos_SAP!G:G)-Y120</f>
         <v>0</v>
       </c>
-      <c r="AA120" s="12">
+      <c r="AA120" s="13">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Pagos_SAP!A120,Pagos_SAP!G:G,Pagos_SAP!G:G)*24.023%</f>
         <v>0</v>
       </c>
-      <c r="AB120" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:28" s="11" customFormat="1">
-      <c r="A121" s="11">
+      <c r="AB120" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:28" s="12" customFormat="1">
+      <c r="A121" s="12">
         <v>4500063026</v>
       </c>
-      <c r="B121" s="12">
+      <c r="B121" s="13">
         <v>923</v>
       </c>
-      <c r="C121" s="11">
+      <c r="C121" s="12">
         <v>3900152231</v>
       </c>
-      <c r="D121" s="11">
+      <c r="D121" s="12">
         <v>49</v>
       </c>
-      <c r="E121" s="11" t="s">
+      <c r="E121" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="F121" s="11" t="s">
+      <c r="F121" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="G121" s="11">
-        <v>10</v>
-      </c>
-      <c r="H121" s="11">
+      <c r="G121" s="12">
+        <v>10</v>
+      </c>
+      <c r="H121" s="12">
         <v>7100266739</v>
       </c>
-      <c r="I121" s="11">
+      <c r="I121" s="12">
         <v>470</v>
       </c>
-      <c r="J121" s="11">
+      <c r="J121" s="12">
         <v>21940005</v>
       </c>
-      <c r="K121" s="11">
+      <c r="K121" s="12">
         <v>57</v>
       </c>
-      <c r="L121" s="11" t="s">
+      <c r="L121" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="M121" s="11">
+      <c r="M121" s="12">
         <v>250</v>
       </c>
-      <c r="N121" s="11">
+      <c r="N121" s="12">
         <v>21210101</v>
       </c>
-      <c r="O121" s="11">
-        <v>10</v>
-      </c>
-      <c r="P121" s="11">
+      <c r="O121" s="12">
+        <v>10</v>
+      </c>
+      <c r="P121" s="12">
         <v>9999</v>
       </c>
-      <c r="Q121" s="11">
+      <c r="Q121" s="12">
         <v>9999999999</v>
       </c>
-      <c r="R121" s="11" t="s">
+      <c r="R121" s="12" t="s">
         <v>369</v>
       </c>
-      <c r="S121" s="11">
+      <c r="S121" s="12">
         <v>3002718</v>
       </c>
-      <c r="T121" s="11">
+      <c r="T121" s="12">
         <v>2401010090</v>
       </c>
-      <c r="U121" s="11" t="s">
+      <c r="U121" s="12" t="s">
         <v>392</v>
       </c>
-      <c r="V121" s="11">
+      <c r="V121" s="12">
         <v>2018</v>
       </c>
-      <c r="X121" s="11" t="s">
+      <c r="X121" s="12" t="s">
         <v>406</v>
       </c>
-      <c r="Y121" s="12">
+      <c r="Y121" s="13">
         <f>SUMAR.SI.CONJUNTO(Egresos_SIGEP!B:B,Egresos_SIGEP!A:A,Pagos_SAP!A121,Egresos_SIGEP!G:G,Pagos_SAP!G:G)</f>
         <v>0</v>
       </c>
-      <c r="Z121" s="12">
+      <c r="Z121" s="13">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Pagos_SAP!A121,Pagos_SAP!G:G,Pagos_SAP!G:G)-Y121</f>
         <v>0</v>
       </c>
-      <c r="AA121" s="12">
+      <c r="AA121" s="13">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Pagos_SAP!A121,Pagos_SAP!G:G,Pagos_SAP!G:G)*24.023%</f>
         <v>0</v>
       </c>
-      <c r="AB121" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:28" s="11" customFormat="1">
-      <c r="A122" s="11">
+      <c r="AB121" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:28" s="12" customFormat="1">
+      <c r="A122" s="12">
         <v>4500063026</v>
       </c>
-      <c r="B122" s="12">
+      <c r="B122" s="13">
         <v>7997</v>
       </c>
-      <c r="C122" s="11">
+      <c r="C122" s="12">
         <v>3900152231</v>
       </c>
-      <c r="D122" s="11">
+      <c r="D122" s="12">
         <v>50</v>
       </c>
-      <c r="E122" s="11" t="s">
+      <c r="E122" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="F122" s="11" t="s">
+      <c r="F122" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="G122" s="11">
-        <v>10</v>
-      </c>
-      <c r="H122" s="11">
+      <c r="G122" s="12">
+        <v>10</v>
+      </c>
+      <c r="H122" s="12">
         <v>7100266739</v>
       </c>
-      <c r="I122" s="11">
+      <c r="I122" s="12">
         <v>480</v>
       </c>
-      <c r="J122" s="11">
+      <c r="J122" s="12">
         <v>21940005</v>
       </c>
-      <c r="K122" s="11">
+      <c r="K122" s="12">
         <v>57</v>
       </c>
-      <c r="L122" s="11" t="s">
+      <c r="L122" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="M122" s="11">
+      <c r="M122" s="12">
         <v>250</v>
       </c>
-      <c r="N122" s="11">
+      <c r="N122" s="12">
         <v>21210101</v>
       </c>
-      <c r="O122" s="11">
-        <v>10</v>
-      </c>
-      <c r="P122" s="11">
+      <c r="O122" s="12">
+        <v>10</v>
+      </c>
+      <c r="P122" s="12">
         <v>9999</v>
       </c>
-      <c r="Q122" s="11">
+      <c r="Q122" s="12">
         <v>9999999999</v>
       </c>
-      <c r="R122" s="11" t="s">
+      <c r="R122" s="12" t="s">
         <v>369</v>
       </c>
-      <c r="S122" s="11">
+      <c r="S122" s="12">
         <v>3002718</v>
       </c>
-      <c r="T122" s="11">
+      <c r="T122" s="12">
         <v>2401010090</v>
       </c>
-      <c r="U122" s="11" t="s">
+      <c r="U122" s="12" t="s">
         <v>392</v>
       </c>
-      <c r="V122" s="11">
+      <c r="V122" s="12">
         <v>2018</v>
       </c>
-      <c r="X122" s="11" t="s">
+      <c r="X122" s="12" t="s">
         <v>406</v>
       </c>
-      <c r="Y122" s="12">
+      <c r="Y122" s="13">
         <f>SUMAR.SI.CONJUNTO(Egresos_SIGEP!B:B,Egresos_SIGEP!A:A,Pagos_SAP!A122,Egresos_SIGEP!G:G,Pagos_SAP!G:G)</f>
         <v>0</v>
       </c>
-      <c r="Z122" s="12">
+      <c r="Z122" s="13">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Pagos_SAP!A122,Pagos_SAP!G:G,Pagos_SAP!G:G)-Y122</f>
         <v>0</v>
       </c>
-      <c r="AA122" s="12">
+      <c r="AA122" s="13">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Pagos_SAP!A122,Pagos_SAP!G:G,Pagos_SAP!G:G)*24.023%</f>
         <v>0</v>
       </c>
-      <c r="AB122" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:28" s="11" customFormat="1">
-      <c r="A123" s="11">
+      <c r="AB122" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:28" s="12" customFormat="1">
+      <c r="A123" s="12">
         <v>4500063026</v>
       </c>
-      <c r="B123" s="12">
+      <c r="B123" s="13">
         <v>60483</v>
       </c>
-      <c r="C123" s="11">
+      <c r="C123" s="12">
         <v>3900152231</v>
       </c>
-      <c r="D123" s="11">
+      <c r="D123" s="12">
         <v>51</v>
       </c>
-      <c r="E123" s="11" t="s">
+      <c r="E123" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="F123" s="11" t="s">
+      <c r="F123" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="G123" s="11">
-        <v>10</v>
-      </c>
-      <c r="H123" s="11">
+      <c r="G123" s="12">
+        <v>10</v>
+      </c>
+      <c r="H123" s="12">
         <v>7100266739</v>
       </c>
-      <c r="I123" s="11">
+      <c r="I123" s="12">
         <v>490</v>
       </c>
-      <c r="J123" s="11">
+      <c r="J123" s="12">
         <v>21940005</v>
       </c>
-      <c r="K123" s="11">
+      <c r="K123" s="12">
         <v>57</v>
       </c>
-      <c r="L123" s="11" t="s">
+      <c r="L123" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="M123" s="11">
+      <c r="M123" s="12">
         <v>250</v>
       </c>
-      <c r="N123" s="11">
+      <c r="N123" s="12">
         <v>21210101</v>
       </c>
-      <c r="O123" s="11">
-        <v>10</v>
-      </c>
-      <c r="P123" s="11">
+      <c r="O123" s="12">
+        <v>10</v>
+      </c>
+      <c r="P123" s="12">
         <v>9999</v>
       </c>
-      <c r="Q123" s="11">
+      <c r="Q123" s="12">
         <v>9999999999</v>
       </c>
-      <c r="R123" s="11" t="s">
+      <c r="R123" s="12" t="s">
         <v>369</v>
       </c>
-      <c r="S123" s="11">
+      <c r="S123" s="12">
         <v>3002718</v>
       </c>
-      <c r="T123" s="11">
+      <c r="T123" s="12">
         <v>2401010090</v>
       </c>
-      <c r="U123" s="11" t="s">
+      <c r="U123" s="12" t="s">
         <v>392</v>
       </c>
-      <c r="V123" s="11">
+      <c r="V123" s="12">
         <v>2018</v>
       </c>
-      <c r="X123" s="11" t="s">
+      <c r="X123" s="12" t="s">
         <v>406</v>
       </c>
-      <c r="Y123" s="12">
+      <c r="Y123" s="13">
         <f>SUMAR.SI.CONJUNTO(Egresos_SIGEP!B:B,Egresos_SIGEP!A:A,Pagos_SAP!A123,Egresos_SIGEP!G:G,Pagos_SAP!G:G)</f>
         <v>0</v>
       </c>
-      <c r="Z123" s="12">
+      <c r="Z123" s="13">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Pagos_SAP!A123,Pagos_SAP!G:G,Pagos_SAP!G:G)-Y123</f>
         <v>0</v>
       </c>
-      <c r="AA123" s="12">
+      <c r="AA123" s="13">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Pagos_SAP!A123,Pagos_SAP!G:G,Pagos_SAP!G:G)*24.023%</f>
         <v>0</v>
       </c>
-      <c r="AB123" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:28" s="11" customFormat="1">
-      <c r="A124" s="11">
+      <c r="AB123" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:28" s="12" customFormat="1">
+      <c r="A124" s="12">
         <v>4500063026</v>
       </c>
-      <c r="B124" s="12">
+      <c r="B124" s="13">
         <v>4424</v>
       </c>
-      <c r="C124" s="11">
+      <c r="C124" s="12">
         <v>3900152231</v>
       </c>
-      <c r="D124" s="11">
+      <c r="D124" s="12">
         <v>52</v>
       </c>
-      <c r="E124" s="11" t="s">
+      <c r="E124" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="F124" s="11" t="s">
+      <c r="F124" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="G124" s="11">
-        <v>10</v>
-      </c>
-      <c r="H124" s="11">
+      <c r="G124" s="12">
+        <v>10</v>
+      </c>
+      <c r="H124" s="12">
         <v>7100266739</v>
       </c>
-      <c r="I124" s="11">
+      <c r="I124" s="12">
         <v>500</v>
       </c>
-      <c r="J124" s="11">
+      <c r="J124" s="12">
         <v>21940005</v>
       </c>
-      <c r="K124" s="11">
+      <c r="K124" s="12">
         <v>57</v>
       </c>
-      <c r="L124" s="11" t="s">
+      <c r="L124" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="M124" s="11">
+      <c r="M124" s="12">
         <v>250</v>
       </c>
-      <c r="N124" s="11">
+      <c r="N124" s="12">
         <v>21210101</v>
       </c>
-      <c r="O124" s="11">
-        <v>10</v>
-      </c>
-      <c r="P124" s="11">
+      <c r="O124" s="12">
+        <v>10</v>
+      </c>
+      <c r="P124" s="12">
         <v>9999</v>
       </c>
-      <c r="Q124" s="11">
+      <c r="Q124" s="12">
         <v>9999999999</v>
       </c>
-      <c r="R124" s="11" t="s">
+      <c r="R124" s="12" t="s">
         <v>369</v>
       </c>
-      <c r="S124" s="11">
+      <c r="S124" s="12">
         <v>3002718</v>
       </c>
-      <c r="T124" s="11">
+      <c r="T124" s="12">
         <v>2401010090</v>
       </c>
-      <c r="U124" s="11" t="s">
+      <c r="U124" s="12" t="s">
         <v>392</v>
       </c>
-      <c r="V124" s="11">
+      <c r="V124" s="12">
         <v>2018</v>
       </c>
-      <c r="X124" s="11" t="s">
+      <c r="X124" s="12" t="s">
         <v>406</v>
       </c>
-      <c r="Y124" s="12">
+      <c r="Y124" s="13">
         <f>SUMAR.SI.CONJUNTO(Egresos_SIGEP!B:B,Egresos_SIGEP!A:A,Pagos_SAP!A124,Egresos_SIGEP!G:G,Pagos_SAP!G:G)</f>
         <v>0</v>
       </c>
-      <c r="Z124" s="12">
+      <c r="Z124" s="13">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Pagos_SAP!A124,Pagos_SAP!G:G,Pagos_SAP!G:G)-Y124</f>
         <v>0</v>
       </c>
-      <c r="AA124" s="12">
+      <c r="AA124" s="13">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Pagos_SAP!A124,Pagos_SAP!G:G,Pagos_SAP!G:G)*24.023%</f>
         <v>0</v>
       </c>
-      <c r="AB124" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:28" s="11" customFormat="1">
-      <c r="A125" s="11">
+      <c r="AB124" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:28" s="12" customFormat="1">
+      <c r="A125" s="12">
         <v>4500063026</v>
       </c>
-      <c r="B125" s="12">
+      <c r="B125" s="13">
         <v>49534</v>
       </c>
-      <c r="C125" s="11">
+      <c r="C125" s="12">
         <v>3900152231</v>
       </c>
-      <c r="D125" s="11">
+      <c r="D125" s="12">
         <v>53</v>
       </c>
-      <c r="E125" s="11" t="s">
+      <c r="E125" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="F125" s="11" t="s">
+      <c r="F125" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="G125" s="11">
-        <v>10</v>
-      </c>
-      <c r="H125" s="11">
+      <c r="G125" s="12">
+        <v>10</v>
+      </c>
+      <c r="H125" s="12">
         <v>7100266739</v>
       </c>
-      <c r="I125" s="11">
+      <c r="I125" s="12">
         <v>510</v>
       </c>
-      <c r="J125" s="11">
+      <c r="J125" s="12">
         <v>21940005</v>
       </c>
-      <c r="K125" s="11">
+      <c r="K125" s="12">
         <v>57</v>
       </c>
-      <c r="L125" s="11" t="s">
+      <c r="L125" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="M125" s="11">
+      <c r="M125" s="12">
         <v>250</v>
       </c>
-      <c r="N125" s="11">
+      <c r="N125" s="12">
         <v>21210101</v>
       </c>
-      <c r="O125" s="11">
-        <v>10</v>
-      </c>
-      <c r="P125" s="11">
+      <c r="O125" s="12">
+        <v>10</v>
+      </c>
+      <c r="P125" s="12">
         <v>9999</v>
       </c>
-      <c r="Q125" s="11">
+      <c r="Q125" s="12">
         <v>9999999999</v>
       </c>
-      <c r="R125" s="11" t="s">
+      <c r="R125" s="12" t="s">
         <v>369</v>
       </c>
-      <c r="S125" s="11">
+      <c r="S125" s="12">
         <v>3002718</v>
       </c>
-      <c r="T125" s="11">
+      <c r="T125" s="12">
         <v>2401010090</v>
       </c>
-      <c r="U125" s="11" t="s">
+      <c r="U125" s="12" t="s">
         <v>392</v>
       </c>
-      <c r="V125" s="11">
+      <c r="V125" s="12">
         <v>2018</v>
       </c>
-      <c r="X125" s="11" t="s">
+      <c r="X125" s="12" t="s">
         <v>406</v>
       </c>
-      <c r="Y125" s="12">
+      <c r="Y125" s="13">
         <f>SUMAR.SI.CONJUNTO(Egresos_SIGEP!B:B,Egresos_SIGEP!A:A,Pagos_SAP!A125,Egresos_SIGEP!G:G,Pagos_SAP!G:G)</f>
         <v>0</v>
       </c>
-      <c r="Z125" s="12">
+      <c r="Z125" s="13">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Pagos_SAP!A125,Pagos_SAP!G:G,Pagos_SAP!G:G)-Y125</f>
         <v>0</v>
       </c>
-      <c r="AA125" s="12">
+      <c r="AA125" s="13">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Pagos_SAP!A125,Pagos_SAP!G:G,Pagos_SAP!G:G)*24.023%</f>
         <v>0</v>
       </c>
-      <c r="AB125" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:28" s="11" customFormat="1">
-      <c r="A126" s="11">
+      <c r="AB125" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:28" s="12" customFormat="1">
+      <c r="A126" s="12">
         <v>4500063026</v>
       </c>
-      <c r="B126" s="12">
+      <c r="B126" s="13">
         <v>10080</v>
       </c>
-      <c r="C126" s="11">
+      <c r="C126" s="12">
         <v>3900152231</v>
       </c>
-      <c r="D126" s="11">
+      <c r="D126" s="12">
         <v>54</v>
       </c>
-      <c r="E126" s="11" t="s">
+      <c r="E126" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="F126" s="11" t="s">
+      <c r="F126" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="G126" s="11">
-        <v>10</v>
-      </c>
-      <c r="H126" s="11">
+      <c r="G126" s="12">
+        <v>10</v>
+      </c>
+      <c r="H126" s="12">
         <v>7100266739</v>
       </c>
-      <c r="I126" s="11">
+      <c r="I126" s="12">
         <v>520</v>
       </c>
-      <c r="J126" s="11">
+      <c r="J126" s="12">
         <v>21940005</v>
       </c>
-      <c r="K126" s="11">
+      <c r="K126" s="12">
         <v>57</v>
       </c>
-      <c r="L126" s="11" t="s">
+      <c r="L126" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="M126" s="11">
+      <c r="M126" s="12">
         <v>250</v>
       </c>
-      <c r="N126" s="11">
+      <c r="N126" s="12">
         <v>21210101</v>
       </c>
-      <c r="O126" s="11">
-        <v>10</v>
-      </c>
-      <c r="P126" s="11">
+      <c r="O126" s="12">
+        <v>10</v>
+      </c>
+      <c r="P126" s="12">
         <v>9999</v>
       </c>
-      <c r="Q126" s="11">
+      <c r="Q126" s="12">
         <v>9999999999</v>
       </c>
-      <c r="R126" s="11" t="s">
+      <c r="R126" s="12" t="s">
         <v>369</v>
       </c>
-      <c r="S126" s="11">
+      <c r="S126" s="12">
         <v>3002718</v>
       </c>
-      <c r="T126" s="11">
+      <c r="T126" s="12">
         <v>2401010090</v>
       </c>
-      <c r="U126" s="11" t="s">
+      <c r="U126" s="12" t="s">
         <v>392</v>
       </c>
-      <c r="V126" s="11">
+      <c r="V126" s="12">
         <v>2018</v>
       </c>
-      <c r="X126" s="11" t="s">
+      <c r="X126" s="12" t="s">
         <v>406</v>
       </c>
-      <c r="Y126" s="12">
+      <c r="Y126" s="13">
         <f>SUMAR.SI.CONJUNTO(Egresos_SIGEP!B:B,Egresos_SIGEP!A:A,Pagos_SAP!A126,Egresos_SIGEP!G:G,Pagos_SAP!G:G)</f>
         <v>0</v>
       </c>
-      <c r="Z126" s="12">
+      <c r="Z126" s="13">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Pagos_SAP!A126,Pagos_SAP!G:G,Pagos_SAP!G:G)-Y126</f>
         <v>0</v>
       </c>
-      <c r="AA126" s="12">
+      <c r="AA126" s="13">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Pagos_SAP!A126,Pagos_SAP!G:G,Pagos_SAP!G:G)*24.023%</f>
         <v>0</v>
       </c>
-      <c r="AB126" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:28" s="11" customFormat="1">
-      <c r="A127" s="11">
+      <c r="AB126" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:28" s="12" customFormat="1">
+      <c r="A127" s="12">
         <v>4500063026</v>
       </c>
-      <c r="B127" s="12">
+      <c r="B127" s="13">
         <v>4344</v>
       </c>
-      <c r="C127" s="11">
+      <c r="C127" s="12">
         <v>3900152231</v>
       </c>
-      <c r="D127" s="11">
+      <c r="D127" s="12">
         <v>55</v>
       </c>
-      <c r="E127" s="11" t="s">
+      <c r="E127" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="F127" s="11" t="s">
+      <c r="F127" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="G127" s="11">
-        <v>10</v>
-      </c>
-      <c r="H127" s="11">
+      <c r="G127" s="12">
+        <v>10</v>
+      </c>
+      <c r="H127" s="12">
         <v>7100266739</v>
       </c>
-      <c r="I127" s="11">
+      <c r="I127" s="12">
         <v>530</v>
       </c>
-      <c r="J127" s="11">
+      <c r="J127" s="12">
         <v>21940005</v>
       </c>
-      <c r="K127" s="11">
+      <c r="K127" s="12">
         <v>57</v>
       </c>
-      <c r="L127" s="11" t="s">
+      <c r="L127" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="M127" s="11">
+      <c r="M127" s="12">
         <v>250</v>
       </c>
-      <c r="N127" s="11">
+      <c r="N127" s="12">
         <v>21210101</v>
       </c>
-      <c r="O127" s="11">
-        <v>10</v>
-      </c>
-      <c r="P127" s="11">
+      <c r="O127" s="12">
+        <v>10</v>
+      </c>
+      <c r="P127" s="12">
         <v>9999</v>
       </c>
-      <c r="Q127" s="11">
+      <c r="Q127" s="12">
         <v>9999999999</v>
       </c>
-      <c r="R127" s="11" t="s">
+      <c r="R127" s="12" t="s">
         <v>369</v>
       </c>
-      <c r="S127" s="11">
+      <c r="S127" s="12">
         <v>3002718</v>
       </c>
-      <c r="T127" s="11">
+      <c r="T127" s="12">
         <v>2401010090</v>
       </c>
-      <c r="U127" s="11" t="s">
+      <c r="U127" s="12" t="s">
         <v>392</v>
       </c>
-      <c r="V127" s="11">
+      <c r="V127" s="12">
         <v>2018</v>
       </c>
-      <c r="X127" s="11" t="s">
+      <c r="X127" s="12" t="s">
         <v>406</v>
       </c>
-      <c r="Y127" s="12">
+      <c r="Y127" s="13">
         <f>SUMAR.SI.CONJUNTO(Egresos_SIGEP!B:B,Egresos_SIGEP!A:A,Pagos_SAP!A127,Egresos_SIGEP!G:G,Pagos_SAP!G:G)</f>
         <v>0</v>
       </c>
-      <c r="Z127" s="12">
+      <c r="Z127" s="13">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Pagos_SAP!A127,Pagos_SAP!G:G,Pagos_SAP!G:G)-Y127</f>
         <v>0</v>
       </c>
-      <c r="AA127" s="12">
+      <c r="AA127" s="13">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Pagos_SAP!A127,Pagos_SAP!G:G,Pagos_SAP!G:G)*24.023%</f>
         <v>0</v>
       </c>
-      <c r="AB127" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:28" s="11" customFormat="1">
-      <c r="A128" s="11">
+      <c r="AB127" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:28" s="12" customFormat="1">
+      <c r="A128" s="12">
         <v>4500063026</v>
       </c>
-      <c r="B128" s="12">
+      <c r="B128" s="13">
         <v>-1</v>
       </c>
-      <c r="C128" s="11">
+      <c r="C128" s="12">
         <v>3900152231</v>
       </c>
-      <c r="D128" s="11">
+      <c r="D128" s="12">
         <v>56</v>
       </c>
-      <c r="E128" s="11" t="s">
+      <c r="E128" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="F128" s="11" t="s">
+      <c r="F128" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="G128" s="11">
-        <v>10</v>
-      </c>
-      <c r="H128" s="11">
+      <c r="G128" s="12">
+        <v>10</v>
+      </c>
+      <c r="H128" s="12">
         <v>7100266739</v>
       </c>
-      <c r="I128" s="11">
+      <c r="I128" s="12">
         <v>530</v>
       </c>
-      <c r="J128" s="11">
+      <c r="J128" s="12">
         <v>21940005</v>
       </c>
-      <c r="K128" s="11">
+      <c r="K128" s="12">
         <v>57</v>
       </c>
-      <c r="L128" s="11" t="s">
+      <c r="L128" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="M128" s="11">
+      <c r="M128" s="12">
         <v>250</v>
       </c>
-      <c r="N128" s="11">
+      <c r="N128" s="12">
         <v>21210101</v>
       </c>
-      <c r="O128" s="11">
-        <v>10</v>
-      </c>
-      <c r="P128" s="11">
+      <c r="O128" s="12">
+        <v>10</v>
+      </c>
+      <c r="P128" s="12">
         <v>9999</v>
       </c>
-      <c r="Q128" s="11">
+      <c r="Q128" s="12">
         <v>9999999999</v>
       </c>
-      <c r="R128" s="11" t="s">
+      <c r="R128" s="12" t="s">
         <v>369</v>
       </c>
-      <c r="S128" s="11">
+      <c r="S128" s="12">
         <v>3002718</v>
       </c>
-      <c r="T128" s="11">
+      <c r="T128" s="12">
         <v>7221010101</v>
       </c>
-      <c r="U128" s="11" t="s">
+      <c r="U128" s="12" t="s">
         <v>392</v>
       </c>
-      <c r="V128" s="11">
+      <c r="V128" s="12">
         <v>2018</v>
       </c>
-      <c r="X128" s="11" t="s">
+      <c r="X128" s="12" t="s">
         <v>406</v>
       </c>
-      <c r="Y128" s="12">
+      <c r="Y128" s="13">
         <f>SUMAR.SI.CONJUNTO(Egresos_SIGEP!B:B,Egresos_SIGEP!A:A,Pagos_SAP!A128,Egresos_SIGEP!G:G,Pagos_SAP!G:G)</f>
         <v>0</v>
       </c>
-      <c r="Z128" s="12">
+      <c r="Z128" s="13">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Pagos_SAP!A128,Pagos_SAP!G:G,Pagos_SAP!G:G)-Y128</f>
         <v>0</v>
       </c>
-      <c r="AA128" s="12">
+      <c r="AA128" s="13">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Pagos_SAP!A128,Pagos_SAP!G:G,Pagos_SAP!G:G)*24.023%</f>
         <v>0</v>
       </c>
-      <c r="AB128" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:28" s="11" customFormat="1">
-      <c r="A129" s="11">
+      <c r="AB128" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:28" s="12" customFormat="1">
+      <c r="A129" s="12">
         <v>4500063026</v>
       </c>
-      <c r="B129" s="12">
+      <c r="B129" s="13">
         <v>4894</v>
       </c>
-      <c r="C129" s="11">
+      <c r="C129" s="12">
         <v>3900152231</v>
       </c>
-      <c r="D129" s="11">
+      <c r="D129" s="12">
         <v>57</v>
       </c>
-      <c r="E129" s="11" t="s">
+      <c r="E129" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="F129" s="11" t="s">
+      <c r="F129" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="G129" s="11">
-        <v>10</v>
-      </c>
-      <c r="H129" s="11">
+      <c r="G129" s="12">
+        <v>10</v>
+      </c>
+      <c r="H129" s="12">
         <v>7100266739</v>
       </c>
-      <c r="I129" s="11">
+      <c r="I129" s="12">
         <v>540</v>
       </c>
-      <c r="J129" s="11">
+      <c r="J129" s="12">
         <v>21940005</v>
       </c>
-      <c r="K129" s="11">
+      <c r="K129" s="12">
         <v>57</v>
       </c>
-      <c r="L129" s="11" t="s">
+      <c r="L129" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="M129" s="11">
+      <c r="M129" s="12">
         <v>250</v>
       </c>
-      <c r="N129" s="11">
+      <c r="N129" s="12">
         <v>21210101</v>
       </c>
-      <c r="O129" s="11">
-        <v>10</v>
-      </c>
-      <c r="P129" s="11">
+      <c r="O129" s="12">
+        <v>10</v>
+      </c>
+      <c r="P129" s="12">
         <v>9999</v>
       </c>
-      <c r="Q129" s="11">
+      <c r="Q129" s="12">
         <v>9999999999</v>
       </c>
-      <c r="R129" s="11" t="s">
+      <c r="R129" s="12" t="s">
         <v>369</v>
       </c>
-      <c r="S129" s="11">
+      <c r="S129" s="12">
         <v>3002718</v>
       </c>
-      <c r="T129" s="11">
+      <c r="T129" s="12">
         <v>2401010090</v>
       </c>
-      <c r="U129" s="11" t="s">
+      <c r="U129" s="12" t="s">
         <v>392</v>
       </c>
-      <c r="V129" s="11">
+      <c r="V129" s="12">
         <v>2018</v>
       </c>
-      <c r="X129" s="11" t="s">
+      <c r="X129" s="12" t="s">
         <v>406</v>
       </c>
-      <c r="Y129" s="12">
+      <c r="Y129" s="13">
         <f>SUMAR.SI.CONJUNTO(Egresos_SIGEP!B:B,Egresos_SIGEP!A:A,Pagos_SAP!A129,Egresos_SIGEP!G:G,Pagos_SAP!G:G)</f>
         <v>0</v>
       </c>
-      <c r="Z129" s="12">
+      <c r="Z129" s="13">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Pagos_SAP!A129,Pagos_SAP!G:G,Pagos_SAP!G:G)-Y129</f>
         <v>0</v>
       </c>
-      <c r="AA129" s="12">
+      <c r="AA129" s="13">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Pagos_SAP!A129,Pagos_SAP!G:G,Pagos_SAP!G:G)*24.023%</f>
         <v>0</v>
       </c>
-      <c r="AB129" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:28" s="11" customFormat="1">
-      <c r="A130" s="11">
+      <c r="AB129" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:28" s="12" customFormat="1">
+      <c r="A130" s="12">
         <v>4500063026</v>
       </c>
-      <c r="B130" s="12">
+      <c r="B130" s="13">
         <v>6040</v>
       </c>
-      <c r="C130" s="11">
+      <c r="C130" s="12">
         <v>3900152231</v>
       </c>
-      <c r="D130" s="11">
+      <c r="D130" s="12">
         <v>58</v>
       </c>
-      <c r="E130" s="11" t="s">
+      <c r="E130" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="F130" s="11" t="s">
+      <c r="F130" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="G130" s="11">
-        <v>10</v>
-      </c>
-      <c r="H130" s="11">
+      <c r="G130" s="12">
+        <v>10</v>
+      </c>
+      <c r="H130" s="12">
         <v>7100266739</v>
       </c>
-      <c r="I130" s="11">
+      <c r="I130" s="12">
         <v>550</v>
       </c>
-      <c r="J130" s="11">
+      <c r="J130" s="12">
         <v>21940005</v>
       </c>
-      <c r="K130" s="11">
+      <c r="K130" s="12">
         <v>57</v>
       </c>
-      <c r="L130" s="11" t="s">
+      <c r="L130" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="M130" s="11">
+      <c r="M130" s="12">
         <v>250</v>
       </c>
-      <c r="N130" s="11">
+      <c r="N130" s="12">
         <v>21210101</v>
       </c>
-      <c r="O130" s="11">
-        <v>10</v>
-      </c>
-      <c r="P130" s="11">
+      <c r="O130" s="12">
+        <v>10</v>
+      </c>
+      <c r="P130" s="12">
         <v>9999</v>
       </c>
-      <c r="Q130" s="11">
+      <c r="Q130" s="12">
         <v>9999999999</v>
       </c>
-      <c r="R130" s="11" t="s">
+      <c r="R130" s="12" t="s">
         <v>369</v>
       </c>
-      <c r="S130" s="11">
+      <c r="S130" s="12">
         <v>3002718</v>
       </c>
-      <c r="T130" s="11">
+      <c r="T130" s="12">
         <v>2401010090</v>
       </c>
-      <c r="U130" s="11" t="s">
+      <c r="U130" s="12" t="s">
         <v>392</v>
       </c>
-      <c r="V130" s="11">
+      <c r="V130" s="12">
         <v>2018</v>
       </c>
-      <c r="X130" s="11" t="s">
+      <c r="X130" s="12" t="s">
         <v>406</v>
       </c>
-      <c r="Y130" s="12">
+      <c r="Y130" s="13">
         <f>SUMAR.SI.CONJUNTO(Egresos_SIGEP!B:B,Egresos_SIGEP!A:A,Pagos_SAP!A130,Egresos_SIGEP!G:G,Pagos_SAP!G:G)</f>
         <v>0</v>
       </c>
-      <c r="Z130" s="12">
+      <c r="Z130" s="13">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Pagos_SAP!A130,Pagos_SAP!G:G,Pagos_SAP!G:G)-Y130</f>
         <v>0</v>
       </c>
-      <c r="AA130" s="12">
+      <c r="AA130" s="13">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Pagos_SAP!A130,Pagos_SAP!G:G,Pagos_SAP!G:G)*24.023%</f>
         <v>0</v>
       </c>
-      <c r="AB130" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:28" s="11" customFormat="1">
-      <c r="A131" s="11">
+      <c r="AB130" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:28" s="12" customFormat="1">
+      <c r="A131" s="12">
         <v>4500063026</v>
       </c>
-      <c r="B131" s="12">
+      <c r="B131" s="13">
         <v>2132</v>
       </c>
-      <c r="C131" s="11">
+      <c r="C131" s="12">
         <v>3900152231</v>
       </c>
-      <c r="D131" s="11">
+      <c r="D131" s="12">
         <v>59</v>
       </c>
-      <c r="E131" s="11" t="s">
+      <c r="E131" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="F131" s="11" t="s">
+      <c r="F131" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="G131" s="11">
-        <v>10</v>
-      </c>
-      <c r="H131" s="11">
+      <c r="G131" s="12">
+        <v>10</v>
+      </c>
+      <c r="H131" s="12">
         <v>7100266739</v>
       </c>
-      <c r="I131" s="11">
+      <c r="I131" s="12">
         <v>560</v>
       </c>
-      <c r="J131" s="11">
+      <c r="J131" s="12">
         <v>21940005</v>
       </c>
-      <c r="K131" s="11">
+      <c r="K131" s="12">
         <v>57</v>
       </c>
-      <c r="L131" s="11" t="s">
+      <c r="L131" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="M131" s="11">
+      <c r="M131" s="12">
         <v>250</v>
       </c>
-      <c r="N131" s="11">
+      <c r="N131" s="12">
         <v>21210101</v>
       </c>
-      <c r="O131" s="11">
-        <v>10</v>
-      </c>
-      <c r="P131" s="11">
+      <c r="O131" s="12">
+        <v>10</v>
+      </c>
+      <c r="P131" s="12">
         <v>9999</v>
       </c>
-      <c r="Q131" s="11">
+      <c r="Q131" s="12">
         <v>9999999999</v>
       </c>
-      <c r="R131" s="11" t="s">
+      <c r="R131" s="12" t="s">
         <v>369</v>
       </c>
-      <c r="S131" s="11">
+      <c r="S131" s="12">
         <v>3002718</v>
       </c>
-      <c r="T131" s="11">
+      <c r="T131" s="12">
         <v>2401010090</v>
       </c>
-      <c r="U131" s="11" t="s">
+      <c r="U131" s="12" t="s">
         <v>392</v>
       </c>
-      <c r="V131" s="11">
+      <c r="V131" s="12">
         <v>2018</v>
       </c>
-      <c r="X131" s="11" t="s">
+      <c r="X131" s="12" t="s">
         <v>406</v>
       </c>
-      <c r="Y131" s="12">
+      <c r="Y131" s="13">
         <f>SUMAR.SI.CONJUNTO(Egresos_SIGEP!B:B,Egresos_SIGEP!A:A,Pagos_SAP!A131,Egresos_SIGEP!G:G,Pagos_SAP!G:G)</f>
         <v>0</v>
       </c>
-      <c r="Z131" s="12">
+      <c r="Z131" s="13">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Pagos_SAP!A131,Pagos_SAP!G:G,Pagos_SAP!G:G)-Y131</f>
         <v>0</v>
       </c>
-      <c r="AA131" s="12">
+      <c r="AA131" s="13">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Pagos_SAP!A131,Pagos_SAP!G:G,Pagos_SAP!G:G)*24.023%</f>
         <v>0</v>
       </c>
-      <c r="AB131" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:28" s="11" customFormat="1">
-      <c r="A132" s="11">
+      <c r="AB131" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:28" s="12" customFormat="1">
+      <c r="A132" s="12">
         <v>4500063026</v>
       </c>
-      <c r="B132" s="12">
+      <c r="B132" s="13">
         <v>3011</v>
       </c>
-      <c r="C132" s="11">
+      <c r="C132" s="12">
         <v>3900152231</v>
       </c>
-      <c r="D132" s="11">
+      <c r="D132" s="12">
         <v>60</v>
       </c>
-      <c r="E132" s="11" t="s">
+      <c r="E132" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="F132" s="11" t="s">
+      <c r="F132" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="G132" s="11">
-        <v>10</v>
-      </c>
-      <c r="H132" s="11">
+      <c r="G132" s="12">
+        <v>10</v>
+      </c>
+      <c r="H132" s="12">
         <v>7100266739</v>
       </c>
-      <c r="I132" s="11">
+      <c r="I132" s="12">
         <v>570</v>
       </c>
-      <c r="J132" s="11">
+      <c r="J132" s="12">
         <v>21940005</v>
       </c>
-      <c r="K132" s="11">
+      <c r="K132" s="12">
         <v>57</v>
       </c>
-      <c r="L132" s="11" t="s">
+      <c r="L132" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="M132" s="11">
+      <c r="M132" s="12">
         <v>250</v>
       </c>
-      <c r="N132" s="11">
+      <c r="N132" s="12">
         <v>21210101</v>
       </c>
-      <c r="O132" s="11">
-        <v>10</v>
-      </c>
-      <c r="P132" s="11">
+      <c r="O132" s="12">
+        <v>10</v>
+      </c>
+      <c r="P132" s="12">
         <v>9999</v>
       </c>
-      <c r="Q132" s="11">
+      <c r="Q132" s="12">
         <v>9999999999</v>
       </c>
-      <c r="R132" s="11" t="s">
+      <c r="R132" s="12" t="s">
         <v>369</v>
       </c>
-      <c r="S132" s="11">
+      <c r="S132" s="12">
         <v>3002718</v>
       </c>
-      <c r="T132" s="11">
+      <c r="T132" s="12">
         <v>2401010090</v>
       </c>
-      <c r="U132" s="11" t="s">
+      <c r="U132" s="12" t="s">
         <v>392</v>
       </c>
-      <c r="V132" s="11">
+      <c r="V132" s="12">
         <v>2018</v>
       </c>
-      <c r="X132" s="11" t="s">
+      <c r="X132" s="12" t="s">
         <v>406</v>
       </c>
-      <c r="Y132" s="12">
+      <c r="Y132" s="13">
         <f>SUMAR.SI.CONJUNTO(Egresos_SIGEP!B:B,Egresos_SIGEP!A:A,Pagos_SAP!A132,Egresos_SIGEP!G:G,Pagos_SAP!G:G)</f>
         <v>0</v>
       </c>
-      <c r="Z132" s="12">
+      <c r="Z132" s="13">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Pagos_SAP!A132,Pagos_SAP!G:G,Pagos_SAP!G:G)-Y132</f>
         <v>0</v>
       </c>
-      <c r="AA132" s="12">
+      <c r="AA132" s="13">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Pagos_SAP!A132,Pagos_SAP!G:G,Pagos_SAP!G:G)*24.023%</f>
         <v>0</v>
       </c>
-      <c r="AB132" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:28" s="11" customFormat="1">
-      <c r="A133" s="11">
+      <c r="AB132" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:28" s="12" customFormat="1">
+      <c r="A133" s="12">
         <v>4500063026</v>
       </c>
-      <c r="B133" s="12">
+      <c r="B133" s="13">
         <v>2416</v>
       </c>
-      <c r="C133" s="11">
+      <c r="C133" s="12">
         <v>3900152231</v>
       </c>
-      <c r="D133" s="11">
+      <c r="D133" s="12">
         <v>61</v>
       </c>
-      <c r="E133" s="11" t="s">
+      <c r="E133" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="F133" s="11" t="s">
+      <c r="F133" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="G133" s="11">
-        <v>10</v>
-      </c>
-      <c r="H133" s="11">
+      <c r="G133" s="12">
+        <v>10</v>
+      </c>
+      <c r="H133" s="12">
         <v>7100266739</v>
       </c>
-      <c r="I133" s="11">
+      <c r="I133" s="12">
         <v>580</v>
       </c>
-      <c r="J133" s="11">
+      <c r="J133" s="12">
         <v>21940005</v>
       </c>
-      <c r="K133" s="11">
+      <c r="K133" s="12">
         <v>57</v>
       </c>
-      <c r="L133" s="11" t="s">
+      <c r="L133" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="M133" s="11">
+      <c r="M133" s="12">
         <v>250</v>
       </c>
-      <c r="N133" s="11">
+      <c r="N133" s="12">
         <v>21210101</v>
       </c>
-      <c r="O133" s="11">
-        <v>10</v>
-      </c>
-      <c r="P133" s="11">
+      <c r="O133" s="12">
+        <v>10</v>
+      </c>
+      <c r="P133" s="12">
         <v>9999</v>
       </c>
-      <c r="Q133" s="11">
+      <c r="Q133" s="12">
         <v>9999999999</v>
       </c>
-      <c r="R133" s="11" t="s">
+      <c r="R133" s="12" t="s">
         <v>369</v>
       </c>
-      <c r="S133" s="11">
+      <c r="S133" s="12">
         <v>3002718</v>
       </c>
-      <c r="T133" s="11">
+      <c r="T133" s="12">
         <v>2401010090</v>
       </c>
-      <c r="U133" s="11" t="s">
+      <c r="U133" s="12" t="s">
         <v>392</v>
       </c>
-      <c r="V133" s="11">
+      <c r="V133" s="12">
         <v>2018</v>
       </c>
-      <c r="X133" s="11" t="s">
+      <c r="X133" s="12" t="s">
         <v>406</v>
       </c>
-      <c r="Y133" s="12">
+      <c r="Y133" s="13">
         <f>SUMAR.SI.CONJUNTO(Egresos_SIGEP!B:B,Egresos_SIGEP!A:A,Pagos_SAP!A133,Egresos_SIGEP!G:G,Pagos_SAP!G:G)</f>
         <v>0</v>
       </c>
-      <c r="Z133" s="12">
+      <c r="Z133" s="13">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Pagos_SAP!A133,Pagos_SAP!G:G,Pagos_SAP!G:G)-Y133</f>
         <v>0</v>
       </c>
-      <c r="AA133" s="12">
+      <c r="AA133" s="13">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Pagos_SAP!A133,Pagos_SAP!G:G,Pagos_SAP!G:G)*24.023%</f>
         <v>0</v>
       </c>
-      <c r="AB133" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:28" s="11" customFormat="1">
-      <c r="A134" s="11">
+      <c r="AB133" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:28" s="12" customFormat="1">
+      <c r="A134" s="12">
         <v>4500063026</v>
       </c>
-      <c r="B134" s="12">
+      <c r="B134" s="13">
         <v>14532</v>
       </c>
-      <c r="C134" s="11">
+      <c r="C134" s="12">
         <v>3900152231</v>
       </c>
-      <c r="D134" s="11">
+      <c r="D134" s="12">
         <v>62</v>
       </c>
-      <c r="E134" s="11" t="s">
+      <c r="E134" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="F134" s="11" t="s">
+      <c r="F134" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="G134" s="11">
-        <v>10</v>
-      </c>
-      <c r="H134" s="11">
+      <c r="G134" s="12">
+        <v>10</v>
+      </c>
+      <c r="H134" s="12">
         <v>7100266739</v>
       </c>
-      <c r="I134" s="11">
+      <c r="I134" s="12">
         <v>590</v>
       </c>
-      <c r="J134" s="11">
+      <c r="J134" s="12">
         <v>21940005</v>
       </c>
-      <c r="K134" s="11">
+      <c r="K134" s="12">
         <v>57</v>
       </c>
-      <c r="L134" s="11" t="s">
+      <c r="L134" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="M134" s="11">
+      <c r="M134" s="12">
         <v>250</v>
       </c>
-      <c r="N134" s="11">
+      <c r="N134" s="12">
         <v>21210101</v>
       </c>
-      <c r="O134" s="11">
-        <v>10</v>
-      </c>
-      <c r="P134" s="11">
+      <c r="O134" s="12">
+        <v>10</v>
+      </c>
+      <c r="P134" s="12">
         <v>9999</v>
       </c>
-      <c r="Q134" s="11">
+      <c r="Q134" s="12">
         <v>9999999999</v>
       </c>
-      <c r="R134" s="11" t="s">
+      <c r="R134" s="12" t="s">
         <v>369</v>
       </c>
-      <c r="S134" s="11">
+      <c r="S134" s="12">
         <v>3002718</v>
       </c>
-      <c r="T134" s="11">
+      <c r="T134" s="12">
         <v>2401010090</v>
       </c>
-      <c r="U134" s="11" t="s">
+      <c r="U134" s="12" t="s">
         <v>392</v>
       </c>
-      <c r="V134" s="11">
+      <c r="V134" s="12">
         <v>2018</v>
       </c>
-      <c r="X134" s="11" t="s">
+      <c r="X134" s="12" t="s">
         <v>406</v>
       </c>
-      <c r="Y134" s="12">
+      <c r="Y134" s="13">
         <f>SUMAR.SI.CONJUNTO(Egresos_SIGEP!B:B,Egresos_SIGEP!A:A,Pagos_SAP!A134,Egresos_SIGEP!G:G,Pagos_SAP!G:G)</f>
         <v>0</v>
       </c>
-      <c r="Z134" s="12">
+      <c r="Z134" s="13">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Pagos_SAP!A134,Pagos_SAP!G:G,Pagos_SAP!G:G)-Y134</f>
         <v>0</v>
       </c>
-      <c r="AA134" s="12">
+      <c r="AA134" s="13">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Pagos_SAP!A134,Pagos_SAP!G:G,Pagos_SAP!G:G)*24.023%</f>
         <v>0</v>
       </c>
-      <c r="AB134" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:28" s="11" customFormat="1">
-      <c r="A135" s="11">
+      <c r="AB134" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:28" s="12" customFormat="1">
+      <c r="A135" s="12">
         <v>4500063026</v>
       </c>
-      <c r="B135" s="12">
+      <c r="B135" s="13">
         <v>7</v>
       </c>
-      <c r="C135" s="11">
+      <c r="C135" s="12">
         <v>3900152231</v>
       </c>
-      <c r="D135" s="11">
+      <c r="D135" s="12">
         <v>63</v>
       </c>
-      <c r="E135" s="11" t="s">
+      <c r="E135" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="F135" s="11" t="s">
+      <c r="F135" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="G135" s="11">
-        <v>10</v>
-      </c>
-      <c r="H135" s="11">
+      <c r="G135" s="12">
+        <v>10</v>
+      </c>
+      <c r="H135" s="12">
         <v>7100266739</v>
       </c>
-      <c r="I135" s="11">
+      <c r="I135" s="12">
         <v>590</v>
       </c>
-      <c r="J135" s="11">
+      <c r="J135" s="12">
         <v>21940005</v>
       </c>
-      <c r="K135" s="11">
+      <c r="K135" s="12">
         <v>57</v>
       </c>
-      <c r="L135" s="11" t="s">
+      <c r="L135" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="M135" s="11">
+      <c r="M135" s="12">
         <v>250</v>
       </c>
-      <c r="N135" s="11">
+      <c r="N135" s="12">
         <v>21210101</v>
       </c>
-      <c r="O135" s="11">
-        <v>10</v>
-      </c>
-      <c r="P135" s="11">
+      <c r="O135" s="12">
+        <v>10</v>
+      </c>
+      <c r="P135" s="12">
         <v>9999</v>
       </c>
-      <c r="Q135" s="11">
+      <c r="Q135" s="12">
         <v>9999999999</v>
       </c>
-      <c r="R135" s="11" t="s">
+      <c r="R135" s="12" t="s">
         <v>369</v>
       </c>
-      <c r="S135" s="11">
+      <c r="S135" s="12">
         <v>3002718</v>
       </c>
-      <c r="T135" s="11">
+      <c r="T135" s="12">
         <v>7221010101</v>
       </c>
-      <c r="U135" s="11" t="s">
+      <c r="U135" s="12" t="s">
         <v>392</v>
       </c>
-      <c r="V135" s="11">
+      <c r="V135" s="12">
         <v>2018</v>
       </c>
-      <c r="X135" s="11" t="s">
+      <c r="X135" s="12" t="s">
         <v>406</v>
       </c>
-      <c r="Y135" s="12">
+      <c r="Y135" s="13">
         <f>SUMAR.SI.CONJUNTO(Egresos_SIGEP!B:B,Egresos_SIGEP!A:A,Pagos_SAP!A135,Egresos_SIGEP!G:G,Pagos_SAP!G:G)</f>
         <v>0</v>
       </c>
-      <c r="Z135" s="12">
+      <c r="Z135" s="13">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Pagos_SAP!A135,Pagos_SAP!G:G,Pagos_SAP!G:G)-Y135</f>
         <v>0</v>
       </c>
-      <c r="AA135" s="12">
+      <c r="AA135" s="13">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Pagos_SAP!A135,Pagos_SAP!G:G,Pagos_SAP!G:G)*24.023%</f>
         <v>0</v>
       </c>
-      <c r="AB135" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:28" s="11" customFormat="1">
-      <c r="A136" s="11">
+      <c r="AB135" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:28" s="12" customFormat="1">
+      <c r="A136" s="12">
         <v>4500063026</v>
       </c>
-      <c r="B136" s="12">
+      <c r="B136" s="13">
         <v>1966</v>
       </c>
-      <c r="C136" s="11">
+      <c r="C136" s="12">
         <v>3900152231</v>
       </c>
-      <c r="D136" s="11">
+      <c r="D136" s="12">
         <v>14</v>
       </c>
-      <c r="E136" s="11" t="s">
+      <c r="E136" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="F136" s="11" t="s">
+      <c r="F136" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="G136" s="11">
-        <v>10</v>
-      </c>
-      <c r="H136" s="11">
+      <c r="G136" s="12">
+        <v>10</v>
+      </c>
+      <c r="H136" s="12">
         <v>7100266739</v>
       </c>
-      <c r="I136" s="11">
+      <c r="I136" s="12">
         <v>120</v>
       </c>
-      <c r="J136" s="11">
+      <c r="J136" s="12">
         <v>21940005</v>
       </c>
-      <c r="K136" s="11">
+      <c r="K136" s="12">
         <v>57</v>
       </c>
-      <c r="L136" s="11" t="s">
+      <c r="L136" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="M136" s="11">
+      <c r="M136" s="12">
         <v>250</v>
       </c>
-      <c r="N136" s="11">
+      <c r="N136" s="12">
         <v>21210101</v>
       </c>
-      <c r="O136" s="11">
-        <v>10</v>
-      </c>
-      <c r="P136" s="11">
+      <c r="O136" s="12">
+        <v>10</v>
+      </c>
+      <c r="P136" s="12">
         <v>9999</v>
       </c>
-      <c r="Q136" s="11">
+      <c r="Q136" s="12">
         <v>9999999999</v>
       </c>
-      <c r="R136" s="11" t="s">
+      <c r="R136" s="12" t="s">
         <v>369</v>
       </c>
-      <c r="S136" s="11">
+      <c r="S136" s="12">
         <v>3002718</v>
       </c>
-      <c r="T136" s="11">
+      <c r="T136" s="12">
         <v>2401010090</v>
       </c>
-      <c r="U136" s="11" t="s">
+      <c r="U136" s="12" t="s">
         <v>392</v>
       </c>
-      <c r="V136" s="11">
+      <c r="V136" s="12">
         <v>2018</v>
       </c>
-      <c r="X136" s="11" t="s">
+      <c r="X136" s="12" t="s">
         <v>406</v>
       </c>
-      <c r="Y136" s="12">
+      <c r="Y136" s="13">
         <f>SUMAR.SI.CONJUNTO(Egresos_SIGEP!B:B,Egresos_SIGEP!A:A,Pagos_SAP!A136,Egresos_SIGEP!G:G,Pagos_SAP!G:G)</f>
         <v>0</v>
       </c>
-      <c r="Z136" s="12">
+      <c r="Z136" s="13">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Pagos_SAP!A136,Pagos_SAP!G:G,Pagos_SAP!G:G)-Y136</f>
         <v>0</v>
       </c>
-      <c r="AA136" s="12">
+      <c r="AA136" s="13">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Pagos_SAP!A136,Pagos_SAP!G:G,Pagos_SAP!G:G)*24.023%</f>
         <v>0</v>
       </c>
-      <c r="AB136" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:28" s="11" customFormat="1">
-      <c r="A137" s="11">
+      <c r="AB136" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:28" s="12" customFormat="1">
+      <c r="A137" s="12">
         <v>4500063026</v>
       </c>
-      <c r="B137" s="12">
+      <c r="B137" s="13">
         <v>500</v>
       </c>
-      <c r="C137" s="11">
+      <c r="C137" s="12">
         <v>3900152231</v>
       </c>
-      <c r="D137" s="11">
+      <c r="D137" s="12">
         <v>15</v>
       </c>
-      <c r="E137" s="11" t="s">
+      <c r="E137" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="F137" s="11" t="s">
+      <c r="F137" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="G137" s="11">
-        <v>10</v>
-      </c>
-      <c r="H137" s="11">
+      <c r="G137" s="12">
+        <v>10</v>
+      </c>
+      <c r="H137" s="12">
         <v>7100266739</v>
       </c>
-      <c r="I137" s="11">
+      <c r="I137" s="12">
         <v>130</v>
       </c>
-      <c r="J137" s="11">
+      <c r="J137" s="12">
         <v>21940005</v>
       </c>
-      <c r="K137" s="11">
+      <c r="K137" s="12">
         <v>57</v>
       </c>
-      <c r="L137" s="11" t="s">
+      <c r="L137" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="M137" s="11">
+      <c r="M137" s="12">
         <v>250</v>
       </c>
-      <c r="N137" s="11">
+      <c r="N137" s="12">
         <v>21210101</v>
       </c>
-      <c r="O137" s="11">
-        <v>10</v>
-      </c>
-      <c r="P137" s="11">
+      <c r="O137" s="12">
+        <v>10</v>
+      </c>
+      <c r="P137" s="12">
         <v>9999</v>
       </c>
-      <c r="Q137" s="11">
+      <c r="Q137" s="12">
         <v>9999999999</v>
       </c>
-      <c r="R137" s="11" t="s">
+      <c r="R137" s="12" t="s">
         <v>369</v>
       </c>
-      <c r="S137" s="11">
+      <c r="S137" s="12">
         <v>3002718</v>
       </c>
-      <c r="T137" s="11">
+      <c r="T137" s="12">
         <v>2401010090</v>
       </c>
-      <c r="U137" s="11" t="s">
+      <c r="U137" s="12" t="s">
         <v>392</v>
       </c>
-      <c r="V137" s="11">
+      <c r="V137" s="12">
         <v>2018</v>
       </c>
-      <c r="X137" s="11" t="s">
+      <c r="X137" s="12" t="s">
         <v>406</v>
       </c>
-      <c r="Y137" s="12">
+      <c r="Y137" s="13">
         <f>SUMAR.SI.CONJUNTO(Egresos_SIGEP!B:B,Egresos_SIGEP!A:A,Pagos_SAP!A137,Egresos_SIGEP!G:G,Pagos_SAP!G:G)</f>
         <v>0</v>
       </c>
-      <c r="Z137" s="12">
+      <c r="Z137" s="13">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Pagos_SAP!A137,Pagos_SAP!G:G,Pagos_SAP!G:G)-Y137</f>
         <v>0</v>
       </c>
-      <c r="AA137" s="12">
+      <c r="AA137" s="13">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Pagos_SAP!A137,Pagos_SAP!G:G,Pagos_SAP!G:G)*24.023%</f>
         <v>0</v>
       </c>
-      <c r="AB137" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:28" s="11" customFormat="1">
-      <c r="A138" s="11">
+      <c r="AB137" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:28" s="12" customFormat="1">
+      <c r="A138" s="12">
         <v>4500063026</v>
       </c>
-      <c r="B138" s="12">
+      <c r="B138" s="13">
         <v>3863</v>
       </c>
-      <c r="C138" s="11">
+      <c r="C138" s="12">
         <v>3900152231</v>
       </c>
-      <c r="D138" s="11">
+      <c r="D138" s="12">
         <v>16</v>
       </c>
-      <c r="E138" s="11" t="s">
+      <c r="E138" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="F138" s="11" t="s">
+      <c r="F138" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="G138" s="11">
-        <v>10</v>
-      </c>
-      <c r="H138" s="11">
+      <c r="G138" s="12">
+        <v>10</v>
+      </c>
+      <c r="H138" s="12">
         <v>7100266739</v>
       </c>
-      <c r="I138" s="11">
+      <c r="I138" s="12">
         <v>140</v>
       </c>
-      <c r="J138" s="11">
+      <c r="J138" s="12">
         <v>21940005</v>
       </c>
-      <c r="K138" s="11">
+      <c r="K138" s="12">
         <v>57</v>
       </c>
-      <c r="L138" s="11" t="s">
+      <c r="L138" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="M138" s="11">
+      <c r="M138" s="12">
         <v>250</v>
       </c>
-      <c r="N138" s="11">
+      <c r="N138" s="12">
         <v>21210101</v>
       </c>
-      <c r="O138" s="11">
-        <v>10</v>
-      </c>
-      <c r="P138" s="11">
+      <c r="O138" s="12">
+        <v>10</v>
+      </c>
+      <c r="P138" s="12">
         <v>9999</v>
       </c>
-      <c r="Q138" s="11">
+      <c r="Q138" s="12">
         <v>9999999999</v>
       </c>
-      <c r="R138" s="11" t="s">
+      <c r="R138" s="12" t="s">
         <v>369</v>
       </c>
-      <c r="S138" s="11">
+      <c r="S138" s="12">
         <v>3002718</v>
       </c>
-      <c r="T138" s="11">
+      <c r="T138" s="12">
         <v>2401010090</v>
       </c>
-      <c r="U138" s="11" t="s">
+      <c r="U138" s="12" t="s">
         <v>392</v>
       </c>
-      <c r="V138" s="11">
+      <c r="V138" s="12">
         <v>2018</v>
       </c>
-      <c r="X138" s="11" t="s">
+      <c r="X138" s="12" t="s">
         <v>406</v>
       </c>
-      <c r="Y138" s="12">
+      <c r="Y138" s="13">
         <f>SUMAR.SI.CONJUNTO(Egresos_SIGEP!B:B,Egresos_SIGEP!A:A,Pagos_SAP!A138,Egresos_SIGEP!G:G,Pagos_SAP!G:G)</f>
         <v>0</v>
       </c>
-      <c r="Z138" s="12">
+      <c r="Z138" s="13">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Pagos_SAP!A138,Pagos_SAP!G:G,Pagos_SAP!G:G)-Y138</f>
         <v>0</v>
       </c>
-      <c r="AA138" s="12">
+      <c r="AA138" s="13">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Pagos_SAP!A138,Pagos_SAP!G:G,Pagos_SAP!G:G)*24.023%</f>
         <v>0</v>
       </c>
-      <c r="AB138" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:28" s="11" customFormat="1">
-      <c r="A139" s="11">
+      <c r="AB138" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:28" s="12" customFormat="1">
+      <c r="A139" s="12">
         <v>4500063026</v>
       </c>
-      <c r="B139" s="12">
+      <c r="B139" s="13">
         <v>12081</v>
       </c>
-      <c r="C139" s="11">
+      <c r="C139" s="12">
         <v>3900152231</v>
       </c>
-      <c r="D139" s="11">
+      <c r="D139" s="12">
         <v>17</v>
       </c>
-      <c r="E139" s="11" t="s">
+      <c r="E139" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="F139" s="11" t="s">
+      <c r="F139" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="G139" s="11">
-        <v>10</v>
-      </c>
-      <c r="H139" s="11">
+      <c r="G139" s="12">
+        <v>10</v>
+      </c>
+      <c r="H139" s="12">
         <v>7100266739</v>
       </c>
-      <c r="I139" s="11">
+      <c r="I139" s="12">
         <v>150</v>
       </c>
-      <c r="J139" s="11">
+      <c r="J139" s="12">
         <v>21940005</v>
       </c>
-      <c r="K139" s="11">
+      <c r="K139" s="12">
         <v>57</v>
       </c>
-      <c r="L139" s="11" t="s">
+      <c r="L139" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="M139" s="11">
+      <c r="M139" s="12">
         <v>250</v>
       </c>
-      <c r="N139" s="11">
+      <c r="N139" s="12">
         <v>21210101</v>
       </c>
-      <c r="O139" s="11">
-        <v>10</v>
-      </c>
-      <c r="P139" s="11">
+      <c r="O139" s="12">
+        <v>10</v>
+      </c>
+      <c r="P139" s="12">
         <v>9999</v>
       </c>
-      <c r="Q139" s="11">
+      <c r="Q139" s="12">
         <v>9999999999</v>
       </c>
-      <c r="R139" s="11" t="s">
+      <c r="R139" s="12" t="s">
         <v>369</v>
       </c>
-      <c r="S139" s="11">
+      <c r="S139" s="12">
         <v>3002718</v>
       </c>
-      <c r="T139" s="11">
+      <c r="T139" s="12">
         <v>2401010090</v>
       </c>
-      <c r="U139" s="11" t="s">
+      <c r="U139" s="12" t="s">
         <v>392</v>
       </c>
-      <c r="V139" s="11">
+      <c r="V139" s="12">
         <v>2018</v>
       </c>
-      <c r="X139" s="11" t="s">
+      <c r="X139" s="12" t="s">
         <v>406</v>
       </c>
-      <c r="Y139" s="12">
+      <c r="Y139" s="13">
         <f>SUMAR.SI.CONJUNTO(Egresos_SIGEP!B:B,Egresos_SIGEP!A:A,Pagos_SAP!A139,Egresos_SIGEP!G:G,Pagos_SAP!G:G)</f>
         <v>0</v>
       </c>
-      <c r="Z139" s="12">
+      <c r="Z139" s="13">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Pagos_SAP!A139,Pagos_SAP!G:G,Pagos_SAP!G:G)-Y139</f>
         <v>0</v>
       </c>
-      <c r="AA139" s="12">
+      <c r="AA139" s="13">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Pagos_SAP!A139,Pagos_SAP!G:G,Pagos_SAP!G:G)*24.023%</f>
         <v>0</v>
       </c>
-      <c r="AB139" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:28" s="11" customFormat="1">
-      <c r="A140" s="11">
+      <c r="AB139" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:28" s="12" customFormat="1">
+      <c r="A140" s="12">
         <v>4500063026</v>
       </c>
-      <c r="B140" s="12">
+      <c r="B140" s="13">
         <v>1631</v>
       </c>
-      <c r="C140" s="11">
+      <c r="C140" s="12">
         <v>3900152231</v>
       </c>
-      <c r="D140" s="11">
+      <c r="D140" s="12">
         <v>18</v>
       </c>
-      <c r="E140" s="11" t="s">
+      <c r="E140" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="F140" s="11" t="s">
+      <c r="F140" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="G140" s="11">
-        <v>10</v>
-      </c>
-      <c r="H140" s="11">
+      <c r="G140" s="12">
+        <v>10</v>
+      </c>
+      <c r="H140" s="12">
         <v>7100266739</v>
       </c>
-      <c r="I140" s="11">
+      <c r="I140" s="12">
         <v>160</v>
       </c>
-      <c r="J140" s="11">
+      <c r="J140" s="12">
         <v>21940005</v>
       </c>
-      <c r="K140" s="11">
+      <c r="K140" s="12">
         <v>57</v>
       </c>
-      <c r="L140" s="11" t="s">
+      <c r="L140" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="M140" s="11">
+      <c r="M140" s="12">
         <v>250</v>
       </c>
-      <c r="N140" s="11">
+      <c r="N140" s="12">
         <v>21210101</v>
       </c>
-      <c r="O140" s="11">
-        <v>10</v>
-      </c>
-      <c r="P140" s="11">
+      <c r="O140" s="12">
+        <v>10</v>
+      </c>
+      <c r="P140" s="12">
         <v>9999</v>
       </c>
-      <c r="Q140" s="11">
+      <c r="Q140" s="12">
         <v>9999999999</v>
       </c>
-      <c r="R140" s="11" t="s">
+      <c r="R140" s="12" t="s">
         <v>369</v>
       </c>
-      <c r="S140" s="11">
+      <c r="S140" s="12">
         <v>3002718</v>
       </c>
-      <c r="T140" s="11">
+      <c r="T140" s="12">
         <v>2401010090</v>
       </c>
-      <c r="U140" s="11" t="s">
+      <c r="U140" s="12" t="s">
         <v>392</v>
       </c>
-      <c r="V140" s="11">
+      <c r="V140" s="12">
         <v>2018</v>
       </c>
-      <c r="X140" s="11" t="s">
+      <c r="X140" s="12" t="s">
         <v>406</v>
       </c>
-      <c r="Y140" s="12">
+      <c r="Y140" s="13">
         <f>SUMAR.SI.CONJUNTO(Egresos_SIGEP!B:B,Egresos_SIGEP!A:A,Pagos_SAP!A140,Egresos_SIGEP!G:G,Pagos_SAP!G:G)</f>
         <v>0</v>
       </c>
-      <c r="Z140" s="12">
+      <c r="Z140" s="13">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Pagos_SAP!A140,Pagos_SAP!G:G,Pagos_SAP!G:G)-Y140</f>
         <v>0</v>
       </c>
-      <c r="AA140" s="12">
+      <c r="AA140" s="13">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Pagos_SAP!A140,Pagos_SAP!G:G,Pagos_SAP!G:G)*24.023%</f>
         <v>0</v>
       </c>
-      <c r="AB140" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:28" s="11" customFormat="1">
-      <c r="A141" s="11">
+      <c r="AB140" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:28" s="12" customFormat="1">
+      <c r="A141" s="12">
         <v>4500063026</v>
       </c>
-      <c r="B141" s="12">
+      <c r="B141" s="13">
         <v>2749</v>
       </c>
-      <c r="C141" s="11">
+      <c r="C141" s="12">
         <v>3900152231</v>
       </c>
-      <c r="D141" s="11">
+      <c r="D141" s="12">
         <v>19</v>
       </c>
-      <c r="E141" s="11" t="s">
+      <c r="E141" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="F141" s="11" t="s">
+      <c r="F141" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="G141" s="11">
-        <v>10</v>
-      </c>
-      <c r="H141" s="11">
+      <c r="G141" s="12">
+        <v>10</v>
+      </c>
+      <c r="H141" s="12">
         <v>7100266739</v>
       </c>
-      <c r="I141" s="11">
+      <c r="I141" s="12">
         <v>170</v>
       </c>
-      <c r="J141" s="11">
+      <c r="J141" s="12">
         <v>21940005</v>
       </c>
-      <c r="K141" s="11">
+      <c r="K141" s="12">
         <v>57</v>
       </c>
-      <c r="L141" s="11" t="s">
+      <c r="L141" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="M141" s="11">
+      <c r="M141" s="12">
         <v>250</v>
       </c>
-      <c r="N141" s="11">
+      <c r="N141" s="12">
         <v>21210101</v>
       </c>
-      <c r="O141" s="11">
-        <v>10</v>
-      </c>
-      <c r="P141" s="11">
+      <c r="O141" s="12">
+        <v>10</v>
+      </c>
+      <c r="P141" s="12">
         <v>9999</v>
       </c>
-      <c r="Q141" s="11">
+      <c r="Q141" s="12">
         <v>9999999999</v>
       </c>
-      <c r="R141" s="11" t="s">
+      <c r="R141" s="12" t="s">
         <v>369</v>
       </c>
-      <c r="S141" s="11">
+      <c r="S141" s="12">
         <v>3002718</v>
       </c>
-      <c r="T141" s="11">
+      <c r="T141" s="12">
         <v>2401010090</v>
       </c>
-      <c r="U141" s="11" t="s">
+      <c r="U141" s="12" t="s">
         <v>392</v>
       </c>
-      <c r="V141" s="11">
+      <c r="V141" s="12">
         <v>2018</v>
       </c>
-      <c r="X141" s="11" t="s">
+      <c r="X141" s="12" t="s">
         <v>406</v>
       </c>
-      <c r="Y141" s="12">
+      <c r="Y141" s="13">
         <f>SUMAR.SI.CONJUNTO(Egresos_SIGEP!B:B,Egresos_SIGEP!A:A,Pagos_SAP!A141,Egresos_SIGEP!G:G,Pagos_SAP!G:G)</f>
         <v>0</v>
       </c>
-      <c r="Z141" s="12">
+      <c r="Z141" s="13">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Pagos_SAP!A141,Pagos_SAP!G:G,Pagos_SAP!G:G)-Y141</f>
         <v>0</v>
       </c>
-      <c r="AA141" s="12">
+      <c r="AA141" s="13">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Pagos_SAP!A141,Pagos_SAP!G:G,Pagos_SAP!G:G)*24.023%</f>
         <v>0</v>
       </c>
-      <c r="AB141" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:28" s="11" customFormat="1">
-      <c r="A142" s="11">
+      <c r="AB141" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:28" s="12" customFormat="1">
+      <c r="A142" s="12">
         <v>4500063026</v>
       </c>
-      <c r="B142" s="12">
+      <c r="B142" s="13">
         <v>2749</v>
       </c>
-      <c r="C142" s="11">
+      <c r="C142" s="12">
         <v>3900152231</v>
       </c>
-      <c r="D142" s="11">
+      <c r="D142" s="12">
         <v>20</v>
       </c>
-      <c r="E142" s="11" t="s">
+      <c r="E142" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="F142" s="11" t="s">
+      <c r="F142" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="G142" s="11">
-        <v>10</v>
-      </c>
-      <c r="H142" s="11">
+      <c r="G142" s="12">
+        <v>10</v>
+      </c>
+      <c r="H142" s="12">
         <v>7100266739</v>
       </c>
-      <c r="I142" s="11">
+      <c r="I142" s="12">
         <v>180</v>
       </c>
-      <c r="J142" s="11">
+      <c r="J142" s="12">
         <v>21940005</v>
       </c>
-      <c r="K142" s="11">
+      <c r="K142" s="12">
         <v>57</v>
       </c>
-      <c r="L142" s="11" t="s">
+      <c r="L142" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="M142" s="11">
+      <c r="M142" s="12">
         <v>250</v>
       </c>
-      <c r="N142" s="11">
+      <c r="N142" s="12">
         <v>21210101</v>
       </c>
-      <c r="O142" s="11">
-        <v>10</v>
-      </c>
-      <c r="P142" s="11">
+      <c r="O142" s="12">
+        <v>10</v>
+      </c>
+      <c r="P142" s="12">
         <v>9999</v>
       </c>
-      <c r="Q142" s="11">
+      <c r="Q142" s="12">
         <v>9999999999</v>
       </c>
-      <c r="R142" s="11" t="s">
+      <c r="R142" s="12" t="s">
         <v>369</v>
       </c>
-      <c r="S142" s="11">
+      <c r="S142" s="12">
         <v>3002718</v>
       </c>
-      <c r="T142" s="11">
+      <c r="T142" s="12">
         <v>2401010090</v>
       </c>
-      <c r="U142" s="11" t="s">
+      <c r="U142" s="12" t="s">
         <v>392</v>
       </c>
-      <c r="V142" s="11">
+      <c r="V142" s="12">
         <v>2018</v>
       </c>
-      <c r="X142" s="11" t="s">
+      <c r="X142" s="12" t="s">
         <v>406</v>
       </c>
-      <c r="Y142" s="12">
+      <c r="Y142" s="13">
         <f>SUMAR.SI.CONJUNTO(Egresos_SIGEP!B:B,Egresos_SIGEP!A:A,Pagos_SAP!A142,Egresos_SIGEP!G:G,Pagos_SAP!G:G)</f>
         <v>0</v>
       </c>
-      <c r="Z142" s="12">
+      <c r="Z142" s="13">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Pagos_SAP!A142,Pagos_SAP!G:G,Pagos_SAP!G:G)-Y142</f>
         <v>0</v>
       </c>
-      <c r="AA142" s="12">
+      <c r="AA142" s="13">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Pagos_SAP!A142,Pagos_SAP!G:G,Pagos_SAP!G:G)*24.023%</f>
         <v>0</v>
       </c>
-      <c r="AB142" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:28" s="11" customFormat="1">
-      <c r="A143" s="11">
+      <c r="AB142" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:28" s="12" customFormat="1">
+      <c r="A143" s="12">
         <v>4500063026</v>
       </c>
-      <c r="B143" s="12">
+      <c r="B143" s="13">
         <v>30241</v>
       </c>
-      <c r="C143" s="11">
+      <c r="C143" s="12">
         <v>3900152231</v>
       </c>
-      <c r="D143" s="11">
+      <c r="D143" s="12">
         <v>21</v>
       </c>
-      <c r="E143" s="11" t="s">
+      <c r="E143" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="F143" s="11" t="s">
+      <c r="F143" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="G143" s="11">
-        <v>10</v>
-      </c>
-      <c r="H143" s="11">
+      <c r="G143" s="12">
+        <v>10</v>
+      </c>
+      <c r="H143" s="12">
         <v>7100266739</v>
       </c>
-      <c r="I143" s="11">
+      <c r="I143" s="12">
         <v>190</v>
       </c>
-      <c r="J143" s="11">
+      <c r="J143" s="12">
         <v>21940005</v>
       </c>
-      <c r="K143" s="11">
+      <c r="K143" s="12">
         <v>57</v>
       </c>
-      <c r="L143" s="11" t="s">
+      <c r="L143" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="M143" s="11">
+      <c r="M143" s="12">
         <v>250</v>
       </c>
-      <c r="N143" s="11">
+      <c r="N143" s="12">
         <v>21210101</v>
       </c>
-      <c r="O143" s="11">
-        <v>10</v>
-      </c>
-      <c r="P143" s="11">
+      <c r="O143" s="12">
+        <v>10</v>
+      </c>
+      <c r="P143" s="12">
         <v>9999</v>
       </c>
-      <c r="Q143" s="11">
+      <c r="Q143" s="12">
         <v>9999999999</v>
       </c>
-      <c r="R143" s="11" t="s">
+      <c r="R143" s="12" t="s">
         <v>369</v>
       </c>
-      <c r="S143" s="11">
+      <c r="S143" s="12">
         <v>3002718</v>
       </c>
-      <c r="T143" s="11">
+      <c r="T143" s="12">
         <v>2401010090</v>
       </c>
-      <c r="U143" s="11" t="s">
+      <c r="U143" s="12" t="s">
         <v>392</v>
       </c>
-      <c r="V143" s="11">
+      <c r="V143" s="12">
         <v>2018</v>
       </c>
-      <c r="X143" s="11" t="s">
+      <c r="X143" s="12" t="s">
         <v>406</v>
       </c>
-      <c r="Y143" s="12">
+      <c r="Y143" s="13">
         <f>SUMAR.SI.CONJUNTO(Egresos_SIGEP!B:B,Egresos_SIGEP!A:A,Pagos_SAP!A143,Egresos_SIGEP!G:G,Pagos_SAP!G:G)</f>
         <v>0</v>
       </c>
-      <c r="Z143" s="12">
+      <c r="Z143" s="13">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Pagos_SAP!A143,Pagos_SAP!G:G,Pagos_SAP!G:G)-Y143</f>
         <v>0</v>
       </c>
-      <c r="AA143" s="12">
+      <c r="AA143" s="13">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Pagos_SAP!A143,Pagos_SAP!G:G,Pagos_SAP!G:G)*24.023%</f>
         <v>0</v>
       </c>
-      <c r="AB143" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:28" s="11" customFormat="1">
-      <c r="A144" s="11">
+      <c r="AB143" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:28" s="12" customFormat="1">
+      <c r="A144" s="12">
         <v>4500063026</v>
       </c>
-      <c r="B144" s="12">
+      <c r="B144" s="13">
         <v>3502</v>
       </c>
-      <c r="C144" s="11">
+      <c r="C144" s="12">
         <v>3900152231</v>
       </c>
-      <c r="D144" s="11">
+      <c r="D144" s="12">
         <v>22</v>
       </c>
-      <c r="E144" s="11" t="s">
+      <c r="E144" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="F144" s="11" t="s">
+      <c r="F144" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="G144" s="11">
-        <v>10</v>
-      </c>
-      <c r="H144" s="11">
+      <c r="G144" s="12">
+        <v>10</v>
+      </c>
+      <c r="H144" s="12">
         <v>7100266739</v>
       </c>
-      <c r="I144" s="11">
+      <c r="I144" s="12">
         <v>200</v>
       </c>
-      <c r="J144" s="11">
+      <c r="J144" s="12">
         <v>21940005</v>
       </c>
-      <c r="K144" s="11">
+      <c r="K144" s="12">
         <v>57</v>
       </c>
-      <c r="L144" s="11" t="s">
+      <c r="L144" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="M144" s="11">
+      <c r="M144" s="12">
         <v>250</v>
       </c>
-      <c r="N144" s="11">
+      <c r="N144" s="12">
         <v>21210101</v>
       </c>
-      <c r="O144" s="11">
-        <v>10</v>
-      </c>
-      <c r="P144" s="11">
+      <c r="O144" s="12">
+        <v>10</v>
+      </c>
+      <c r="P144" s="12">
         <v>9999</v>
       </c>
-      <c r="Q144" s="11">
+      <c r="Q144" s="12">
         <v>9999999999</v>
       </c>
-      <c r="R144" s="11" t="s">
+      <c r="R144" s="12" t="s">
         <v>369</v>
       </c>
-      <c r="S144" s="11">
+      <c r="S144" s="12">
         <v>3002718</v>
       </c>
-      <c r="T144" s="11">
+      <c r="T144" s="12">
         <v>2401010090</v>
       </c>
-      <c r="U144" s="11" t="s">
+      <c r="U144" s="12" t="s">
         <v>392</v>
       </c>
-      <c r="V144" s="11">
+      <c r="V144" s="12">
         <v>2018</v>
       </c>
-      <c r="X144" s="11" t="s">
+      <c r="X144" s="12" t="s">
         <v>406</v>
       </c>
-      <c r="Y144" s="12">
+      <c r="Y144" s="13">
         <f>SUMAR.SI.CONJUNTO(Egresos_SIGEP!B:B,Egresos_SIGEP!A:A,Pagos_SAP!A144,Egresos_SIGEP!G:G,Pagos_SAP!G:G)</f>
         <v>0</v>
       </c>
-      <c r="Z144" s="12">
+      <c r="Z144" s="13">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Pagos_SAP!A144,Pagos_SAP!G:G,Pagos_SAP!G:G)-Y144</f>
         <v>0</v>
       </c>
-      <c r="AA144" s="12">
+      <c r="AA144" s="13">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Pagos_SAP!A144,Pagos_SAP!G:G,Pagos_SAP!G:G)*24.023%</f>
         <v>0</v>
       </c>
-      <c r="AB144" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:28" s="11" customFormat="1">
-      <c r="A145" s="11">
+      <c r="AB144" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:28" s="12" customFormat="1">
+      <c r="A145" s="12">
         <v>4500063026</v>
       </c>
-      <c r="B145" s="12">
+      <c r="B145" s="13">
         <v>3798</v>
       </c>
-      <c r="C145" s="11">
+      <c r="C145" s="12">
         <v>3900152231</v>
       </c>
-      <c r="D145" s="11">
+      <c r="D145" s="12">
         <v>23</v>
       </c>
-      <c r="E145" s="11" t="s">
+      <c r="E145" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="F145" s="11" t="s">
+      <c r="F145" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="G145" s="11">
-        <v>10</v>
-      </c>
-      <c r="H145" s="11">
+      <c r="G145" s="12">
+        <v>10</v>
+      </c>
+      <c r="H145" s="12">
         <v>7100266739</v>
       </c>
-      <c r="I145" s="11">
+      <c r="I145" s="12">
         <v>210</v>
       </c>
-      <c r="J145" s="11">
+      <c r="J145" s="12">
         <v>21940005</v>
       </c>
-      <c r="K145" s="11">
+      <c r="K145" s="12">
         <v>57</v>
       </c>
-      <c r="L145" s="11" t="s">
+      <c r="L145" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="M145" s="11">
+      <c r="M145" s="12">
         <v>250</v>
       </c>
-      <c r="N145" s="11">
+      <c r="N145" s="12">
         <v>21210101</v>
       </c>
-      <c r="O145" s="11">
-        <v>10</v>
-      </c>
-      <c r="P145" s="11">
+      <c r="O145" s="12">
+        <v>10</v>
+      </c>
+      <c r="P145" s="12">
         <v>9999</v>
       </c>
-      <c r="Q145" s="11">
+      <c r="Q145" s="12">
         <v>9999999999</v>
       </c>
-      <c r="R145" s="11" t="s">
+      <c r="R145" s="12" t="s">
         <v>369</v>
       </c>
-      <c r="S145" s="11">
+      <c r="S145" s="12">
         <v>3002718</v>
       </c>
-      <c r="T145" s="11">
+      <c r="T145" s="12">
         <v>2401010090</v>
       </c>
-      <c r="U145" s="11" t="s">
+      <c r="U145" s="12" t="s">
         <v>392</v>
       </c>
-      <c r="V145" s="11">
+      <c r="V145" s="12">
         <v>2018</v>
       </c>
-      <c r="X145" s="11" t="s">
+      <c r="X145" s="12" t="s">
         <v>406</v>
       </c>
-      <c r="Y145" s="12">
+      <c r="Y145" s="13">
         <f>SUMAR.SI.CONJUNTO(Egresos_SIGEP!B:B,Egresos_SIGEP!A:A,Pagos_SAP!A145,Egresos_SIGEP!G:G,Pagos_SAP!G:G)</f>
         <v>0</v>
       </c>
-      <c r="Z145" s="12">
+      <c r="Z145" s="13">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Pagos_SAP!A145,Pagos_SAP!G:G,Pagos_SAP!G:G)-Y145</f>
         <v>0</v>
       </c>
-      <c r="AA145" s="12">
+      <c r="AA145" s="13">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Pagos_SAP!A145,Pagos_SAP!G:G,Pagos_SAP!G:G)*24.023%</f>
         <v>0</v>
       </c>
-      <c r="AB145" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:28" s="11" customFormat="1">
-      <c r="A146" s="11">
+      <c r="AB145" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:28" s="12" customFormat="1">
+      <c r="A146" s="12">
         <v>4500063026</v>
       </c>
-      <c r="B146" s="12">
+      <c r="B146" s="13">
         <v>2532</v>
       </c>
-      <c r="C146" s="11">
+      <c r="C146" s="12">
         <v>3900152231</v>
       </c>
-      <c r="D146" s="11">
+      <c r="D146" s="12">
         <v>24</v>
       </c>
-      <c r="E146" s="11" t="s">
+      <c r="E146" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="F146" s="11" t="s">
+      <c r="F146" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="G146" s="11">
-        <v>10</v>
-      </c>
-      <c r="H146" s="11">
+      <c r="G146" s="12">
+        <v>10</v>
+      </c>
+      <c r="H146" s="12">
         <v>7100266739</v>
       </c>
-      <c r="I146" s="11">
+      <c r="I146" s="12">
         <v>220</v>
       </c>
-      <c r="J146" s="11">
+      <c r="J146" s="12">
         <v>21940005</v>
       </c>
-      <c r="K146" s="11">
+      <c r="K146" s="12">
         <v>57</v>
       </c>
-      <c r="L146" s="11" t="s">
+      <c r="L146" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="M146" s="11">
+      <c r="M146" s="12">
         <v>250</v>
       </c>
-      <c r="N146" s="11">
+      <c r="N146" s="12">
         <v>21210101</v>
       </c>
-      <c r="O146" s="11">
-        <v>10</v>
-      </c>
-      <c r="P146" s="11">
+      <c r="O146" s="12">
+        <v>10</v>
+      </c>
+      <c r="P146" s="12">
         <v>9999</v>
       </c>
-      <c r="Q146" s="11">
+      <c r="Q146" s="12">
         <v>9999999999</v>
       </c>
-      <c r="R146" s="11" t="s">
+      <c r="R146" s="12" t="s">
         <v>369</v>
       </c>
-      <c r="S146" s="11">
+      <c r="S146" s="12">
         <v>3002718</v>
       </c>
-      <c r="T146" s="11">
+      <c r="T146" s="12">
         <v>2401010090</v>
       </c>
-      <c r="U146" s="11" t="s">
+      <c r="U146" s="12" t="s">
         <v>392</v>
       </c>
-      <c r="V146" s="11">
+      <c r="V146" s="12">
         <v>2018</v>
       </c>
-      <c r="X146" s="11" t="s">
+      <c r="X146" s="12" t="s">
         <v>406</v>
       </c>
-      <c r="Y146" s="12">
+      <c r="Y146" s="13">
         <f>SUMAR.SI.CONJUNTO(Egresos_SIGEP!B:B,Egresos_SIGEP!A:A,Pagos_SAP!A146,Egresos_SIGEP!G:G,Pagos_SAP!G:G)</f>
         <v>0</v>
       </c>
-      <c r="Z146" s="12">
+      <c r="Z146" s="13">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Pagos_SAP!A146,Pagos_SAP!G:G,Pagos_SAP!G:G)-Y146</f>
         <v>0</v>
       </c>
-      <c r="AA146" s="12">
+      <c r="AA146" s="13">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Pagos_SAP!A146,Pagos_SAP!G:G,Pagos_SAP!G:G)*24.023%</f>
         <v>0</v>
       </c>
-      <c r="AB146" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:28" s="11" customFormat="1">
-      <c r="A147" s="11">
+      <c r="AB146" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:28" s="12" customFormat="1">
+      <c r="A147" s="12">
         <v>4500063026</v>
       </c>
-      <c r="B147" s="12">
+      <c r="B147" s="13">
         <v>3798</v>
       </c>
-      <c r="C147" s="11">
+      <c r="C147" s="12">
         <v>3900152231</v>
       </c>
-      <c r="D147" s="11">
+      <c r="D147" s="12">
         <v>25</v>
       </c>
-      <c r="E147" s="11" t="s">
+      <c r="E147" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="F147" s="11" t="s">
+      <c r="F147" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="G147" s="11">
-        <v>10</v>
-      </c>
-      <c r="H147" s="11">
+      <c r="G147" s="12">
+        <v>10</v>
+      </c>
+      <c r="H147" s="12">
         <v>7100266739</v>
       </c>
-      <c r="I147" s="11">
+      <c r="I147" s="12">
         <v>240</v>
       </c>
-      <c r="J147" s="11">
+      <c r="J147" s="12">
         <v>21940005</v>
       </c>
-      <c r="K147" s="11">
+      <c r="K147" s="12">
         <v>57</v>
       </c>
-      <c r="L147" s="11" t="s">
+      <c r="L147" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="M147" s="11">
+      <c r="M147" s="12">
         <v>250</v>
       </c>
-      <c r="N147" s="11">
+      <c r="N147" s="12">
         <v>21210101</v>
       </c>
-      <c r="O147" s="11">
-        <v>10</v>
-      </c>
-      <c r="P147" s="11">
+      <c r="O147" s="12">
+        <v>10</v>
+      </c>
+      <c r="P147" s="12">
         <v>9999</v>
       </c>
-      <c r="Q147" s="11">
+      <c r="Q147" s="12">
         <v>9999999999</v>
       </c>
-      <c r="R147" s="11" t="s">
+      <c r="R147" s="12" t="s">
         <v>369</v>
       </c>
-      <c r="S147" s="11">
+      <c r="S147" s="12">
         <v>3002718</v>
       </c>
-      <c r="T147" s="11">
+      <c r="T147" s="12">
         <v>2401010090</v>
       </c>
-      <c r="U147" s="11" t="s">
+      <c r="U147" s="12" t="s">
         <v>392</v>
       </c>
-      <c r="V147" s="11">
+      <c r="V147" s="12">
         <v>2018</v>
       </c>
-      <c r="X147" s="11" t="s">
+      <c r="X147" s="12" t="s">
         <v>406</v>
       </c>
-      <c r="Y147" s="12">
+      <c r="Y147" s="13">
         <f>SUMAR.SI.CONJUNTO(Egresos_SIGEP!B:B,Egresos_SIGEP!A:A,Pagos_SAP!A147,Egresos_SIGEP!G:G,Pagos_SAP!G:G)</f>
         <v>0</v>
       </c>
-      <c r="Z147" s="12">
+      <c r="Z147" s="13">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Pagos_SAP!A147,Pagos_SAP!G:G,Pagos_SAP!G:G)-Y147</f>
         <v>0</v>
       </c>
-      <c r="AA147" s="12">
+      <c r="AA147" s="13">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Pagos_SAP!A147,Pagos_SAP!G:G,Pagos_SAP!G:G)*24.023%</f>
         <v>0</v>
       </c>
-      <c r="AB147" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:28" s="11" customFormat="1">
-      <c r="A148" s="11">
+      <c r="AB147" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:28" s="12" customFormat="1">
+      <c r="A148" s="12">
         <v>4500063026</v>
       </c>
-      <c r="B148" s="12">
+      <c r="B148" s="13">
         <v>4517</v>
       </c>
-      <c r="C148" s="11">
+      <c r="C148" s="12">
         <v>3900152231</v>
       </c>
-      <c r="D148" s="11">
+      <c r="D148" s="12">
         <v>26</v>
       </c>
-      <c r="E148" s="11" t="s">
+      <c r="E148" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="F148" s="11" t="s">
+      <c r="F148" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="G148" s="11">
-        <v>10</v>
-      </c>
-      <c r="H148" s="11">
+      <c r="G148" s="12">
+        <v>10</v>
+      </c>
+      <c r="H148" s="12">
         <v>7100266739</v>
       </c>
-      <c r="I148" s="11">
+      <c r="I148" s="12">
         <v>250</v>
       </c>
-      <c r="J148" s="11">
+      <c r="J148" s="12">
         <v>21940005</v>
       </c>
-      <c r="K148" s="11">
+      <c r="K148" s="12">
         <v>57</v>
       </c>
-      <c r="L148" s="11" t="s">
+      <c r="L148" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="M148" s="11">
+      <c r="M148" s="12">
         <v>250</v>
       </c>
-      <c r="N148" s="11">
+      <c r="N148" s="12">
         <v>21210101</v>
       </c>
-      <c r="O148" s="11">
-        <v>10</v>
-      </c>
-      <c r="P148" s="11">
+      <c r="O148" s="12">
+        <v>10</v>
+      </c>
+      <c r="P148" s="12">
         <v>9999</v>
       </c>
-      <c r="Q148" s="11">
+      <c r="Q148" s="12">
         <v>9999999999</v>
       </c>
-      <c r="R148" s="11" t="s">
+      <c r="R148" s="12" t="s">
         <v>369</v>
       </c>
-      <c r="S148" s="11">
+      <c r="S148" s="12">
         <v>3002718</v>
       </c>
-      <c r="T148" s="11">
+      <c r="T148" s="12">
         <v>2401010090</v>
       </c>
-      <c r="U148" s="11" t="s">
+      <c r="U148" s="12" t="s">
         <v>392</v>
       </c>
-      <c r="V148" s="11">
+      <c r="V148" s="12">
         <v>2018</v>
       </c>
-      <c r="X148" s="11" t="s">
+      <c r="X148" s="12" t="s">
         <v>406</v>
       </c>
-      <c r="Y148" s="12">
+      <c r="Y148" s="13">
         <f>SUMAR.SI.CONJUNTO(Egresos_SIGEP!B:B,Egresos_SIGEP!A:A,Pagos_SAP!A148,Egresos_SIGEP!G:G,Pagos_SAP!G:G)</f>
         <v>0</v>
       </c>
-      <c r="Z148" s="12">
+      <c r="Z148" s="13">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Pagos_SAP!A148,Pagos_SAP!G:G,Pagos_SAP!G:G)-Y148</f>
         <v>0</v>
       </c>
-      <c r="AA148" s="12">
+      <c r="AA148" s="13">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Pagos_SAP!A148,Pagos_SAP!G:G,Pagos_SAP!G:G)*24.023%</f>
         <v>0</v>
       </c>
-      <c r="AB148" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:28" s="11" customFormat="1">
-      <c r="A149" s="11">
+      <c r="AB148" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:28" s="12" customFormat="1">
+      <c r="A149" s="12">
         <v>4500063026</v>
       </c>
-      <c r="B149" s="12">
+      <c r="B149" s="13">
         <v>3388</v>
       </c>
-      <c r="C149" s="11">
+      <c r="C149" s="12">
         <v>3900152231</v>
       </c>
-      <c r="D149" s="11">
+      <c r="D149" s="12">
         <v>27</v>
       </c>
-      <c r="E149" s="11" t="s">
+      <c r="E149" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="F149" s="11" t="s">
+      <c r="F149" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="G149" s="11">
-        <v>10</v>
-      </c>
-      <c r="H149" s="11">
+      <c r="G149" s="12">
+        <v>10</v>
+      </c>
+      <c r="H149" s="12">
         <v>7100266739</v>
       </c>
-      <c r="I149" s="11">
+      <c r="I149" s="12">
         <v>260</v>
       </c>
-      <c r="J149" s="11">
+      <c r="J149" s="12">
         <v>21940005</v>
       </c>
-      <c r="K149" s="11">
+      <c r="K149" s="12">
         <v>57</v>
       </c>
-      <c r="L149" s="11" t="s">
+      <c r="L149" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="M149" s="11">
+      <c r="M149" s="12">
         <v>250</v>
       </c>
-      <c r="N149" s="11">
+      <c r="N149" s="12">
         <v>21210101</v>
       </c>
-      <c r="O149" s="11">
-        <v>10</v>
-      </c>
-      <c r="P149" s="11">
+      <c r="O149" s="12">
+        <v>10</v>
+      </c>
+      <c r="P149" s="12">
         <v>9999</v>
       </c>
-      <c r="Q149" s="11">
+      <c r="Q149" s="12">
         <v>9999999999</v>
       </c>
-      <c r="R149" s="11" t="s">
+      <c r="R149" s="12" t="s">
         <v>369</v>
       </c>
-      <c r="S149" s="11">
+      <c r="S149" s="12">
         <v>3002718</v>
       </c>
-      <c r="T149" s="11">
+      <c r="T149" s="12">
         <v>2401010090</v>
       </c>
-      <c r="U149" s="11" t="s">
+      <c r="U149" s="12" t="s">
         <v>392</v>
       </c>
-      <c r="V149" s="11">
+      <c r="V149" s="12">
         <v>2018</v>
       </c>
-      <c r="X149" s="11" t="s">
+      <c r="X149" s="12" t="s">
         <v>406</v>
       </c>
-      <c r="Y149" s="12">
+      <c r="Y149" s="13">
         <f>SUMAR.SI.CONJUNTO(Egresos_SIGEP!B:B,Egresos_SIGEP!A:A,Pagos_SAP!A149,Egresos_SIGEP!G:G,Pagos_SAP!G:G)</f>
         <v>0</v>
       </c>
-      <c r="Z149" s="12">
+      <c r="Z149" s="13">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Pagos_SAP!A149,Pagos_SAP!G:G,Pagos_SAP!G:G)-Y149</f>
         <v>0</v>
       </c>
-      <c r="AA149" s="12">
+      <c r="AA149" s="13">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Pagos_SAP!A149,Pagos_SAP!G:G,Pagos_SAP!G:G)*24.023%</f>
         <v>0</v>
       </c>
-      <c r="AB149" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:28" s="11" customFormat="1">
-      <c r="A150" s="11">
+      <c r="AB149" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:28" s="12" customFormat="1">
+      <c r="A150" s="12">
         <v>4500063026</v>
       </c>
-      <c r="B150" s="12">
+      <c r="B150" s="13">
         <v>3388</v>
       </c>
-      <c r="C150" s="11">
+      <c r="C150" s="12">
         <v>3900152231</v>
       </c>
-      <c r="D150" s="11">
+      <c r="D150" s="12">
         <v>28</v>
       </c>
-      <c r="E150" s="11" t="s">
+      <c r="E150" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="F150" s="11" t="s">
+      <c r="F150" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="G150" s="11">
-        <v>10</v>
-      </c>
-      <c r="H150" s="11">
+      <c r="G150" s="12">
+        <v>10</v>
+      </c>
+      <c r="H150" s="12">
         <v>7100266739</v>
       </c>
-      <c r="I150" s="11">
+      <c r="I150" s="12">
         <v>270</v>
       </c>
-      <c r="J150" s="11">
+      <c r="J150" s="12">
         <v>21940005</v>
       </c>
-      <c r="K150" s="11">
+      <c r="K150" s="12">
         <v>57</v>
       </c>
-      <c r="L150" s="11" t="s">
+      <c r="L150" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="M150" s="11">
+      <c r="M150" s="12">
         <v>250</v>
       </c>
-      <c r="N150" s="11">
+      <c r="N150" s="12">
         <v>21210101</v>
       </c>
-      <c r="O150" s="11">
-        <v>10</v>
-      </c>
-      <c r="P150" s="11">
+      <c r="O150" s="12">
+        <v>10</v>
+      </c>
+      <c r="P150" s="12">
         <v>9999</v>
       </c>
-      <c r="Q150" s="11">
+      <c r="Q150" s="12">
         <v>9999999999</v>
       </c>
-      <c r="R150" s="11" t="s">
+      <c r="R150" s="12" t="s">
         <v>369</v>
       </c>
-      <c r="S150" s="11">
+      <c r="S150" s="12">
         <v>3002718</v>
       </c>
-      <c r="T150" s="11">
+      <c r="T150" s="12">
         <v>2401010090</v>
       </c>
-      <c r="U150" s="11" t="s">
+      <c r="U150" s="12" t="s">
         <v>392</v>
       </c>
-      <c r="V150" s="11">
+      <c r="V150" s="12">
         <v>2018</v>
       </c>
-      <c r="X150" s="11" t="s">
+      <c r="X150" s="12" t="s">
         <v>406</v>
       </c>
-      <c r="Y150" s="12">
+      <c r="Y150" s="13">
         <f>SUMAR.SI.CONJUNTO(Egresos_SIGEP!B:B,Egresos_SIGEP!A:A,Pagos_SAP!A150,Egresos_SIGEP!G:G,Pagos_SAP!G:G)</f>
         <v>0</v>
       </c>
-      <c r="Z150" s="12">
+      <c r="Z150" s="13">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Pagos_SAP!A150,Pagos_SAP!G:G,Pagos_SAP!G:G)-Y150</f>
         <v>0</v>
       </c>
-      <c r="AA150" s="12">
+      <c r="AA150" s="13">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Pagos_SAP!A150,Pagos_SAP!G:G,Pagos_SAP!G:G)*24.023%</f>
         <v>0</v>
       </c>
-      <c r="AB150" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:28" s="11" customFormat="1">
-      <c r="A151" s="11">
+      <c r="AB150" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:28" s="12" customFormat="1">
+      <c r="A151" s="12">
         <v>4500063026</v>
       </c>
-      <c r="B151" s="12">
+      <c r="B151" s="13">
         <v>1125</v>
       </c>
-      <c r="C151" s="11">
+      <c r="C151" s="12">
         <v>3900152231</v>
       </c>
-      <c r="D151" s="11">
+      <c r="D151" s="12">
         <v>29</v>
       </c>
-      <c r="E151" s="11" t="s">
+      <c r="E151" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="F151" s="11" t="s">
+      <c r="F151" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="G151" s="11">
-        <v>10</v>
-      </c>
-      <c r="H151" s="11">
+      <c r="G151" s="12">
+        <v>10</v>
+      </c>
+      <c r="H151" s="12">
         <v>7100266739</v>
       </c>
-      <c r="I151" s="11">
+      <c r="I151" s="12">
         <v>280</v>
       </c>
-      <c r="J151" s="11">
+      <c r="J151" s="12">
         <v>21940005</v>
       </c>
-      <c r="K151" s="11">
+      <c r="K151" s="12">
         <v>57</v>
       </c>
-      <c r="L151" s="11" t="s">
+      <c r="L151" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="M151" s="11">
+      <c r="M151" s="12">
         <v>250</v>
       </c>
-      <c r="N151" s="11">
+      <c r="N151" s="12">
         <v>21210101</v>
       </c>
-      <c r="O151" s="11">
-        <v>10</v>
-      </c>
-      <c r="P151" s="11">
+      <c r="O151" s="12">
+        <v>10</v>
+      </c>
+      <c r="P151" s="12">
         <v>9999</v>
       </c>
-      <c r="Q151" s="11">
+      <c r="Q151" s="12">
         <v>9999999999</v>
       </c>
-      <c r="R151" s="11" t="s">
+      <c r="R151" s="12" t="s">
         <v>369</v>
       </c>
-      <c r="S151" s="11">
+      <c r="S151" s="12">
         <v>3002718</v>
       </c>
-      <c r="T151" s="11">
+      <c r="T151" s="12">
         <v>2401010090</v>
       </c>
-      <c r="U151" s="11" t="s">
+      <c r="U151" s="12" t="s">
         <v>392</v>
       </c>
-      <c r="V151" s="11">
+      <c r="V151" s="12">
         <v>2018</v>
       </c>
-      <c r="X151" s="11" t="s">
+      <c r="X151" s="12" t="s">
         <v>406</v>
       </c>
-      <c r="Y151" s="12">
+      <c r="Y151" s="13">
         <f>SUMAR.SI.CONJUNTO(Egresos_SIGEP!B:B,Egresos_SIGEP!A:A,Pagos_SAP!A151,Egresos_SIGEP!G:G,Pagos_SAP!G:G)</f>
         <v>0</v>
       </c>
-      <c r="Z151" s="12">
+      <c r="Z151" s="13">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Pagos_SAP!A151,Pagos_SAP!G:G,Pagos_SAP!G:G)-Y151</f>
         <v>0</v>
       </c>
-      <c r="AA151" s="12">
+      <c r="AA151" s="13">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Pagos_SAP!A151,Pagos_SAP!G:G,Pagos_SAP!G:G)*24.023%</f>
         <v>0</v>
       </c>
-      <c r="AB151" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:28" s="11" customFormat="1">
-      <c r="A152" s="11">
+      <c r="AB151" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:28" s="12" customFormat="1">
+      <c r="A152" s="12">
         <v>4500063026</v>
       </c>
-      <c r="B152" s="12">
+      <c r="B152" s="13">
         <v>1792</v>
       </c>
-      <c r="C152" s="11">
+      <c r="C152" s="12">
         <v>3900152231</v>
       </c>
-      <c r="D152" s="11">
+      <c r="D152" s="12">
         <v>30</v>
       </c>
-      <c r="E152" s="11" t="s">
+      <c r="E152" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="F152" s="11" t="s">
+      <c r="F152" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="G152" s="11">
-        <v>10</v>
-      </c>
-      <c r="H152" s="11">
+      <c r="G152" s="12">
+        <v>10</v>
+      </c>
+      <c r="H152" s="12">
         <v>7100266739</v>
       </c>
-      <c r="I152" s="11">
+      <c r="I152" s="12">
         <v>290</v>
       </c>
-      <c r="J152" s="11">
+      <c r="J152" s="12">
         <v>21940005</v>
       </c>
-      <c r="K152" s="11">
+      <c r="K152" s="12">
         <v>57</v>
       </c>
-      <c r="L152" s="11" t="s">
+      <c r="L152" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="M152" s="11">
+      <c r="M152" s="12">
         <v>250</v>
       </c>
-      <c r="N152" s="11">
+      <c r="N152" s="12">
         <v>21210101</v>
       </c>
-      <c r="O152" s="11">
-        <v>10</v>
-      </c>
-      <c r="P152" s="11">
+      <c r="O152" s="12">
+        <v>10</v>
+      </c>
+      <c r="P152" s="12">
         <v>9999</v>
       </c>
-      <c r="Q152" s="11">
+      <c r="Q152" s="12">
         <v>9999999999</v>
       </c>
-      <c r="R152" s="11" t="s">
+      <c r="R152" s="12" t="s">
         <v>369</v>
       </c>
-      <c r="S152" s="11">
+      <c r="S152" s="12">
         <v>3002718</v>
       </c>
-      <c r="T152" s="11">
+      <c r="T152" s="12">
         <v>2401010090</v>
       </c>
-      <c r="U152" s="11" t="s">
+      <c r="U152" s="12" t="s">
         <v>392</v>
       </c>
-      <c r="V152" s="11">
+      <c r="V152" s="12">
         <v>2018</v>
       </c>
-      <c r="X152" s="11" t="s">
+      <c r="X152" s="12" t="s">
         <v>406</v>
       </c>
-      <c r="Y152" s="12">
+      <c r="Y152" s="13">
         <f>SUMAR.SI.CONJUNTO(Egresos_SIGEP!B:B,Egresos_SIGEP!A:A,Pagos_SAP!A152,Egresos_SIGEP!G:G,Pagos_SAP!G:G)</f>
         <v>0</v>
       </c>
-      <c r="Z152" s="12">
+      <c r="Z152" s="13">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Pagos_SAP!A152,Pagos_SAP!G:G,Pagos_SAP!G:G)-Y152</f>
         <v>0</v>
       </c>
-      <c r="AA152" s="12">
+      <c r="AA152" s="13">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Pagos_SAP!A152,Pagos_SAP!G:G,Pagos_SAP!G:G)*24.023%</f>
         <v>0</v>
       </c>
-      <c r="AB152" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:28" s="11" customFormat="1">
-      <c r="A153" s="11">
+      <c r="AB152" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:28" s="12" customFormat="1">
+      <c r="A153" s="12">
         <v>4500063026</v>
       </c>
-      <c r="B153" s="12">
+      <c r="B153" s="13">
         <v>2416</v>
       </c>
-      <c r="C153" s="11">
+      <c r="C153" s="12">
         <v>3900152231</v>
       </c>
-      <c r="D153" s="11">
+      <c r="D153" s="12">
         <v>31</v>
       </c>
-      <c r="E153" s="11" t="s">
+      <c r="E153" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="F153" s="11" t="s">
+      <c r="F153" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="G153" s="11">
-        <v>10</v>
-      </c>
-      <c r="H153" s="11">
+      <c r="G153" s="12">
+        <v>10</v>
+      </c>
+      <c r="H153" s="12">
         <v>7100266739</v>
       </c>
-      <c r="I153" s="11">
+      <c r="I153" s="12">
         <v>300</v>
       </c>
-      <c r="J153" s="11">
+      <c r="J153" s="12">
         <v>21940005</v>
       </c>
-      <c r="K153" s="11">
+      <c r="K153" s="12">
         <v>57</v>
       </c>
-      <c r="L153" s="11" t="s">
+      <c r="L153" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="M153" s="11">
+      <c r="M153" s="12">
         <v>250</v>
       </c>
-      <c r="N153" s="11">
+      <c r="N153" s="12">
         <v>21210101</v>
       </c>
-      <c r="O153" s="11">
-        <v>10</v>
-      </c>
-      <c r="P153" s="11">
+      <c r="O153" s="12">
+        <v>10</v>
+      </c>
+      <c r="P153" s="12">
         <v>9999</v>
       </c>
-      <c r="Q153" s="11">
+      <c r="Q153" s="12">
         <v>9999999999</v>
       </c>
-      <c r="R153" s="11" t="s">
+      <c r="R153" s="12" t="s">
         <v>369</v>
       </c>
-      <c r="S153" s="11">
+      <c r="S153" s="12">
         <v>3002718</v>
       </c>
-      <c r="T153" s="11">
+      <c r="T153" s="12">
         <v>2401010090</v>
       </c>
-      <c r="U153" s="11" t="s">
+      <c r="U153" s="12" t="s">
         <v>392</v>
       </c>
-      <c r="V153" s="11">
+      <c r="V153" s="12">
         <v>2018</v>
       </c>
-      <c r="X153" s="11" t="s">
+      <c r="X153" s="12" t="s">
         <v>406</v>
       </c>
-      <c r="Y153" s="12">
+      <c r="Y153" s="13">
         <f>SUMAR.SI.CONJUNTO(Egresos_SIGEP!B:B,Egresos_SIGEP!A:A,Pagos_SAP!A153,Egresos_SIGEP!G:G,Pagos_SAP!G:G)</f>
         <v>0</v>
       </c>
-      <c r="Z153" s="12">
+      <c r="Z153" s="13">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Pagos_SAP!A153,Pagos_SAP!G:G,Pagos_SAP!G:G)-Y153</f>
         <v>0</v>
       </c>
-      <c r="AA153" s="12">
+      <c r="AA153" s="13">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Pagos_SAP!A153,Pagos_SAP!G:G,Pagos_SAP!G:G)*24.023%</f>
         <v>0</v>
       </c>
-      <c r="AB153" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:28" s="11" customFormat="1">
-      <c r="A154" s="11">
+      <c r="AB153" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:28" s="12" customFormat="1">
+      <c r="A154" s="12">
         <v>4500063026</v>
       </c>
-      <c r="B154" s="12">
+      <c r="B154" s="13">
         <v>2999</v>
       </c>
-      <c r="C154" s="11">
+      <c r="C154" s="12">
         <v>3900152231</v>
       </c>
-      <c r="D154" s="11">
+      <c r="D154" s="12">
         <v>32</v>
       </c>
-      <c r="E154" s="11" t="s">
+      <c r="E154" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="F154" s="11" t="s">
+      <c r="F154" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="G154" s="11">
-        <v>10</v>
-      </c>
-      <c r="H154" s="11">
+      <c r="G154" s="12">
+        <v>10</v>
+      </c>
+      <c r="H154" s="12">
         <v>7100266739</v>
       </c>
-      <c r="I154" s="11">
+      <c r="I154" s="12">
         <v>310</v>
       </c>
-      <c r="J154" s="11">
+      <c r="J154" s="12">
         <v>21940005</v>
       </c>
-      <c r="K154" s="11">
+      <c r="K154" s="12">
         <v>57</v>
       </c>
-      <c r="L154" s="11" t="s">
+      <c r="L154" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="M154" s="11">
+      <c r="M154" s="12">
         <v>250</v>
       </c>
-      <c r="N154" s="11">
+      <c r="N154" s="12">
         <v>21210101</v>
       </c>
-      <c r="O154" s="11">
-        <v>10</v>
-      </c>
-      <c r="P154" s="11">
+      <c r="O154" s="12">
+        <v>10</v>
+      </c>
+      <c r="P154" s="12">
         <v>9999</v>
       </c>
-      <c r="Q154" s="11">
+      <c r="Q154" s="12">
         <v>9999999999</v>
       </c>
-      <c r="R154" s="11" t="s">
+      <c r="R154" s="12" t="s">
         <v>369</v>
       </c>
-      <c r="S154" s="11">
+      <c r="S154" s="12">
         <v>3002718</v>
       </c>
-      <c r="T154" s="11">
+      <c r="T154" s="12">
         <v>2401010090</v>
       </c>
-      <c r="U154" s="11" t="s">
+      <c r="U154" s="12" t="s">
         <v>392</v>
       </c>
-      <c r="V154" s="11">
+      <c r="V154" s="12">
         <v>2018</v>
       </c>
-      <c r="X154" s="11" t="s">
+      <c r="X154" s="12" t="s">
         <v>406</v>
       </c>
-      <c r="Y154" s="12">
+      <c r="Y154" s="13">
         <f>SUMAR.SI.CONJUNTO(Egresos_SIGEP!B:B,Egresos_SIGEP!A:A,Pagos_SAP!A154,Egresos_SIGEP!G:G,Pagos_SAP!G:G)</f>
         <v>0</v>
       </c>
-      <c r="Z154" s="12">
+      <c r="Z154" s="13">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Pagos_SAP!A154,Pagos_SAP!G:G,Pagos_SAP!G:G)-Y154</f>
         <v>0</v>
       </c>
-      <c r="AA154" s="12">
+      <c r="AA154" s="13">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Pagos_SAP!A154,Pagos_SAP!G:G,Pagos_SAP!G:G)*24.023%</f>
         <v>0</v>
       </c>
-      <c r="AB154" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:28" s="11" customFormat="1">
-      <c r="A155" s="11">
+      <c r="AB154" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:28" s="12" customFormat="1">
+      <c r="A155" s="12">
         <v>4500063026</v>
       </c>
-      <c r="B155" s="12">
+      <c r="B155" s="13">
         <v>2212</v>
       </c>
-      <c r="C155" s="11">
+      <c r="C155" s="12">
         <v>3900152231</v>
       </c>
-      <c r="D155" s="11">
+      <c r="D155" s="12">
         <v>33</v>
       </c>
-      <c r="E155" s="11" t="s">
+      <c r="E155" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="F155" s="11" t="s">
+      <c r="F155" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="G155" s="11">
-        <v>10</v>
-      </c>
-      <c r="H155" s="11">
+      <c r="G155" s="12">
+        <v>10</v>
+      </c>
+      <c r="H155" s="12">
         <v>7100266739</v>
       </c>
-      <c r="I155" s="11">
+      <c r="I155" s="12">
         <v>320</v>
       </c>
-      <c r="J155" s="11">
+      <c r="J155" s="12">
         <v>21940005</v>
       </c>
-      <c r="K155" s="11">
+      <c r="K155" s="12">
         <v>57</v>
       </c>
-      <c r="L155" s="11" t="s">
+      <c r="L155" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="M155" s="11">
+      <c r="M155" s="12">
         <v>250</v>
       </c>
-      <c r="N155" s="11">
+      <c r="N155" s="12">
         <v>21210101</v>
       </c>
-      <c r="O155" s="11">
-        <v>10</v>
-      </c>
-      <c r="P155" s="11">
+      <c r="O155" s="12">
+        <v>10</v>
+      </c>
+      <c r="P155" s="12">
         <v>9999</v>
       </c>
-      <c r="Q155" s="11">
+      <c r="Q155" s="12">
         <v>9999999999</v>
       </c>
-      <c r="R155" s="11" t="s">
+      <c r="R155" s="12" t="s">
         <v>369</v>
       </c>
-      <c r="S155" s="11">
+      <c r="S155" s="12">
         <v>3002718</v>
       </c>
-      <c r="T155" s="11">
+      <c r="T155" s="12">
         <v>2401010090</v>
       </c>
-      <c r="U155" s="11" t="s">
+      <c r="U155" s="12" t="s">
         <v>392</v>
       </c>
-      <c r="V155" s="11">
+      <c r="V155" s="12">
         <v>2018</v>
       </c>
-      <c r="X155" s="11" t="s">
+      <c r="X155" s="12" t="s">
         <v>406</v>
       </c>
-      <c r="Y155" s="12">
+      <c r="Y155" s="13">
         <f>SUMAR.SI.CONJUNTO(Egresos_SIGEP!B:B,Egresos_SIGEP!A:A,Pagos_SAP!A155,Egresos_SIGEP!G:G,Pagos_SAP!G:G)</f>
         <v>0</v>
       </c>
-      <c r="Z155" s="12">
+      <c r="Z155" s="13">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Pagos_SAP!A155,Pagos_SAP!G:G,Pagos_SAP!G:G)-Y155</f>
         <v>0</v>
       </c>
-      <c r="AA155" s="12">
+      <c r="AA155" s="13">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Pagos_SAP!A155,Pagos_SAP!G:G,Pagos_SAP!G:G)*24.023%</f>
         <v>0</v>
       </c>
-      <c r="AB155" s="11">
+      <c r="AB155" s="12">
         <v>0</v>
       </c>
     </row>
@@ -33268,175 +33281,175 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:28" s="11" customFormat="1">
-      <c r="A251" s="11">
+    <row r="251" spans="1:28" s="12" customFormat="1">
+      <c r="A251" s="12">
         <v>4500063958</v>
       </c>
-      <c r="B251" s="12">
+      <c r="B251" s="13">
         <v>1100000</v>
       </c>
-      <c r="C251" s="11">
+      <c r="C251" s="12">
         <v>3900148912</v>
       </c>
-      <c r="D251" s="11">
+      <c r="D251" s="12">
         <v>2</v>
       </c>
-      <c r="E251" s="11" t="s">
+      <c r="E251" s="12" t="s">
         <v>266</v>
       </c>
-      <c r="F251" s="11" t="s">
+      <c r="F251" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="G251" s="11">
-        <v>10</v>
-      </c>
-      <c r="H251" s="11">
+      <c r="G251" s="12">
+        <v>10</v>
+      </c>
+      <c r="H251" s="12">
         <v>7100263223</v>
       </c>
-      <c r="I251" s="11">
+      <c r="I251" s="12">
         <v>20</v>
       </c>
-      <c r="J251" s="11">
+      <c r="J251" s="12">
         <v>21940005</v>
       </c>
-      <c r="K251" s="11">
+      <c r="K251" s="12">
         <v>57</v>
       </c>
-      <c r="L251" s="11" t="s">
+      <c r="L251" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="M251" s="11">
+      <c r="M251" s="12">
         <v>250</v>
       </c>
-      <c r="N251" s="11">
+      <c r="N251" s="12">
         <v>21230104</v>
       </c>
-      <c r="O251" s="11">
-        <v>10</v>
-      </c>
-      <c r="P251" s="11">
+      <c r="O251" s="12">
+        <v>10</v>
+      </c>
+      <c r="P251" s="12">
         <v>9999</v>
       </c>
-      <c r="Q251" s="11">
+      <c r="Q251" s="12">
         <v>9999999999</v>
       </c>
-      <c r="R251" s="11" t="s">
+      <c r="R251" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="S251" s="11">
+      <c r="S251" s="12">
         <v>3002710</v>
       </c>
-      <c r="T251" s="11">
+      <c r="T251" s="12">
         <v>2401010090</v>
       </c>
-      <c r="U251" s="11" t="s">
+      <c r="U251" s="12" t="s">
         <v>400</v>
       </c>
-      <c r="V251" s="11">
+      <c r="V251" s="12">
         <v>2018</v>
       </c>
-      <c r="X251" s="11" t="s">
+      <c r="X251" s="12" t="s">
         <v>417</v>
       </c>
-      <c r="Y251" s="12">
+      <c r="Y251" s="13">
         <f>SUMAR.SI.CONJUNTO(Egresos_SIGEP!B:B,Egresos_SIGEP!A:A,Pagos_SAP!A251,Egresos_SIGEP!G:G,Pagos_SAP!G:G)</f>
         <v>0</v>
       </c>
-      <c r="Z251" s="12">
+      <c r="Z251" s="13">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Pagos_SAP!A251,Pagos_SAP!G:G,Pagos_SAP!G:G)-Y251</f>
         <v>0</v>
       </c>
-      <c r="AA251" s="12">
+      <c r="AA251" s="13">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Pagos_SAP!A251,Pagos_SAP!G:G,Pagos_SAP!G:G)*24.023%</f>
         <v>0</v>
       </c>
-      <c r="AB251" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="252" spans="1:28" s="11" customFormat="1">
-      <c r="A252" s="11">
+      <c r="AB251" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:28" s="12" customFormat="1">
+      <c r="A252" s="12">
         <v>4500063958</v>
       </c>
-      <c r="B252" s="12">
+      <c r="B252" s="13">
         <v>220000</v>
       </c>
-      <c r="C252" s="11">
+      <c r="C252" s="12">
         <v>3900149831</v>
       </c>
-      <c r="D252" s="11">
+      <c r="D252" s="12">
         <v>2</v>
       </c>
-      <c r="E252" s="11" t="s">
+      <c r="E252" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="F252" s="11" t="s">
+      <c r="F252" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="G252" s="11">
-        <v>10</v>
-      </c>
-      <c r="H252" s="11">
+      <c r="G252" s="12">
+        <v>10</v>
+      </c>
+      <c r="H252" s="12">
         <v>7100266737</v>
       </c>
-      <c r="I252" s="11">
+      <c r="I252" s="12">
         <v>20</v>
       </c>
-      <c r="J252" s="11">
+      <c r="J252" s="12">
         <v>21940005</v>
       </c>
-      <c r="K252" s="11">
+      <c r="K252" s="12">
         <v>57</v>
       </c>
-      <c r="L252" s="11" t="s">
+      <c r="L252" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="M252" s="11">
+      <c r="M252" s="12">
         <v>250</v>
       </c>
-      <c r="N252" s="11">
+      <c r="N252" s="12">
         <v>21230104</v>
       </c>
-      <c r="O252" s="11">
-        <v>10</v>
-      </c>
-      <c r="P252" s="11">
+      <c r="O252" s="12">
+        <v>10</v>
+      </c>
+      <c r="P252" s="12">
         <v>9999</v>
       </c>
-      <c r="Q252" s="11">
+      <c r="Q252" s="12">
         <v>9999999999</v>
       </c>
-      <c r="R252" s="11" t="s">
+      <c r="R252" s="12" t="s">
         <v>374</v>
       </c>
-      <c r="S252" s="11">
+      <c r="S252" s="12">
         <v>3002710</v>
       </c>
-      <c r="T252" s="11">
+      <c r="T252" s="12">
         <v>2401010090</v>
       </c>
-      <c r="U252" s="11" t="s">
+      <c r="U252" s="12" t="s">
         <v>400</v>
       </c>
-      <c r="V252" s="11">
+      <c r="V252" s="12">
         <v>2018</v>
       </c>
-      <c r="X252" s="11" t="s">
+      <c r="X252" s="12" t="s">
         <v>417</v>
       </c>
-      <c r="Y252" s="12">
+      <c r="Y252" s="13">
         <f>SUMAR.SI.CONJUNTO(Egresos_SIGEP!B:B,Egresos_SIGEP!A:A,Pagos_SAP!A252,Egresos_SIGEP!G:G,Pagos_SAP!G:G)</f>
         <v>0</v>
       </c>
-      <c r="Z252" s="12">
+      <c r="Z252" s="13">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Pagos_SAP!A252,Pagos_SAP!G:G,Pagos_SAP!G:G)-Y252</f>
         <v>0</v>
       </c>
-      <c r="AA252" s="12">
+      <c r="AA252" s="13">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Pagos_SAP!A252,Pagos_SAP!G:G,Pagos_SAP!G:G)*24.023%</f>
         <v>0</v>
       </c>
-      <c r="AB252" s="11">
+      <c r="AB252" s="12">
         <v>0</v>
       </c>
     </row>
@@ -36450,83 +36463,83 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:28" s="11" customFormat="1">
-      <c r="A288" s="11">
+    <row r="288" spans="1:28" s="12" customFormat="1">
+      <c r="A288" s="12">
         <v>5500007767</v>
       </c>
-      <c r="B288" s="12">
+      <c r="B288" s="13">
         <v>27900</v>
       </c>
-      <c r="C288" s="11">
+      <c r="C288" s="12">
         <v>5500007767</v>
       </c>
-      <c r="D288" s="11">
+      <c r="D288" s="12">
         <v>1</v>
       </c>
-      <c r="E288" s="11" t="s">
+      <c r="E288" s="12" t="s">
         <v>292</v>
       </c>
-      <c r="F288" s="11" t="s">
+      <c r="F288" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="G288" s="11">
-        <v>10</v>
-      </c>
-      <c r="H288" s="11">
+      <c r="G288" s="12">
+        <v>10</v>
+      </c>
+      <c r="H288" s="12">
         <v>5500007767</v>
       </c>
-      <c r="I288" s="11">
-        <v>0</v>
-      </c>
-      <c r="J288" s="11">
+      <c r="I288" s="12">
+        <v>0</v>
+      </c>
+      <c r="J288" s="12">
         <v>21940005</v>
       </c>
-      <c r="K288" s="11">
+      <c r="K288" s="12">
         <v>57</v>
       </c>
-      <c r="L288" s="11" t="s">
+      <c r="L288" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="M288" s="11">
+      <c r="M288" s="12">
         <v>250</v>
       </c>
-      <c r="N288" s="11">
+      <c r="N288" s="12">
         <v>29110101</v>
       </c>
-      <c r="O288" s="11">
-        <v>10</v>
-      </c>
-      <c r="P288" s="11">
+      <c r="O288" s="12">
+        <v>10</v>
+      </c>
+      <c r="P288" s="12">
         <v>9999</v>
       </c>
-      <c r="Q288" s="11">
+      <c r="Q288" s="12">
         <v>9999999999</v>
       </c>
-      <c r="R288" s="11" t="s">
+      <c r="R288" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="T288" s="11">
+      <c r="T288" s="12">
         <v>5111900602</v>
       </c>
-      <c r="U288" s="11" t="s">
+      <c r="U288" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="V288" s="11">
+      <c r="V288" s="12">
         <v>2018</v>
       </c>
-      <c r="Y288" s="12">
+      <c r="Y288" s="13">
         <f>SUMAR.SI.CONJUNTO(Egresos_SIGEP!B:B,Egresos_SIGEP!A:A,Pagos_SAP!A288,Egresos_SIGEP!G:G,Pagos_SAP!G:G)</f>
         <v>0</v>
       </c>
-      <c r="Z288" s="12">
+      <c r="Z288" s="13">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Pagos_SAP!A288,Pagos_SAP!G:G,Pagos_SAP!G:G)-Y288</f>
         <v>0</v>
       </c>
-      <c r="AA288" s="12">
+      <c r="AA288" s="13">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Pagos_SAP!A288,Pagos_SAP!G:G,Pagos_SAP!G:G)*24.023%</f>
         <v>0</v>
       </c>
-      <c r="AB288" s="11">
+      <c r="AB288" s="12">
         <v>0</v>
       </c>
     </row>
@@ -42531,9 +42544,8 @@
       </c>
     </row>
     <row r="364" spans="1:28">
-      <c r="B364" s="2">
-        <f>SUM(B2:B363)</f>
-        <v>0</v>
+      <c r="B364" s="9">
+        <v>97217489</v>
       </c>
       <c r="Y364" s="2">
         <f>SUM(Y2:Y363)</f>
@@ -42545,6 +42557,12 @@
       </c>
       <c r="AA364" s="2">
         <f>SUM(AA2:AA363)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:28">
+      <c r="B365" s="2">
+        <f>SUM(B2:B363)</f>
         <v>0</v>
       </c>
     </row>
@@ -42839,49 +42857,49 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="9" customFormat="1">
-      <c r="A7" s="9">
+    <row r="7" spans="1:14" s="10" customFormat="1">
+      <c r="A7" s="10">
         <v>2000455763</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="11">
         <v>215616</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="10" t="s">
         <v>437</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="10">
         <v>47844</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="10" t="s">
         <v>447</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="10">
         <v>1.540944e+18</v>
       </c>
-      <c r="G7" s="9">
-        <v>10</v>
-      </c>
-      <c r="H7" s="9">
+      <c r="G7" s="10">
+        <v>10</v>
+      </c>
+      <c r="H7" s="10">
         <v>47230</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="I7" s="10" t="s">
         <v>452</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="J7" s="10" t="s">
         <v>503</v>
       </c>
-      <c r="K7" s="9" t="s">
+      <c r="K7" s="10" t="s">
         <v>608</v>
       </c>
-      <c r="L7" s="10">
+      <c r="L7" s="11">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Egresos_SIGEP!A7,Pagos_SAP!G:G,Egresos_SIGEP!G:G)</f>
         <v>0</v>
       </c>
-      <c r="M7" s="10">
+      <c r="M7" s="11">
         <f>SUMAR.SI.CONJUNTO(Egresos_SIGEP!B:B,Egresos_SIGEP!A:A,Egresos_SIGEP!A7,Egresos_SIGEP!G:G,Egresos_SIGEP!G:G)-L7</f>
         <v>0</v>
       </c>
-      <c r="N7" s="9">
+      <c r="N7" s="10">
         <v>0</v>
       </c>
     </row>
@@ -42977,49 +42995,49 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="9" customFormat="1">
-      <c r="A10" s="9">
+    <row r="10" spans="1:14" s="10" customFormat="1">
+      <c r="A10" s="10">
         <v>2000441528</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="11">
         <v>238149</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="10" t="s">
         <v>438</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="10">
         <v>47883</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="10" t="s">
         <v>447</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="10">
         <v>1.540944e+18</v>
       </c>
-      <c r="G10" s="9">
-        <v>10</v>
-      </c>
-      <c r="H10" s="9">
+      <c r="G10" s="10">
+        <v>10</v>
+      </c>
+      <c r="H10" s="10">
         <v>45865</v>
       </c>
-      <c r="I10" s="9" t="s">
+      <c r="I10" s="10" t="s">
         <v>454</v>
       </c>
-      <c r="J10" s="9" t="s">
+      <c r="J10" s="10" t="s">
         <v>506</v>
       </c>
-      <c r="K10" s="9" t="s">
+      <c r="K10" s="10" t="s">
         <v>608</v>
       </c>
-      <c r="L10" s="10">
+      <c r="L10" s="11">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Egresos_SIGEP!A10,Pagos_SAP!G:G,Egresos_SIGEP!G:G)</f>
         <v>0</v>
       </c>
-      <c r="M10" s="10">
+      <c r="M10" s="11">
         <f>SUMAR.SI.CONJUNTO(Egresos_SIGEP!B:B,Egresos_SIGEP!A:A,Egresos_SIGEP!A10,Egresos_SIGEP!G:G,Egresos_SIGEP!G:G)-L10</f>
         <v>0</v>
       </c>
-      <c r="N10" s="9">
+      <c r="N10" s="10">
         <v>0</v>
       </c>
     </row>
@@ -47117,49 +47135,49 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:14" s="9" customFormat="1">
-      <c r="A100" s="9">
+    <row r="100" spans="1:14" s="10" customFormat="1">
+      <c r="A100" s="10">
         <v>2000441530</v>
       </c>
-      <c r="B100" s="10">
+      <c r="B100" s="11">
         <v>69303</v>
       </c>
-      <c r="C100" s="9" t="s">
+      <c r="C100" s="10" t="s">
         <v>440</v>
       </c>
-      <c r="D100" s="9">
+      <c r="D100" s="10">
         <v>47832</v>
       </c>
-      <c r="E100" s="9" t="s">
+      <c r="E100" s="10" t="s">
         <v>447</v>
       </c>
-      <c r="F100" s="9">
+      <c r="F100" s="10">
         <v>1.540944e+18</v>
       </c>
-      <c r="G100" s="9">
-        <v>10</v>
-      </c>
-      <c r="H100" s="9">
+      <c r="G100" s="10">
+        <v>10</v>
+      </c>
+      <c r="H100" s="10">
         <v>45864</v>
       </c>
-      <c r="I100" s="9" t="s">
+      <c r="I100" s="10" t="s">
         <v>464</v>
       </c>
-      <c r="J100" s="9" t="s">
+      <c r="J100" s="10" t="s">
         <v>522</v>
       </c>
-      <c r="K100" s="9" t="s">
+      <c r="K100" s="10" t="s">
         <v>608</v>
       </c>
-      <c r="L100" s="10">
+      <c r="L100" s="11">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Egresos_SIGEP!A100,Pagos_SAP!G:G,Egresos_SIGEP!G:G)</f>
         <v>0</v>
       </c>
-      <c r="M100" s="10">
+      <c r="M100" s="11">
         <f>SUMAR.SI.CONJUNTO(Egresos_SIGEP!B:B,Egresos_SIGEP!A:A,Egresos_SIGEP!A100,Egresos_SIGEP!G:G,Egresos_SIGEP!G:G)-L100</f>
         <v>0</v>
       </c>
-      <c r="N100" s="9">
+      <c r="N100" s="10">
         <v>0</v>
       </c>
     </row>
@@ -47991,49 +48009,49 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:14" s="9" customFormat="1">
-      <c r="A119" s="9">
+    <row r="119" spans="1:14" s="10" customFormat="1">
+      <c r="A119" s="10">
         <v>2000442415</v>
       </c>
-      <c r="B119" s="10">
+      <c r="B119" s="11">
         <v>165016</v>
       </c>
-      <c r="C119" s="9" t="s">
+      <c r="C119" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="D119" s="9">
+      <c r="D119" s="10">
         <v>47835</v>
       </c>
-      <c r="E119" s="9" t="s">
+      <c r="E119" s="10" t="s">
         <v>447</v>
       </c>
-      <c r="F119" s="9">
+      <c r="F119" s="10">
         <v>1.540944e+18</v>
       </c>
-      <c r="G119" s="9">
-        <v>10</v>
-      </c>
-      <c r="H119" s="9">
+      <c r="G119" s="10">
+        <v>10</v>
+      </c>
+      <c r="H119" s="10">
         <v>46148</v>
       </c>
-      <c r="I119" s="9" t="s">
+      <c r="I119" s="10" t="s">
         <v>473</v>
       </c>
-      <c r="J119" s="9" t="s">
+      <c r="J119" s="10" t="s">
         <v>540</v>
       </c>
-      <c r="K119" s="9" t="s">
+      <c r="K119" s="10" t="s">
         <v>608</v>
       </c>
-      <c r="L119" s="10">
+      <c r="L119" s="11">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Egresos_SIGEP!A119,Pagos_SAP!G:G,Egresos_SIGEP!G:G)</f>
         <v>0</v>
       </c>
-      <c r="M119" s="10">
+      <c r="M119" s="11">
         <f>SUMAR.SI.CONJUNTO(Egresos_SIGEP!B:B,Egresos_SIGEP!A:A,Egresos_SIGEP!A119,Egresos_SIGEP!G:G,Egresos_SIGEP!G:G)-L119</f>
         <v>0</v>
       </c>
-      <c r="N119" s="9">
+      <c r="N119" s="10">
         <v>0</v>
       </c>
     </row>
@@ -48083,49 +48101,49 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:14" s="9" customFormat="1">
-      <c r="A121" s="9">
+    <row r="121" spans="1:14" s="10" customFormat="1">
+      <c r="A121" s="10">
         <v>2000443163</v>
       </c>
-      <c r="B121" s="10">
+      <c r="B121" s="11">
         <v>517478</v>
       </c>
-      <c r="C121" s="9" t="s">
+      <c r="C121" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="D121" s="9">
+      <c r="D121" s="10">
         <v>47838</v>
       </c>
-      <c r="E121" s="9" t="s">
+      <c r="E121" s="10" t="s">
         <v>447</v>
       </c>
-      <c r="F121" s="9">
+      <c r="F121" s="10">
         <v>1.540944e+18</v>
       </c>
-      <c r="G121" s="9">
-        <v>10</v>
-      </c>
-      <c r="H121" s="9">
+      <c r="G121" s="10">
+        <v>10</v>
+      </c>
+      <c r="H121" s="10">
         <v>46149</v>
       </c>
-      <c r="I121" s="9" t="s">
+      <c r="I121" s="10" t="s">
         <v>474</v>
       </c>
-      <c r="J121" s="9" t="s">
+      <c r="J121" s="10" t="s">
         <v>542</v>
       </c>
-      <c r="K121" s="9" t="s">
+      <c r="K121" s="10" t="s">
         <v>608</v>
       </c>
-      <c r="L121" s="10">
+      <c r="L121" s="11">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Egresos_SIGEP!A121,Pagos_SAP!G:G,Egresos_SIGEP!G:G)</f>
         <v>0</v>
       </c>
-      <c r="M121" s="10">
+      <c r="M121" s="11">
         <f>SUMAR.SI.CONJUNTO(Egresos_SIGEP!B:B,Egresos_SIGEP!A:A,Egresos_SIGEP!A121,Egresos_SIGEP!G:G,Egresos_SIGEP!G:G)-L121</f>
         <v>0</v>
       </c>
-      <c r="N121" s="9">
+      <c r="N121" s="10">
         <v>0</v>
       </c>
     </row>
@@ -48175,49 +48193,49 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:14" s="9" customFormat="1">
-      <c r="A123" s="9">
+    <row r="123" spans="1:14" s="10" customFormat="1">
+      <c r="A123" s="10">
         <v>2000444623</v>
       </c>
-      <c r="B123" s="10">
+      <c r="B123" s="11">
         <v>175943</v>
       </c>
-      <c r="C123" s="9" t="s">
+      <c r="C123" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="D123" s="9">
+      <c r="D123" s="10">
         <v>47874</v>
       </c>
-      <c r="E123" s="9" t="s">
+      <c r="E123" s="10" t="s">
         <v>447</v>
       </c>
-      <c r="F123" s="9">
+      <c r="F123" s="10">
         <v>1.540944e+18</v>
       </c>
-      <c r="G123" s="9">
-        <v>10</v>
-      </c>
-      <c r="H123" s="9">
+      <c r="G123" s="10">
+        <v>10</v>
+      </c>
+      <c r="H123" s="10">
         <v>46293</v>
       </c>
-      <c r="I123" s="9" t="s">
+      <c r="I123" s="10" t="s">
         <v>475</v>
       </c>
-      <c r="J123" s="9" t="s">
+      <c r="J123" s="10" t="s">
         <v>544</v>
       </c>
-      <c r="K123" s="9" t="s">
+      <c r="K123" s="10" t="s">
         <v>608</v>
       </c>
-      <c r="L123" s="10">
+      <c r="L123" s="11">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Egresos_SIGEP!A123,Pagos_SAP!G:G,Egresos_SIGEP!G:G)</f>
         <v>0</v>
       </c>
-      <c r="M123" s="10">
+      <c r="M123" s="11">
         <f>SUMAR.SI.CONJUNTO(Egresos_SIGEP!B:B,Egresos_SIGEP!A:A,Egresos_SIGEP!A123,Egresos_SIGEP!G:G,Egresos_SIGEP!G:G)-L123</f>
         <v>0</v>
       </c>
-      <c r="N123" s="9">
+      <c r="N123" s="10">
         <v>0</v>
       </c>
     </row>
@@ -48359,49 +48377,49 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:14" s="9" customFormat="1">
-      <c r="A127" s="9">
+    <row r="127" spans="1:14" s="10" customFormat="1">
+      <c r="A127" s="10">
         <v>2000415658</v>
       </c>
-      <c r="B127" s="10">
+      <c r="B127" s="11">
         <v>44002</v>
       </c>
-      <c r="C127" s="9" t="s">
+      <c r="C127" s="10" t="s">
         <v>443</v>
       </c>
-      <c r="D127" s="9">
+      <c r="D127" s="10">
         <v>47865</v>
       </c>
-      <c r="E127" s="9" t="s">
+      <c r="E127" s="10" t="s">
         <v>447</v>
       </c>
-      <c r="F127" s="9">
+      <c r="F127" s="10">
         <v>1.540944e+18</v>
       </c>
-      <c r="G127" s="9">
-        <v>10</v>
-      </c>
-      <c r="H127" s="9">
+      <c r="G127" s="10">
+        <v>10</v>
+      </c>
+      <c r="H127" s="10">
         <v>42987</v>
       </c>
-      <c r="I127" s="9" t="s">
+      <c r="I127" s="10" t="s">
         <v>477</v>
       </c>
-      <c r="J127" s="9" t="s">
+      <c r="J127" s="10" t="s">
         <v>547</v>
       </c>
-      <c r="K127" s="9" t="s">
+      <c r="K127" s="10" t="s">
         <v>608</v>
       </c>
-      <c r="L127" s="10">
+      <c r="L127" s="11">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Egresos_SIGEP!A127,Pagos_SAP!G:G,Egresos_SIGEP!G:G)</f>
         <v>0</v>
       </c>
-      <c r="M127" s="10">
+      <c r="M127" s="11">
         <f>SUMAR.SI.CONJUNTO(Egresos_SIGEP!B:B,Egresos_SIGEP!A:A,Egresos_SIGEP!A127,Egresos_SIGEP!G:G,Egresos_SIGEP!G:G)-L127</f>
         <v>0</v>
       </c>
-      <c r="N127" s="9">
+      <c r="N127" s="10">
         <v>0</v>
       </c>
     </row>
@@ -48451,49 +48469,49 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:14" s="9" customFormat="1">
-      <c r="A129" s="9">
+    <row r="129" spans="1:14" s="10" customFormat="1">
+      <c r="A129" s="10">
         <v>2000415659</v>
       </c>
-      <c r="B129" s="10">
+      <c r="B129" s="11">
         <v>122182</v>
       </c>
-      <c r="C129" s="9" t="s">
+      <c r="C129" s="10" t="s">
         <v>443</v>
       </c>
-      <c r="D129" s="9">
+      <c r="D129" s="10">
         <v>47867</v>
       </c>
-      <c r="E129" s="9" t="s">
+      <c r="E129" s="10" t="s">
         <v>447</v>
       </c>
-      <c r="F129" s="9">
+      <c r="F129" s="10">
         <v>1.540944e+18</v>
       </c>
-      <c r="G129" s="9">
-        <v>10</v>
-      </c>
-      <c r="H129" s="9">
+      <c r="G129" s="10">
+        <v>10</v>
+      </c>
+      <c r="H129" s="10">
         <v>42989</v>
       </c>
-      <c r="I129" s="9" t="s">
+      <c r="I129" s="10" t="s">
         <v>478</v>
       </c>
-      <c r="J129" s="9" t="s">
+      <c r="J129" s="10" t="s">
         <v>549</v>
       </c>
-      <c r="K129" s="9" t="s">
+      <c r="K129" s="10" t="s">
         <v>608</v>
       </c>
-      <c r="L129" s="10">
+      <c r="L129" s="11">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Egresos_SIGEP!A129,Pagos_SAP!G:G,Egresos_SIGEP!G:G)</f>
         <v>0</v>
       </c>
-      <c r="M129" s="10">
+      <c r="M129" s="11">
         <f>SUMAR.SI.CONJUNTO(Egresos_SIGEP!B:B,Egresos_SIGEP!A:A,Egresos_SIGEP!A129,Egresos_SIGEP!G:G,Egresos_SIGEP!G:G)-L129</f>
         <v>0</v>
       </c>
-      <c r="N129" s="9">
+      <c r="N129" s="10">
         <v>0</v>
       </c>
     </row>
@@ -48681,49 +48699,49 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:14" s="9" customFormat="1">
-      <c r="A134" s="9">
+    <row r="134" spans="1:14" s="10" customFormat="1">
+      <c r="A134" s="10">
         <v>2000416544</v>
       </c>
-      <c r="B134" s="10">
+      <c r="B134" s="11">
         <v>43377</v>
       </c>
-      <c r="C134" s="9" t="s">
+      <c r="C134" s="10" t="s">
         <v>442</v>
       </c>
-      <c r="D134" s="9">
+      <c r="D134" s="10">
         <v>47826</v>
       </c>
-      <c r="E134" s="9" t="s">
+      <c r="E134" s="10" t="s">
         <v>447</v>
       </c>
-      <c r="F134" s="9">
+      <c r="F134" s="10">
         <v>1.540944e+18</v>
       </c>
-      <c r="G134" s="9">
-        <v>10</v>
-      </c>
-      <c r="H134" s="9">
+      <c r="G134" s="10">
+        <v>10</v>
+      </c>
+      <c r="H134" s="10">
         <v>42991</v>
       </c>
-      <c r="I134" s="9" t="s">
+      <c r="I134" s="10" t="s">
         <v>480</v>
       </c>
-      <c r="J134" s="9" t="s">
+      <c r="J134" s="10" t="s">
         <v>553</v>
       </c>
-      <c r="K134" s="9" t="s">
+      <c r="K134" s="10" t="s">
         <v>608</v>
       </c>
-      <c r="L134" s="10">
+      <c r="L134" s="11">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Egresos_SIGEP!A134,Pagos_SAP!G:G,Egresos_SIGEP!G:G)</f>
         <v>0</v>
       </c>
-      <c r="M134" s="10">
+      <c r="M134" s="11">
         <f>SUMAR.SI.CONJUNTO(Egresos_SIGEP!B:B,Egresos_SIGEP!A:A,Egresos_SIGEP!A134,Egresos_SIGEP!G:G,Egresos_SIGEP!G:G)-L134</f>
         <v>0</v>
       </c>
-      <c r="N134" s="9">
+      <c r="N134" s="10">
         <v>0</v>
       </c>
     </row>
@@ -48773,49 +48791,49 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:14" s="9" customFormat="1">
-      <c r="A136" s="9">
+    <row r="136" spans="1:14" s="10" customFormat="1">
+      <c r="A136" s="10">
         <v>2000416545</v>
       </c>
-      <c r="B136" s="10">
+      <c r="B136" s="11">
         <v>84707</v>
       </c>
-      <c r="C136" s="9" t="s">
+      <c r="C136" s="10" t="s">
         <v>442</v>
       </c>
-      <c r="D136" s="9">
+      <c r="D136" s="10">
         <v>47828</v>
       </c>
-      <c r="E136" s="9" t="s">
+      <c r="E136" s="10" t="s">
         <v>447</v>
       </c>
-      <c r="F136" s="9">
+      <c r="F136" s="10">
         <v>1.540944e+18</v>
       </c>
-      <c r="G136" s="9">
-        <v>10</v>
-      </c>
-      <c r="H136" s="9">
+      <c r="G136" s="10">
+        <v>10</v>
+      </c>
+      <c r="H136" s="10">
         <v>43006</v>
       </c>
-      <c r="I136" s="9" t="s">
+      <c r="I136" s="10" t="s">
         <v>481</v>
       </c>
-      <c r="J136" s="9" t="s">
+      <c r="J136" s="10" t="s">
         <v>555</v>
       </c>
-      <c r="K136" s="9" t="s">
+      <c r="K136" s="10" t="s">
         <v>608</v>
       </c>
-      <c r="L136" s="10">
+      <c r="L136" s="11">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Egresos_SIGEP!A136,Pagos_SAP!G:G,Egresos_SIGEP!G:G)</f>
         <v>0</v>
       </c>
-      <c r="M136" s="10">
+      <c r="M136" s="11">
         <f>SUMAR.SI.CONJUNTO(Egresos_SIGEP!B:B,Egresos_SIGEP!A:A,Egresos_SIGEP!A136,Egresos_SIGEP!G:G,Egresos_SIGEP!G:G)-L136</f>
         <v>0</v>
       </c>
-      <c r="N136" s="9">
+      <c r="N136" s="10">
         <v>0</v>
       </c>
     </row>
@@ -48865,49 +48883,49 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:14" s="9" customFormat="1">
-      <c r="A138" s="9">
+    <row r="138" spans="1:14" s="10" customFormat="1">
+      <c r="A138" s="10">
         <v>2000429622</v>
       </c>
-      <c r="B138" s="10">
+      <c r="B138" s="11">
         <v>34283</v>
       </c>
-      <c r="C138" s="9" t="s">
+      <c r="C138" s="10" t="s">
         <v>442</v>
       </c>
-      <c r="D138" s="9">
+      <c r="D138" s="10">
         <v>47830</v>
       </c>
-      <c r="E138" s="9" t="s">
+      <c r="E138" s="10" t="s">
         <v>447</v>
       </c>
-      <c r="F138" s="9">
+      <c r="F138" s="10">
         <v>1.540944e+18</v>
       </c>
-      <c r="G138" s="9">
-        <v>10</v>
-      </c>
-      <c r="H138" s="9">
+      <c r="G138" s="10">
+        <v>10</v>
+      </c>
+      <c r="H138" s="10">
         <v>46548</v>
       </c>
-      <c r="I138" s="9" t="s">
+      <c r="I138" s="10" t="s">
         <v>474</v>
       </c>
-      <c r="J138" s="9" t="s">
+      <c r="J138" s="10" t="s">
         <v>557</v>
       </c>
-      <c r="K138" s="9" t="s">
+      <c r="K138" s="10" t="s">
         <v>608</v>
       </c>
-      <c r="L138" s="10">
+      <c r="L138" s="11">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Egresos_SIGEP!A138,Pagos_SAP!G:G,Egresos_SIGEP!G:G)</f>
         <v>0</v>
       </c>
-      <c r="M138" s="10">
+      <c r="M138" s="11">
         <f>SUMAR.SI.CONJUNTO(Egresos_SIGEP!B:B,Egresos_SIGEP!A:A,Egresos_SIGEP!A138,Egresos_SIGEP!G:G,Egresos_SIGEP!G:G)-L138</f>
         <v>0</v>
       </c>
-      <c r="N138" s="9">
+      <c r="N138" s="10">
         <v>0</v>
       </c>
     </row>
@@ -48957,49 +48975,49 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:14" s="9" customFormat="1">
-      <c r="A140" s="9">
+    <row r="140" spans="1:14" s="10" customFormat="1">
+      <c r="A140" s="10">
         <v>2000432861</v>
       </c>
-      <c r="B140" s="10">
+      <c r="B140" s="11">
         <v>152728</v>
       </c>
-      <c r="C140" s="9" t="s">
+      <c r="C140" s="10" t="s">
         <v>442</v>
       </c>
-      <c r="D140" s="9">
+      <c r="D140" s="10">
         <v>47869</v>
       </c>
-      <c r="E140" s="9" t="s">
+      <c r="E140" s="10" t="s">
         <v>447</v>
       </c>
-      <c r="F140" s="9">
+      <c r="F140" s="10">
         <v>1.540944e+18</v>
       </c>
-      <c r="G140" s="9">
-        <v>10</v>
-      </c>
-      <c r="H140" s="9">
+      <c r="G140" s="10">
+        <v>10</v>
+      </c>
+      <c r="H140" s="10">
         <v>44604</v>
       </c>
-      <c r="I140" s="9" t="s">
+      <c r="I140" s="10" t="s">
         <v>482</v>
       </c>
-      <c r="J140" s="9" t="s">
+      <c r="J140" s="10" t="s">
         <v>559</v>
       </c>
-      <c r="K140" s="9" t="s">
+      <c r="K140" s="10" t="s">
         <v>608</v>
       </c>
-      <c r="L140" s="10">
+      <c r="L140" s="11">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Egresos_SIGEP!A140,Pagos_SAP!G:G,Egresos_SIGEP!G:G)</f>
         <v>0</v>
       </c>
-      <c r="M140" s="10">
+      <c r="M140" s="11">
         <f>SUMAR.SI.CONJUNTO(Egresos_SIGEP!B:B,Egresos_SIGEP!A:A,Egresos_SIGEP!A140,Egresos_SIGEP!G:G,Egresos_SIGEP!G:G)-L140</f>
         <v>0</v>
       </c>
-      <c r="N140" s="9">
+      <c r="N140" s="10">
         <v>0</v>
       </c>
     </row>
@@ -49601,49 +49619,49 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:14" s="9" customFormat="1">
-      <c r="A154" s="9">
+    <row r="154" spans="1:14" s="10" customFormat="1">
+      <c r="A154" s="10">
         <v>2000450148</v>
       </c>
-      <c r="B154" s="10">
+      <c r="B154" s="11">
         <v>207251</v>
       </c>
-      <c r="C154" s="9" t="s">
+      <c r="C154" s="10" t="s">
         <v>445</v>
       </c>
-      <c r="D154" s="9">
+      <c r="D154" s="10">
         <v>47841</v>
       </c>
-      <c r="E154" s="9" t="s">
+      <c r="E154" s="10" t="s">
         <v>447</v>
       </c>
-      <c r="F154" s="9">
+      <c r="F154" s="10">
         <v>1.540944e+18</v>
       </c>
-      <c r="G154" s="9">
-        <v>10</v>
-      </c>
-      <c r="H154" s="9">
+      <c r="G154" s="10">
+        <v>10</v>
+      </c>
+      <c r="H154" s="10">
         <v>46771</v>
       </c>
-      <c r="I154" s="9" t="s">
+      <c r="I154" s="10" t="s">
         <v>489</v>
       </c>
-      <c r="J154" s="9" t="s">
+      <c r="J154" s="10" t="s">
         <v>569</v>
       </c>
-      <c r="K154" s="9" t="s">
+      <c r="K154" s="10" t="s">
         <v>608</v>
       </c>
-      <c r="L154" s="10">
+      <c r="L154" s="11">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Egresos_SIGEP!A154,Pagos_SAP!G:G,Egresos_SIGEP!G:G)</f>
         <v>0</v>
       </c>
-      <c r="M154" s="10">
+      <c r="M154" s="11">
         <f>SUMAR.SI.CONJUNTO(Egresos_SIGEP!B:B,Egresos_SIGEP!A:A,Egresos_SIGEP!A154,Egresos_SIGEP!G:G,Egresos_SIGEP!G:G)-L154</f>
         <v>0</v>
       </c>
-      <c r="N154" s="9">
+      <c r="N154" s="10">
         <v>0</v>
       </c>
     </row>
@@ -50383,95 +50401,95 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:14" s="11" customFormat="1">
-      <c r="A171" s="11">
+    <row r="171" spans="1:14" s="12" customFormat="1">
+      <c r="A171" s="12">
         <v>4500063958</v>
       </c>
-      <c r="B171" s="12">
+      <c r="B171" s="13">
         <v>1100000</v>
       </c>
-      <c r="C171" s="11" t="s">
+      <c r="C171" s="12" t="s">
         <v>445</v>
       </c>
-      <c r="D171" s="11">
+      <c r="D171" s="12">
         <v>45239</v>
       </c>
-      <c r="E171" s="11" t="s">
+      <c r="E171" s="12" t="s">
         <v>447</v>
       </c>
-      <c r="F171" s="11">
+      <c r="F171" s="12">
         <v>1.5386976e+18</v>
       </c>
-      <c r="G171" s="11">
-        <v>10</v>
-      </c>
-      <c r="H171" s="11">
+      <c r="G171" s="12">
+        <v>10</v>
+      </c>
+      <c r="H171" s="12">
         <v>44791</v>
       </c>
-      <c r="I171" s="11" t="s">
+      <c r="I171" s="12" t="s">
         <v>472</v>
       </c>
-      <c r="J171" s="11" t="s">
+      <c r="J171" s="12" t="s">
         <v>586</v>
       </c>
-      <c r="K171" s="11" t="s">
+      <c r="K171" s="12" t="s">
         <v>607</v>
       </c>
-      <c r="L171" s="12">
+      <c r="L171" s="13">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Egresos_SIGEP!A171,Pagos_SAP!G:G,Egresos_SIGEP!G:G)</f>
         <v>0</v>
       </c>
-      <c r="M171" s="12">
+      <c r="M171" s="13">
         <f>SUMAR.SI.CONJUNTO(Egresos_SIGEP!B:B,Egresos_SIGEP!A:A,Egresos_SIGEP!A171,Egresos_SIGEP!G:G,Egresos_SIGEP!G:G)-L171</f>
         <v>0</v>
       </c>
-      <c r="N171" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:14" s="11" customFormat="1">
-      <c r="A172" s="11">
+      <c r="N171" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14" s="12" customFormat="1">
+      <c r="A172" s="12">
         <v>4500063958</v>
       </c>
-      <c r="B172" s="12">
+      <c r="B172" s="13">
         <v>180000</v>
       </c>
-      <c r="C172" s="11" t="s">
+      <c r="C172" s="12" t="s">
         <v>445</v>
       </c>
-      <c r="D172" s="11">
+      <c r="D172" s="12">
         <v>46722</v>
       </c>
-      <c r="E172" s="11" t="s">
+      <c r="E172" s="12" t="s">
         <v>447</v>
       </c>
-      <c r="F172" s="11">
+      <c r="F172" s="12">
         <v>1.539648e+18</v>
       </c>
-      <c r="G172" s="11">
-        <v>10</v>
-      </c>
-      <c r="H172" s="11">
+      <c r="G172" s="12">
+        <v>10</v>
+      </c>
+      <c r="H172" s="12">
         <v>44791</v>
       </c>
-      <c r="I172" s="11" t="s">
+      <c r="I172" s="12" t="s">
         <v>472</v>
       </c>
-      <c r="J172" s="11" t="s">
+      <c r="J172" s="12" t="s">
         <v>587</v>
       </c>
-      <c r="K172" s="11" t="s">
+      <c r="K172" s="12" t="s">
         <v>607</v>
       </c>
-      <c r="L172" s="12">
+      <c r="L172" s="13">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Egresos_SIGEP!A172,Pagos_SAP!G:G,Egresos_SIGEP!G:G)</f>
         <v>0</v>
       </c>
-      <c r="M172" s="12">
+      <c r="M172" s="13">
         <f>SUMAR.SI.CONJUNTO(Egresos_SIGEP!B:B,Egresos_SIGEP!A:A,Egresos_SIGEP!A172,Egresos_SIGEP!G:G,Egresos_SIGEP!G:G)-L172</f>
         <v>0</v>
       </c>
-      <c r="N172" s="11">
+      <c r="N172" s="12">
         <v>0</v>
       </c>
     </row>
@@ -50935,49 +50953,49 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:14" s="9" customFormat="1">
-      <c r="A183" s="9">
+    <row r="183" spans="1:14" s="10" customFormat="1">
+      <c r="A183" s="10">
         <v>2000443663</v>
       </c>
-      <c r="B183" s="10">
+      <c r="B183" s="11">
         <v>44335</v>
       </c>
-      <c r="C183" s="9" t="s">
+      <c r="C183" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="D183" s="9">
+      <c r="D183" s="10">
         <v>47872</v>
       </c>
-      <c r="E183" s="9" t="s">
+      <c r="E183" s="10" t="s">
         <v>447</v>
       </c>
-      <c r="F183" s="9">
+      <c r="F183" s="10">
         <v>1.540944e+18</v>
       </c>
-      <c r="G183" s="9">
-        <v>10</v>
-      </c>
-      <c r="H183" s="9">
+      <c r="G183" s="10">
+        <v>10</v>
+      </c>
+      <c r="H183" s="10">
         <v>46544</v>
       </c>
-      <c r="I183" s="9" t="s">
+      <c r="I183" s="10" t="s">
         <v>494</v>
       </c>
-      <c r="J183" s="9" t="s">
+      <c r="J183" s="10" t="s">
         <v>598</v>
       </c>
-      <c r="K183" s="9" t="s">
+      <c r="K183" s="10" t="s">
         <v>608</v>
       </c>
-      <c r="L183" s="10">
+      <c r="L183" s="11">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Egresos_SIGEP!A183,Pagos_SAP!G:G,Egresos_SIGEP!G:G)</f>
         <v>0</v>
       </c>
-      <c r="M183" s="10">
+      <c r="M183" s="11">
         <f>SUMAR.SI.CONJUNTO(Egresos_SIGEP!B:B,Egresos_SIGEP!A:A,Egresos_SIGEP!A183,Egresos_SIGEP!G:G,Egresos_SIGEP!G:G)-L183</f>
         <v>0</v>
       </c>
-      <c r="N183" s="9">
+      <c r="N183" s="10">
         <v>0</v>
       </c>
     </row>
@@ -51027,49 +51045,49 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:14" s="9" customFormat="1">
-      <c r="A185" s="9">
+    <row r="185" spans="1:14" s="10" customFormat="1">
+      <c r="A185" s="10">
         <v>2000451356</v>
       </c>
-      <c r="B185" s="10">
+      <c r="B185" s="11">
         <v>19276</v>
       </c>
-      <c r="C185" s="9" t="s">
+      <c r="C185" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="D185" s="9">
+      <c r="D185" s="10">
         <v>47876</v>
       </c>
-      <c r="E185" s="9" t="s">
+      <c r="E185" s="10" t="s">
         <v>447</v>
       </c>
-      <c r="F185" s="9">
+      <c r="F185" s="10">
         <v>1.540944e+18</v>
       </c>
-      <c r="G185" s="9">
-        <v>10</v>
-      </c>
-      <c r="H185" s="9">
+      <c r="G185" s="10">
+        <v>10</v>
+      </c>
+      <c r="H185" s="10">
         <v>46546</v>
       </c>
-      <c r="I185" s="9" t="s">
+      <c r="I185" s="10" t="s">
         <v>495</v>
       </c>
-      <c r="J185" s="9" t="s">
+      <c r="J185" s="10" t="s">
         <v>600</v>
       </c>
-      <c r="K185" s="9" t="s">
+      <c r="K185" s="10" t="s">
         <v>608</v>
       </c>
-      <c r="L185" s="10">
+      <c r="L185" s="11">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Egresos_SIGEP!A185,Pagos_SAP!G:G,Egresos_SIGEP!G:G)</f>
         <v>0</v>
       </c>
-      <c r="M185" s="10">
+      <c r="M185" s="11">
         <f>SUMAR.SI.CONJUNTO(Egresos_SIGEP!B:B,Egresos_SIGEP!A:A,Egresos_SIGEP!A185,Egresos_SIGEP!G:G,Egresos_SIGEP!G:G)-L185</f>
         <v>0</v>
       </c>
-      <c r="N185" s="9">
+      <c r="N185" s="10">
         <v>0</v>
       </c>
     </row>
@@ -51165,49 +51183,49 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:14" s="9" customFormat="1">
-      <c r="A188" s="9">
+    <row r="188" spans="1:14" s="10" customFormat="1">
+      <c r="A188" s="10">
         <v>2000442413</v>
       </c>
-      <c r="B188" s="10">
+      <c r="B188" s="11">
         <v>44335</v>
       </c>
-      <c r="C188" s="9" t="s">
+      <c r="C188" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="D188" s="9">
+      <c r="D188" s="10">
         <v>47885</v>
       </c>
-      <c r="E188" s="9" t="s">
+      <c r="E188" s="10" t="s">
         <v>447</v>
       </c>
-      <c r="F188" s="9">
+      <c r="F188" s="10">
         <v>1.540944e+18</v>
       </c>
-      <c r="G188" s="9">
-        <v>10</v>
-      </c>
-      <c r="H188" s="9">
+      <c r="G188" s="10">
+        <v>10</v>
+      </c>
+      <c r="H188" s="10">
         <v>46542</v>
       </c>
-      <c r="I188" s="9" t="s">
+      <c r="I188" s="10" t="s">
         <v>466</v>
       </c>
-      <c r="J188" s="9" t="s">
+      <c r="J188" s="10" t="s">
         <v>603</v>
       </c>
-      <c r="K188" s="9" t="s">
+      <c r="K188" s="10" t="s">
         <v>608</v>
       </c>
-      <c r="L188" s="10">
+      <c r="L188" s="11">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Egresos_SIGEP!A188,Pagos_SAP!G:G,Egresos_SIGEP!G:G)</f>
         <v>0</v>
       </c>
-      <c r="M188" s="10">
+      <c r="M188" s="11">
         <f>SUMAR.SI.CONJUNTO(Egresos_SIGEP!B:B,Egresos_SIGEP!A:A,Egresos_SIGEP!A188,Egresos_SIGEP!G:G,Egresos_SIGEP!G:G)-L188</f>
         <v>0</v>
       </c>
-      <c r="N188" s="9">
+      <c r="N188" s="10">
         <v>0</v>
       </c>
     </row>
@@ -51257,49 +51275,49 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:14" s="9" customFormat="1">
-      <c r="A190" s="9">
+    <row r="190" spans="1:14" s="10" customFormat="1">
+      <c r="A190" s="10">
         <v>2000442414</v>
       </c>
-      <c r="B190" s="10">
+      <c r="B190" s="11">
         <v>130132</v>
       </c>
-      <c r="C190" s="9" t="s">
+      <c r="C190" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="D190" s="9">
+      <c r="D190" s="10">
         <v>47887</v>
       </c>
-      <c r="E190" s="9" t="s">
+      <c r="E190" s="10" t="s">
         <v>447</v>
       </c>
-      <c r="F190" s="9">
+      <c r="F190" s="10">
         <v>1.540944e+18</v>
       </c>
-      <c r="G190" s="9">
-        <v>10</v>
-      </c>
-      <c r="H190" s="9">
+      <c r="G190" s="10">
+        <v>10</v>
+      </c>
+      <c r="H190" s="10">
         <v>46543</v>
       </c>
-      <c r="I190" s="9" t="s">
+      <c r="I190" s="10" t="s">
         <v>480</v>
       </c>
-      <c r="J190" s="9" t="s">
+      <c r="J190" s="10" t="s">
         <v>605</v>
       </c>
-      <c r="K190" s="9" t="s">
+      <c r="K190" s="10" t="s">
         <v>608</v>
       </c>
-      <c r="L190" s="10">
+      <c r="L190" s="11">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Egresos_SIGEP!A190,Pagos_SAP!G:G,Egresos_SIGEP!G:G)</f>
         <v>0</v>
       </c>
-      <c r="M190" s="10">
+      <c r="M190" s="11">
         <f>SUMAR.SI.CONJUNTO(Egresos_SIGEP!B:B,Egresos_SIGEP!A:A,Egresos_SIGEP!A190,Egresos_SIGEP!G:G,Egresos_SIGEP!G:G)-L190</f>
         <v>0</v>
       </c>
-      <c r="N190" s="9">
+      <c r="N190" s="10">
         <v>0</v>
       </c>
     </row>

--- a/storage/app/public/files/files_out/Centro_de_Costos_122_1.xlsx
+++ b/storage/app/public/files/files_out/Centro_de_Costos_122_1.xlsx
@@ -2340,7 +2340,7 @@
         <v>621</v>
       </c>
       <c r="D5" s="2">
-        <f>Recaudos_SAP!B84</f>
+        <f>Recaudos_SAP!B85</f>
         <v>0</v>
       </c>
       <c r="E5" s="2">
@@ -2394,7 +2394,7 @@
         <v>621</v>
       </c>
       <c r="D12" s="2">
-        <f>Pagos_SAP!B364</f>
+        <f>Pagos_SAP!B365</f>
         <v>0</v>
       </c>
       <c r="E12" s="2">
